--- a/Planejamento Geral.xlsx
+++ b/Planejamento Geral.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr filterPrivacy="1" updateLinks="always" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="2321" documentId="13_ncr:1_{8CB3FCBC-DACE-4BCA-A656-CE7D6185D885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FB6BE95B-B973-413B-A946-C86BF8CDDC8D}"/>
+  <xr:revisionPtr revIDLastSave="2322" documentId="13_ncr:1_{8CB3FCBC-DACE-4BCA-A656-CE7D6185D885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{053AA7D2-2530-4681-BDFD-ACE7DDB1E707}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="363" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="363" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planejamento IED" sheetId="11" r:id="rId1"/>
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Embarques Vivenciais'!$A$76:$H$97</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Equipe!$A$1:$I$46</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Planejamento IED'!$A$1:$E$1028</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Planejamento IED'!$A$1:$E$1027</definedName>
     <definedName name="Hoje" localSheetId="3">TODAY()</definedName>
     <definedName name="Hoje" localSheetId="0">TODAY()</definedName>
     <definedName name="Início_da_tarefa" localSheetId="3">'3 Pessoas'!$E1</definedName>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="308">
   <si>
     <t>Nome</t>
   </si>
@@ -485,12 +485,6 @@
   </si>
   <si>
     <t>Folga alinhada</t>
-  </si>
-  <si>
-    <t>01/</t>
-  </si>
-  <si>
-    <t>Treinamento presencial no EDIHB</t>
   </si>
   <si>
     <t>RICARDO UEMA</t>
@@ -9106,8 +9100,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6AB63F5-01C4-4ED8-B3C5-D3AEB2DB48F3}" name="Tabela1" displayName="Tabela1" ref="A1:I1028" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" tableBorderDxfId="54" dataCellStyle="Nome">
-  <autoFilter ref="A1:I1028" xr:uid="{D6AB63F5-01C4-4ED8-B3C5-D3AEB2DB48F3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6AB63F5-01C4-4ED8-B3C5-D3AEB2DB48F3}" name="Tabela1" displayName="Tabela1" ref="A1:I1027" totalsRowShown="0" headerRowDxfId="56" dataDxfId="55" tableBorderDxfId="54" dataCellStyle="Nome">
+  <autoFilter ref="A1:I1027" xr:uid="{D6AB63F5-01C4-4ED8-B3C5-D3AEB2DB48F3}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{C8A8658B-B54C-47E5-A350-3E4123B94A55}" name="Nome" dataDxfId="53" dataCellStyle="Nome"/>
     <tableColumn id="2" xr3:uid="{41F4E0E6-9B25-4120-B6CD-9E09A0162769}" name="Matrícula" dataDxfId="52" dataCellStyle="Nome">
@@ -9397,11 +9391,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L1028"/>
+  <dimension ref="A1:L1027"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G167" sqref="G167"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A158" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C174" sqref="C174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14728,44 +14722,43 @@
     </row>
     <row r="163" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="86" t="s">
-        <v>105</v>
+        <v>144</v>
       </c>
       <c r="B163" s="105">
         <f>_xlfn.XLOOKUP(A163,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>9683150</v>
-      </c>
-      <c r="C163" s="90" t="s">
-        <v>144</v>
-      </c>
-      <c r="D163" s="106" t="e">
-        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C163+E163-1,"")</f>
-        <v>#VALUE!</v>
+        <v>4612247</v>
+      </c>
+      <c r="C163" s="90">
+        <v>45875</v>
+      </c>
+      <c r="D163" s="106">
+        <v>45875</v>
       </c>
       <c r="E163" s="86">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F163" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="G163" s="98" t="s">
-        <v>145</v>
+      <c r="G163" s="133" t="s">
+        <v>85</v>
       </c>
       <c r="H163" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P80</v>
+        <v>A definir</v>
       </c>
       <c r="I163" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Experiente</v>
+        <v>Novo</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="86" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B164" s="105">
         <f>_xlfn.XLOOKUP(A164,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612247</v>
+        <v>4612393</v>
       </c>
       <c r="C164" s="90">
         <v>45875</v>
@@ -14779,8 +14772,8 @@
       <c r="F164" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="G164" s="133" t="s">
-        <v>85</v>
+      <c r="G164" s="98" t="s">
+        <v>122</v>
       </c>
       <c r="H164" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
@@ -14793,26 +14786,26 @@
     </row>
     <row r="165" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="86" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B165" s="105">
         <f>_xlfn.XLOOKUP(A165,Equipe!H:H,Equipe!B:B,"",0)</f>
         <v>4612393</v>
       </c>
       <c r="C165" s="90">
-        <v>45875</v>
+        <v>45887</v>
       </c>
       <c r="D165" s="106">
-        <v>45875</v>
+        <v>45891</v>
       </c>
       <c r="E165" s="86">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F165" s="86" t="s">
         <v>16</v>
       </c>
       <c r="G165" s="98" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H165" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
@@ -14825,17 +14818,17 @@
     </row>
     <row r="166" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="86" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B166" s="105">
         <f>_xlfn.XLOOKUP(A166,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612393</v>
+        <v>4612247</v>
       </c>
       <c r="C166" s="90">
-        <v>45887</v>
+        <v>45880</v>
       </c>
       <c r="D166" s="106">
-        <v>45891</v>
+        <v>45884</v>
       </c>
       <c r="E166" s="86">
         <v>5</v>
@@ -14861,22 +14854,23 @@
       </c>
       <c r="B167" s="105">
         <f>_xlfn.XLOOKUP(A167,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612247</v>
+        <v>4612228</v>
       </c>
       <c r="C167" s="90">
-        <v>45880</v>
+        <v>45877</v>
       </c>
       <c r="D167" s="106">
-        <v>45884</v>
+        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C167+E167-1,"")</f>
+        <v>45877</v>
       </c>
       <c r="E167" s="86">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F167" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="G167" s="98" t="s">
-        <v>123</v>
+      <c r="G167" s="134" t="s">
+        <v>122</v>
       </c>
       <c r="H167" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
@@ -14889,35 +14883,35 @@
     </row>
     <row r="168" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="86" t="s">
-        <v>148</v>
+        <v>36</v>
       </c>
       <c r="B168" s="105">
         <f>_xlfn.XLOOKUP(A168,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612228</v>
+        <v>9634222</v>
       </c>
       <c r="C168" s="90">
-        <v>45877</v>
+        <v>45881</v>
       </c>
       <c r="D168" s="106">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C168+E168-1,"")</f>
-        <v>45877</v>
+        <v>45894</v>
       </c>
       <c r="E168" s="86">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F168" s="86" t="s">
-        <v>16</v>
-      </c>
-      <c r="G168" s="134" t="s">
-        <v>122</v>
+        <v>11</v>
+      </c>
+      <c r="G168" s="98" t="s">
+        <v>99</v>
       </c>
       <c r="H168" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>A definir</v>
+        <v>PBAC</v>
       </c>
       <c r="I168" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Novo</v>
+        <v>Experiente</v>
       </c>
     </row>
     <row r="169" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -14929,20 +14923,20 @@
         <v>9634222</v>
       </c>
       <c r="C169" s="90">
-        <v>45881</v>
+        <v>45895</v>
       </c>
       <c r="D169" s="106">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C169+E169-1,"")</f>
-        <v>45894</v>
+        <v>45915</v>
       </c>
       <c r="E169" s="86">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="F169" s="86" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G169" s="98" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
       <c r="H169" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
@@ -14954,36 +14948,26 @@
       </c>
     </row>
     <row r="170" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="86" t="s">
-        <v>36</v>
-      </c>
+      <c r="A170" s="86"/>
       <c r="B170" s="105">
         <f>_xlfn.XLOOKUP(A170,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>9634222</v>
-      </c>
-      <c r="C170" s="90">
-        <v>45895</v>
-      </c>
-      <c r="D170" s="106">
+        <v>0</v>
+      </c>
+      <c r="C170" s="90"/>
+      <c r="D170" s="106" t="str">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C170+E170-1,"")</f>
-        <v>45915</v>
-      </c>
-      <c r="E170" s="86">
-        <v>21</v>
-      </c>
-      <c r="F170" s="86" t="s">
-        <v>17</v>
-      </c>
-      <c r="G170" s="98" t="s">
-        <v>149</v>
-      </c>
+        <v/>
+      </c>
+      <c r="E170" s="86"/>
+      <c r="F170" s="86"/>
+      <c r="G170" s="98"/>
       <c r="H170" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>PBAC</v>
-      </c>
-      <c r="I170" s="39" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Experiente</v>
+        <v>ERRO</v>
+      </c>
+      <c r="I170" s="39" t="e">
+        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -17861,7 +17845,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="296" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="86"/>
       <c r="B296" s="105">
         <f>_xlfn.XLOOKUP(A296,Equipe!H:H,Equipe!B:B,"",0)</f>
@@ -34651,7 +34635,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1026" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1026" spans="1:9" ht="1.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1026" s="86"/>
       <c r="B1026" s="105">
         <f>_xlfn.XLOOKUP(A1026,Equipe!H:H,Equipe!B:B,"",0)</f>
@@ -34674,47 +34658,24 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1027" spans="1:9" ht="1.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1027" s="86"/>
-      <c r="B1027" s="105">
-        <f>_xlfn.XLOOKUP(A1027,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
-      </c>
-      <c r="C1027" s="90"/>
-      <c r="D1027" s="106" t="str">
+    <row r="1027" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1027" s="89"/>
+      <c r="B1027" s="89">
+        <v>4608</v>
+      </c>
+      <c r="C1027" s="91"/>
+      <c r="D1027" s="108" t="str">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C1027+E1027-1,"")</f>
         <v/>
       </c>
-      <c r="E1027" s="86"/>
-      <c r="F1027" s="86"/>
-      <c r="G1027" s="98"/>
+      <c r="E1027" s="89"/>
+      <c r="F1027" s="89"/>
+      <c r="G1027" s="101"/>
       <c r="H1027" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
         <v>ERRO</v>
       </c>
       <c r="I1027" s="39" t="e">
-        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1028" spans="1:9" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1028" s="89"/>
-      <c r="B1028" s="89">
-        <v>4608</v>
-      </c>
-      <c r="C1028" s="91"/>
-      <c r="D1028" s="108" t="str">
-        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C1028+E1028-1,"")</f>
-        <v/>
-      </c>
-      <c r="E1028" s="89"/>
-      <c r="F1028" s="89"/>
-      <c r="G1028" s="101"/>
-      <c r="H1028" s="39" t="str">
-        <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>ERRO</v>
-      </c>
-      <c r="I1028" s="39" t="e">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
         <v>#N/A</v>
       </c>
@@ -34724,7 +34685,7 @@
     <mergeCell ref="L5:L8"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD1 C2:XFD3 K2:K6 A2:B33 L4:XFD4 E4:J61 C4:D67 L9:XFD1048576 K10:K1048576 A34:A53 B34:B63 A55:A63 E62:I72 J62:J1048576 A64:B67 A68:C69 D68:D72 A69:B71 A72:C72 A73:I84 A85:B86 D85:I86 A87:I107 A108:B108 D108:I108 A109:I116 A117:F117 H117:I117 A118:I147 A148:B148 D148:I148 A149:I163 A164:F164 H164:I164 A165:I167 A168:F168 H168:I168 A169:I1048576">
+  <conditionalFormatting sqref="A1:XFD1 C2:XFD3 K2:K6 A2:B33 L4:XFD4 E4:J61 C4:D67 A34:A53 B34:B63 A55:A63 E62:I72 A64:B67 A68:C69 D68:D72 A69:B71 A72:C72 A73:I84 A85:B86 D85:I86 A87:I107 A108:B108 D108:I108 A109:I116 A117:F117 H117:I117 A118:I147 A148:B148 D148:I148 A149:I162 A163:F163 H163:I163 A164:I166 A167:F167 H167:I167 A168:I1048576 L9:XFD1048576 K10:K1048576 J62:J1048576">
     <cfRule type="cellIs" dxfId="44" priority="11" operator="equal">
       <formula>"ESTALEIRO"</formula>
     </cfRule>
@@ -34755,10 +34716,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1028:F1128" xr:uid="{FE92769D-A30C-45A3-B10C-426BB3355AD8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1027:F1127" xr:uid="{FE92769D-A30C-45A3-B10C-426BB3355AD8}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1027" xr:uid="{156E15E9-23E7-431B-9B12-A26E3B0A7469}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1026" xr:uid="{156E15E9-23E7-431B-9B12-A26E3B0A7469}">
       <formula1>$K$2:$K$11</formula1>
     </dataValidation>
   </dataValidations>
@@ -34782,7 +34743,7 @@
           <x14:formula1>
             <xm:f>Equipe!$H$2:$H$131</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A1027</xm:sqref>
+          <xm:sqref>A2:A1026</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -34795,9 +34756,9 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomLeft" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34815,1379 +34776,1379 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="113" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B1" s="114" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="114" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="114" t="s">
+        <v>150</v>
+      </c>
+      <c r="E1" s="115" t="s">
         <v>151</v>
-      </c>
-      <c r="D1" s="114" t="s">
-        <v>152</v>
-      </c>
-      <c r="E1" s="115" t="s">
-        <v>153</v>
       </c>
       <c r="F1" s="115" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="115" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="H1" s="115" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="84" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B2" s="116">
         <v>4612171</v>
       </c>
       <c r="C2" s="116" t="s">
+        <v>155</v>
+      </c>
+      <c r="D2" s="117" t="s">
+        <v>156</v>
+      </c>
+      <c r="E2" s="118" t="s">
         <v>157</v>
       </c>
-      <c r="D2" s="117" t="s">
+      <c r="F2" s="118" t="s">
         <v>158</v>
       </c>
-      <c r="E2" s="118" t="s">
+      <c r="G2" s="119" t="s">
         <v>159</v>
-      </c>
-      <c r="F2" s="118" t="s">
-        <v>160</v>
-      </c>
-      <c r="G2" s="119" t="s">
-        <v>161</v>
       </c>
       <c r="H2" s="118" t="s">
         <v>118</v>
       </c>
       <c r="I2" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H27)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H27)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B3" s="110">
         <v>4612050</v>
       </c>
       <c r="C3" s="110" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D3" s="111" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="112" t="s">
+        <v>157</v>
+      </c>
+      <c r="F3" s="112" t="s">
         <v>158</v>
       </c>
-      <c r="E3" s="112" t="s">
-        <v>159</v>
-      </c>
-      <c r="F3" s="112" t="s">
-        <v>160</v>
-      </c>
       <c r="G3" s="120" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H3" s="112" t="s">
         <v>112</v>
       </c>
       <c r="I3" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H19)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H19)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B4" s="116">
         <v>4612140</v>
       </c>
       <c r="C4" s="116" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D4" s="117" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="118" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="118" t="s">
         <v>158</v>
       </c>
-      <c r="E4" s="118" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" s="118" t="s">
-        <v>160</v>
-      </c>
       <c r="G4" s="119" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="H4" s="118" t="s">
         <v>110</v>
       </c>
       <c r="I4" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H24)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H24)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B5" s="110">
         <v>9842940</v>
       </c>
       <c r="C5" s="110" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="111" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="112" t="s">
+        <v>165</v>
+      </c>
+      <c r="F5" s="112" t="s">
+        <v>158</v>
+      </c>
+      <c r="G5" s="120" t="s">
         <v>166</v>
-      </c>
-      <c r="D5" s="111" t="s">
-        <v>158</v>
-      </c>
-      <c r="E5" s="112" t="s">
-        <v>167</v>
-      </c>
-      <c r="F5" s="112" t="s">
-        <v>160</v>
-      </c>
-      <c r="G5" s="120" t="s">
-        <v>168</v>
       </c>
       <c r="H5" s="112" t="s">
         <v>31</v>
       </c>
       <c r="I5" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H25)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H25)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B6" s="110">
         <v>4608544</v>
       </c>
       <c r="C6" s="110" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" s="111" t="s">
+        <v>156</v>
+      </c>
+      <c r="E6" s="112" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="112" t="s">
+        <v>158</v>
+      </c>
+      <c r="G6" s="120" t="s">
         <v>169</v>
-      </c>
-      <c r="D6" s="111" t="s">
-        <v>158</v>
-      </c>
-      <c r="E6" s="112" t="s">
-        <v>170</v>
-      </c>
-      <c r="F6" s="112" t="s">
-        <v>160</v>
-      </c>
-      <c r="G6" s="120" t="s">
-        <v>171</v>
       </c>
       <c r="H6" s="112" t="s">
         <v>10</v>
       </c>
       <c r="I6" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H5)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H5)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="121" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B7" s="110">
         <v>4608559</v>
       </c>
       <c r="C7" s="110" t="s">
+        <v>170</v>
+      </c>
+      <c r="D7" s="122" t="s">
+        <v>156</v>
+      </c>
+      <c r="E7" s="123" t="s">
+        <v>171</v>
+      </c>
+      <c r="F7" s="123" t="s">
+        <v>158</v>
+      </c>
+      <c r="G7" s="124" t="s">
         <v>172</v>
-      </c>
-      <c r="D7" s="122" t="s">
-        <v>158</v>
-      </c>
-      <c r="E7" s="123" t="s">
-        <v>173</v>
-      </c>
-      <c r="F7" s="123" t="s">
-        <v>160</v>
-      </c>
-      <c r="G7" s="124" t="s">
-        <v>174</v>
       </c>
       <c r="H7" s="123" t="s">
         <v>14</v>
       </c>
       <c r="I7" s="85" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="121" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B8" s="110">
         <v>4606246</v>
       </c>
       <c r="C8" s="110" t="s">
+        <v>174</v>
+      </c>
+      <c r="D8" s="122" t="s">
+        <v>175</v>
+      </c>
+      <c r="E8" s="123" t="s">
         <v>176</v>
       </c>
-      <c r="D8" s="122" t="s">
+      <c r="F8" s="123" t="s">
+        <v>158</v>
+      </c>
+      <c r="G8" s="124" t="s">
         <v>177</v>
-      </c>
-      <c r="E8" s="123" t="s">
-        <v>178</v>
-      </c>
-      <c r="F8" s="123" t="s">
-        <v>160</v>
-      </c>
-      <c r="G8" s="124" t="s">
-        <v>179</v>
       </c>
       <c r="H8" s="123" t="s">
         <v>70</v>
       </c>
       <c r="I8" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H4)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H4)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="121" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B9" s="116">
         <v>9886449</v>
       </c>
       <c r="C9" s="116" t="s">
+        <v>179</v>
+      </c>
+      <c r="D9" s="125" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="126" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="126" t="s">
+        <v>180</v>
+      </c>
+      <c r="G9" s="127" t="s">
         <v>181</v>
-      </c>
-      <c r="D9" s="125" t="s">
-        <v>158</v>
-      </c>
-      <c r="E9" s="126" t="s">
-        <v>167</v>
-      </c>
-      <c r="F9" s="126" t="s">
-        <v>182</v>
-      </c>
-      <c r="G9" s="127" t="s">
-        <v>183</v>
       </c>
       <c r="H9" s="126" t="s">
         <v>54</v>
       </c>
       <c r="I9" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H9)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H9)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="121" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B10" s="110">
         <v>4608721</v>
       </c>
       <c r="C10" s="110" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D10" s="122" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="123" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="123" t="s">
         <v>158</v>
       </c>
-      <c r="E10" s="123" t="s">
-        <v>167</v>
-      </c>
-      <c r="F10" s="123" t="s">
-        <v>160</v>
-      </c>
       <c r="G10" s="124" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H10" s="123" t="s">
         <v>30</v>
       </c>
       <c r="I10" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H8)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H8)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="121" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B11" s="116">
         <v>1385894</v>
       </c>
       <c r="C11" s="116" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D11" s="125" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E11" s="126" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F11" s="126" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G11" s="127" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H11" s="126" t="s">
         <v>32</v>
       </c>
       <c r="I11" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H20)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H20)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B12" s="110">
         <v>4608685</v>
       </c>
       <c r="C12" s="110" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D12" s="111" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12" s="112" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="112" t="s">
         <v>158</v>
       </c>
-      <c r="E12" s="112" t="s">
-        <v>167</v>
-      </c>
-      <c r="F12" s="112" t="s">
-        <v>160</v>
-      </c>
       <c r="G12" s="120" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H12" s="112" t="s">
         <v>19</v>
       </c>
       <c r="I12" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H3)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H3)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="121" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B13" s="116">
         <v>4608474</v>
       </c>
       <c r="C13" s="116" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D13" s="117" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="118" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" s="118" t="s">
         <v>158</v>
       </c>
-      <c r="E13" s="118" t="s">
-        <v>170</v>
-      </c>
-      <c r="F13" s="118" t="s">
-        <v>160</v>
-      </c>
       <c r="G13" s="119" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H13" s="118" t="s">
         <v>28</v>
       </c>
       <c r="I13" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H15)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H15)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B14" s="110">
         <v>1386344</v>
       </c>
       <c r="C14" s="110" t="s">
+        <v>190</v>
+      </c>
+      <c r="D14" s="111" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" s="112" t="s">
+        <v>168</v>
+      </c>
+      <c r="F14" s="112" t="s">
+        <v>180</v>
+      </c>
+      <c r="G14" s="120" t="s">
+        <v>191</v>
+      </c>
+      <c r="H14" s="112" t="s">
         <v>192</v>
       </c>
-      <c r="D14" s="111" t="s">
-        <v>158</v>
-      </c>
-      <c r="E14" s="112" t="s">
-        <v>170</v>
-      </c>
-      <c r="F14" s="112" t="s">
-        <v>182</v>
-      </c>
-      <c r="G14" s="120" t="s">
-        <v>193</v>
-      </c>
-      <c r="H14" s="112" t="s">
-        <v>194</v>
-      </c>
       <c r="I14" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H23)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H23)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="121" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B15" s="128">
         <v>4608684</v>
       </c>
       <c r="C15" s="116" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D15" s="117" t="s">
+        <v>156</v>
+      </c>
+      <c r="E15" s="118" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" s="118" t="s">
         <v>158</v>
       </c>
-      <c r="E15" s="118" t="s">
-        <v>170</v>
-      </c>
-      <c r="F15" s="118" t="s">
-        <v>160</v>
-      </c>
       <c r="G15" s="119" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H15" s="118" t="s">
         <v>52</v>
       </c>
       <c r="I15" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H11)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H11)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="121" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B16" s="116">
         <v>4608411</v>
       </c>
       <c r="C16" s="116" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D16" s="117" t="s">
+        <v>156</v>
+      </c>
+      <c r="E16" s="118" t="s">
+        <v>171</v>
+      </c>
+      <c r="F16" s="126" t="s">
         <v>158</v>
       </c>
-      <c r="E16" s="118" t="s">
-        <v>173</v>
-      </c>
-      <c r="F16" s="126" t="s">
-        <v>160</v>
-      </c>
       <c r="G16" s="127" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H16" s="126" t="s">
         <v>46</v>
       </c>
       <c r="I16" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H14)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H14)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B17" s="110">
         <v>9634180</v>
       </c>
       <c r="C17" s="110" t="s">
+        <v>197</v>
+      </c>
+      <c r="D17" s="122" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" s="123" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="123" t="s">
+        <v>180</v>
+      </c>
+      <c r="G17" s="124" t="s">
+        <v>198</v>
+      </c>
+      <c r="H17" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="D17" s="122" t="s">
-        <v>158</v>
-      </c>
-      <c r="E17" s="123" t="s">
-        <v>173</v>
-      </c>
-      <c r="F17" s="123" t="s">
-        <v>182</v>
-      </c>
-      <c r="G17" s="124" t="s">
-        <v>200</v>
-      </c>
-      <c r="H17" s="123" t="s">
-        <v>201</v>
-      </c>
       <c r="I17" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H16)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H16)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B18" s="129">
         <v>4606308</v>
       </c>
       <c r="C18" s="116" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" s="125" t="s">
+        <v>175</v>
+      </c>
+      <c r="E18" s="126" t="s">
+        <v>176</v>
+      </c>
+      <c r="F18" s="126" t="s">
+        <v>158</v>
+      </c>
+      <c r="G18" s="127" t="s">
+        <v>201</v>
+      </c>
+      <c r="H18" s="118" t="s">
         <v>202</v>
       </c>
-      <c r="D18" s="125" t="s">
-        <v>177</v>
-      </c>
-      <c r="E18" s="126" t="s">
-        <v>178</v>
-      </c>
-      <c r="F18" s="126" t="s">
-        <v>160</v>
-      </c>
-      <c r="G18" s="127" t="s">
-        <v>203</v>
-      </c>
-      <c r="H18" s="118" t="s">
-        <v>204</v>
-      </c>
       <c r="I18" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H26)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H26)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B19" s="110">
         <v>9634222</v>
       </c>
       <c r="C19" s="110" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D19" s="122" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E19" s="123" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F19" s="112" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G19" s="124" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H19" s="123" t="s">
         <v>36</v>
       </c>
       <c r="I19" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H31)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H31)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B20" s="116">
         <v>229316</v>
       </c>
       <c r="C20" s="116" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D20" s="125" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E20" s="126" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F20" s="118" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G20" s="127" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H20" s="126" t="s">
         <v>124</v>
       </c>
       <c r="I20" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H2)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H2)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B21" s="110">
         <v>4612243</v>
       </c>
       <c r="C21" s="110" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D21" s="122" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" s="123" t="s">
+        <v>157</v>
+      </c>
+      <c r="F21" s="112" t="s">
         <v>158</v>
       </c>
-      <c r="E21" s="123" t="s">
-        <v>159</v>
-      </c>
-      <c r="F21" s="112" t="s">
-        <v>160</v>
-      </c>
       <c r="G21" s="124" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H21" s="123" t="s">
         <v>120</v>
       </c>
       <c r="I21" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H41)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H41)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B22" s="116">
         <v>4612389</v>
       </c>
       <c r="C22" s="116" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D22" s="125" t="s">
+        <v>156</v>
+      </c>
+      <c r="E22" s="126" t="s">
+        <v>157</v>
+      </c>
+      <c r="F22" s="118" t="s">
         <v>158</v>
       </c>
-      <c r="E22" s="126" t="s">
-        <v>159</v>
-      </c>
-      <c r="F22" s="118" t="s">
-        <v>160</v>
-      </c>
       <c r="G22" s="119" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="H22" s="118" t="s">
         <v>116</v>
       </c>
       <c r="I22" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H42)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H42)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B23" s="110">
         <v>4612192</v>
       </c>
       <c r="C23" s="110" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D23" s="122" t="s">
+        <v>156</v>
+      </c>
+      <c r="E23" s="123" t="s">
+        <v>157</v>
+      </c>
+      <c r="F23" s="123" t="s">
         <v>158</v>
       </c>
-      <c r="E23" s="123" t="s">
-        <v>159</v>
-      </c>
-      <c r="F23" s="123" t="s">
-        <v>160</v>
-      </c>
       <c r="G23" s="124" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H23" s="123" t="s">
         <v>114</v>
       </c>
       <c r="I23" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H43)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H43)&gt;0,"X","")</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B24" s="116">
         <v>4612393</v>
       </c>
       <c r="C24" s="116" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D24" s="125" t="s">
+        <v>156</v>
+      </c>
+      <c r="E24" s="126" t="s">
+        <v>157</v>
+      </c>
+      <c r="F24" s="118" t="s">
         <v>158</v>
       </c>
-      <c r="E24" s="126" t="s">
-        <v>159</v>
-      </c>
-      <c r="F24" s="118" t="s">
-        <v>160</v>
-      </c>
       <c r="G24" s="127" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H24" s="126" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I24" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H44)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H44)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B25" s="110">
         <v>4612228</v>
       </c>
       <c r="C25" s="110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D25" s="111" t="s">
+        <v>156</v>
+      </c>
+      <c r="E25" s="112" t="s">
+        <v>157</v>
+      </c>
+      <c r="F25" s="112" t="s">
         <v>158</v>
       </c>
-      <c r="E25" s="112" t="s">
-        <v>159</v>
-      </c>
-      <c r="F25" s="112" t="s">
-        <v>160</v>
-      </c>
       <c r="G25" s="120" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H25" s="112" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="I25" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H45)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H45)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B26" s="116">
         <v>4612247</v>
       </c>
       <c r="C26" s="116" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D26" s="117" t="s">
+        <v>156</v>
+      </c>
+      <c r="E26" s="118" t="s">
+        <v>157</v>
+      </c>
+      <c r="F26" s="118" t="s">
         <v>158</v>
       </c>
-      <c r="E26" s="118" t="s">
-        <v>159</v>
-      </c>
-      <c r="F26" s="118" t="s">
-        <v>160</v>
-      </c>
       <c r="G26" s="119" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H26" s="118" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I26" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H46)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H46)&gt;0,"X","")</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="79" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B27" s="116">
         <v>9762281</v>
       </c>
       <c r="C27" s="116" t="s">
+        <v>220</v>
+      </c>
+      <c r="D27" s="117" t="s">
+        <v>156</v>
+      </c>
+      <c r="E27" s="118" t="s">
+        <v>165</v>
+      </c>
+      <c r="F27" s="118" t="s">
+        <v>180</v>
+      </c>
+      <c r="G27" s="127" t="s">
+        <v>221</v>
+      </c>
+      <c r="H27" s="126" t="s">
         <v>222</v>
       </c>
-      <c r="D27" s="117" t="s">
-        <v>158</v>
-      </c>
-      <c r="E27" s="118" t="s">
-        <v>167</v>
-      </c>
-      <c r="F27" s="118" t="s">
-        <v>182</v>
-      </c>
-      <c r="G27" s="127" t="s">
-        <v>223</v>
-      </c>
-      <c r="H27" s="126" t="s">
-        <v>224</v>
-      </c>
       <c r="I27" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H6)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H6)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="79" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B28" s="110">
         <v>9683150</v>
       </c>
       <c r="C28" s="110" t="s">
+        <v>223</v>
+      </c>
+      <c r="D28" s="111" t="s">
+        <v>156</v>
+      </c>
+      <c r="E28" s="112" t="s">
+        <v>165</v>
+      </c>
+      <c r="F28" s="112" t="s">
+        <v>180</v>
+      </c>
+      <c r="G28" s="124" t="s">
+        <v>224</v>
+      </c>
+      <c r="H28" s="123" t="s">
         <v>225</v>
       </c>
-      <c r="D28" s="111" t="s">
-        <v>158</v>
-      </c>
-      <c r="E28" s="112" t="s">
-        <v>167</v>
-      </c>
-      <c r="F28" s="112" t="s">
-        <v>182</v>
-      </c>
-      <c r="G28" s="124" t="s">
-        <v>226</v>
-      </c>
-      <c r="H28" s="123" t="s">
-        <v>227</v>
-      </c>
       <c r="I28" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H30)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H30)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="79" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B29" s="116">
         <v>2440812</v>
       </c>
       <c r="C29" s="116" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29" s="117" t="s">
+        <v>227</v>
+      </c>
+      <c r="E29" s="126" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="118" t="s">
+        <v>180</v>
+      </c>
+      <c r="G29" s="127" t="s">
         <v>228</v>
-      </c>
-      <c r="D29" s="117" t="s">
-        <v>229</v>
-      </c>
-      <c r="E29" s="126" t="s">
-        <v>167</v>
-      </c>
-      <c r="F29" s="118" t="s">
-        <v>182</v>
-      </c>
-      <c r="G29" s="127" t="s">
-        <v>230</v>
       </c>
       <c r="H29" s="126" t="s">
         <v>65</v>
       </c>
       <c r="I29" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H28)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H28)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="79" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B30" s="110">
         <v>1381625</v>
       </c>
       <c r="C30" s="110" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D30" s="111" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E30" s="123" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F30" s="112" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G30" s="124" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H30" s="123" t="s">
         <v>38</v>
       </c>
       <c r="I30" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H12)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H12)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="79" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B31" s="116">
         <v>4608389</v>
       </c>
       <c r="C31" s="116" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D31" s="117" t="s">
+        <v>156</v>
+      </c>
+      <c r="E31" s="126" t="s">
+        <v>165</v>
+      </c>
+      <c r="F31" s="118" t="s">
         <v>158</v>
       </c>
-      <c r="E31" s="126" t="s">
-        <v>167</v>
-      </c>
-      <c r="F31" s="118" t="s">
-        <v>160</v>
-      </c>
       <c r="G31" s="127" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H31" s="126" t="s">
         <v>44</v>
       </c>
       <c r="I31" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H13)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H13)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="79" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B32" s="110">
         <v>9612082</v>
       </c>
       <c r="C32" s="110" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D32" s="110" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E32" s="80" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F32" s="80" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G32" s="82" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H32" s="80" t="s">
         <v>58</v>
       </c>
       <c r="I32" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H7)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H7)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="79" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B33" s="116">
         <v>9618720</v>
       </c>
       <c r="C33" s="116" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D33" s="116" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E33" s="81" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F33" s="118" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G33" s="83" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H33" s="81" t="s">
         <v>56</v>
       </c>
       <c r="I33" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H22)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H22)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="79" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B34" s="110">
         <v>9724817</v>
       </c>
       <c r="C34" s="110" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D34" s="110" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E34" s="80" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F34" s="112" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G34" s="82" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="H34" s="80" t="s">
         <v>34</v>
       </c>
       <c r="I34" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H10)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H10)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="79" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B35" s="116">
         <v>2460800</v>
       </c>
       <c r="C35" s="116" t="s">
+        <v>239</v>
+      </c>
+      <c r="D35" s="117" t="s">
+        <v>227</v>
+      </c>
+      <c r="E35" s="81" t="s">
+        <v>168</v>
+      </c>
+      <c r="F35" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="G35" s="83" t="s">
+        <v>240</v>
+      </c>
+      <c r="H35" s="81" t="s">
         <v>241</v>
       </c>
-      <c r="D35" s="117" t="s">
-        <v>229</v>
-      </c>
-      <c r="E35" s="81" t="s">
-        <v>170</v>
-      </c>
-      <c r="F35" s="81" t="s">
-        <v>182</v>
-      </c>
-      <c r="G35" s="83" t="s">
-        <v>242</v>
-      </c>
-      <c r="H35" s="81" t="s">
-        <v>243</v>
-      </c>
       <c r="I35" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H29)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H29)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="79" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B36" s="116">
         <v>4608780</v>
       </c>
       <c r="C36" s="116" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D36" s="117" t="s">
+        <v>156</v>
+      </c>
+      <c r="E36" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="F36" s="81" t="s">
         <v>158</v>
       </c>
-      <c r="E36" s="81" t="s">
-        <v>173</v>
-      </c>
-      <c r="F36" s="81" t="s">
-        <v>160</v>
-      </c>
       <c r="G36" s="83" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="H36" s="81" t="s">
         <v>42</v>
       </c>
       <c r="I36" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H21)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H21)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="79" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B37" s="110">
         <v>2475130</v>
       </c>
       <c r="C37" s="110" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D37" s="111" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E37" s="80" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F37" s="80" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G37" s="82" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H37" s="80" t="s">
         <v>90</v>
       </c>
       <c r="I37" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H18)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H18)&gt;0,"X","")</f>
         <v/>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="79" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B38" s="116">
         <v>2477135</v>
       </c>
       <c r="C38" s="116" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D38" s="117" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E38" s="81" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F38" s="81" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G38" s="83" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="H38" s="81" t="s">
         <v>51</v>
       </c>
       <c r="I38" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H17)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H17)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="121" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B39" s="110">
         <v>2493288</v>
       </c>
       <c r="C39" s="110" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D39" s="111" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E39" s="80" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F39" s="80" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G39" s="82" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="H39" s="80" t="s">
         <v>21</v>
       </c>
       <c r="I39" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H32)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H32)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="79" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B40" s="116">
         <v>214272</v>
       </c>
       <c r="C40" s="116" t="s">
+        <v>250</v>
+      </c>
+      <c r="D40" s="116" t="s">
+        <v>175</v>
+      </c>
+      <c r="E40" s="81" t="s">
+        <v>176</v>
+      </c>
+      <c r="F40" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="G40" s="83" t="s">
+        <v>251</v>
+      </c>
+      <c r="H40" s="81" t="s">
         <v>252</v>
       </c>
-      <c r="D40" s="116" t="s">
-        <v>177</v>
-      </c>
-      <c r="E40" s="81" t="s">
-        <v>178</v>
-      </c>
-      <c r="F40" s="81" t="s">
-        <v>182</v>
-      </c>
-      <c r="G40" s="83" t="s">
-        <v>253</v>
-      </c>
-      <c r="H40" s="81" t="s">
-        <v>254</v>
-      </c>
       <c r="I40" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H34)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H34)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="79" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B41" s="110">
         <v>4606694</v>
       </c>
       <c r="C41" s="110" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D41" s="111" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E41" s="80" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F41" s="80" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G41" s="82" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H41" s="80" t="s">
         <v>48</v>
       </c>
       <c r="I41" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H35)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H35)&gt;0,"X","")</f>
         <v/>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="79" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B42" s="116">
         <v>2430855</v>
       </c>
       <c r="C42" s="116" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D42" s="117" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E42" s="81" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F42" s="81" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G42" s="83" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H42" s="81" t="s">
         <v>23</v>
       </c>
       <c r="I42" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H36)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H36)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="79" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B43" s="110">
         <v>4604625</v>
       </c>
       <c r="C43" s="110" t="s">
+        <v>257</v>
+      </c>
+      <c r="D43" s="111" t="s">
+        <v>258</v>
+      </c>
+      <c r="E43" s="80" t="s">
+        <v>176</v>
+      </c>
+      <c r="F43" s="80" t="s">
+        <v>158</v>
+      </c>
+      <c r="G43" s="82" t="s">
         <v>259</v>
       </c>
-      <c r="D43" s="111" t="s">
+      <c r="H43" s="80" t="s">
         <v>260</v>
       </c>
-      <c r="E43" s="80" t="s">
-        <v>178</v>
-      </c>
-      <c r="F43" s="80" t="s">
-        <v>160</v>
-      </c>
-      <c r="G43" s="82" t="s">
-        <v>261</v>
-      </c>
-      <c r="H43" s="80" t="s">
-        <v>262</v>
-      </c>
       <c r="I43" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H37)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H37)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="79" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B44" s="116">
         <v>4612098</v>
       </c>
       <c r="C44" s="116" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D44" s="117" t="s">
+        <v>156</v>
+      </c>
+      <c r="E44" s="81" t="s">
+        <v>157</v>
+      </c>
+      <c r="F44" s="81" t="s">
         <v>158</v>
       </c>
-      <c r="E44" s="81" t="s">
-        <v>159</v>
-      </c>
-      <c r="F44" s="81" t="s">
-        <v>160</v>
-      </c>
       <c r="G44" s="83" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="H44" s="81" t="s">
         <v>106</v>
       </c>
       <c r="I44" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H38)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H38)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="79" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B45" s="110">
         <v>4612126</v>
       </c>
       <c r="C45" s="110" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D45" s="111" t="s">
+        <v>156</v>
+      </c>
+      <c r="E45" s="80" t="s">
+        <v>157</v>
+      </c>
+      <c r="F45" s="80" t="s">
         <v>158</v>
       </c>
-      <c r="E45" s="80" t="s">
-        <v>159</v>
-      </c>
-      <c r="F45" s="80" t="s">
-        <v>160</v>
-      </c>
       <c r="G45" s="82" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="H45" s="80" t="s">
         <v>130</v>
       </c>
       <c r="I45" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H39)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H39)&gt;0,"X","")</f>
         <v>X</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="79" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B46" s="116">
         <v>2550195</v>
       </c>
       <c r="C46" s="116" t="s">
+        <v>265</v>
+      </c>
+      <c r="D46" s="117" t="s">
+        <v>227</v>
+      </c>
+      <c r="E46" s="81" t="s">
+        <v>171</v>
+      </c>
+      <c r="F46" s="81" t="s">
+        <v>180</v>
+      </c>
+      <c r="G46" s="83" t="s">
+        <v>266</v>
+      </c>
+      <c r="H46" s="81" t="s">
         <v>267</v>
       </c>
-      <c r="D46" s="117" t="s">
-        <v>229</v>
-      </c>
-      <c r="E46" s="81" t="s">
-        <v>173</v>
-      </c>
-      <c r="F46" s="81" t="s">
-        <v>182</v>
-      </c>
-      <c r="G46" s="83" t="s">
-        <v>268</v>
-      </c>
-      <c r="H46" s="81" t="s">
-        <v>269</v>
-      </c>
       <c r="I46" s="85" t="str">
-        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1028,Equipe!H40)&gt;0,"X","")</f>
+        <f>IF(COUNTIF('Planejamento IED'!$A$2:$A$1027,Equipe!H40)&gt;0,"X","")</f>
         <v/>
       </c>
     </row>
@@ -36357,25 +36318,25 @@
     <row r="1" spans="2:35" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:35" ht="14.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="141" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C2" s="142"/>
       <c r="D2" s="142"/>
       <c r="E2" s="142"/>
       <c r="G2" s="137" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H2" s="137"/>
       <c r="I2" s="137"/>
       <c r="J2" s="137"/>
       <c r="L2" s="138" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M2" s="139"/>
       <c r="N2" s="139"/>
       <c r="O2" s="140"/>
       <c r="Q2" s="138" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="R2" s="139"/>
       <c r="S2" s="139"/>
@@ -36383,52 +36344,52 @@
     </row>
     <row r="3" spans="2:35" x14ac:dyDescent="0.25">
       <c r="B3" s="132" t="s">
+        <v>269</v>
+      </c>
+      <c r="C3" s="132" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" s="132" t="s">
+        <v>270</v>
+      </c>
+      <c r="E3" s="132" t="s">
         <v>271</v>
       </c>
-      <c r="C3" s="132" t="s">
-        <v>271</v>
-      </c>
-      <c r="D3" s="132" t="s">
+      <c r="G3" s="103" t="s">
+        <v>269</v>
+      </c>
+      <c r="H3" s="103" t="s">
+        <v>269</v>
+      </c>
+      <c r="I3" s="103" t="s">
+        <v>270</v>
+      </c>
+      <c r="J3" s="85" t="s">
         <v>272</v>
       </c>
-      <c r="E3" s="132" t="s">
-        <v>273</v>
-      </c>
-      <c r="G3" s="103" t="s">
-        <v>271</v>
-      </c>
-      <c r="H3" s="103" t="s">
-        <v>271</v>
-      </c>
-      <c r="I3" s="103" t="s">
+      <c r="L3" s="103" t="s">
+        <v>269</v>
+      </c>
+      <c r="M3" s="103" t="s">
+        <v>269</v>
+      </c>
+      <c r="N3" s="103" t="s">
+        <v>270</v>
+      </c>
+      <c r="O3" s="85" t="s">
         <v>272</v>
       </c>
-      <c r="J3" s="85" t="s">
-        <v>274</v>
-      </c>
-      <c r="L3" s="103" t="s">
-        <v>271</v>
-      </c>
-      <c r="M3" s="103" t="s">
-        <v>271</v>
-      </c>
-      <c r="N3" s="103" t="s">
+      <c r="Q3" s="103" t="s">
+        <v>269</v>
+      </c>
+      <c r="R3" s="103" t="s">
+        <v>269</v>
+      </c>
+      <c r="S3" s="103" t="s">
+        <v>270</v>
+      </c>
+      <c r="T3" s="85" t="s">
         <v>272</v>
-      </c>
-      <c r="O3" s="85" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q3" s="103" t="s">
-        <v>271</v>
-      </c>
-      <c r="R3" s="103" t="s">
-        <v>271</v>
-      </c>
-      <c r="S3" s="103" t="s">
-        <v>272</v>
-      </c>
-      <c r="T3" s="85" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="4" spans="2:35" x14ac:dyDescent="0.25">
@@ -37051,7 +37012,7 @@
         <v>9</v>
       </c>
       <c r="AI13" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="2:35" x14ac:dyDescent="0.25">
@@ -38296,47 +38257,47 @@
     </row>
     <row r="76" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="113" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B76" s="114" t="s">
         <v>1</v>
       </c>
       <c r="C76" s="114" t="s">
+        <v>149</v>
+      </c>
+      <c r="D76" s="114" t="s">
+        <v>150</v>
+      </c>
+      <c r="E76" s="115" t="s">
         <v>151</v>
       </c>
-      <c r="D76" s="114" t="s">
-        <v>152</v>
-      </c>
-      <c r="E76" s="115" t="s">
-        <v>153</v>
-      </c>
       <c r="F76" s="115" t="s">
         <v>0</v>
       </c>
       <c r="G76" s="115" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H76" s="115" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="S76"/>
       <c r="T76"/>
     </row>
     <row r="77" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B77" s="116">
         <v>4612171</v>
       </c>
       <c r="C77" s="116" t="s">
+        <v>155</v>
+      </c>
+      <c r="D77" s="117" t="s">
+        <v>156</v>
+      </c>
+      <c r="E77" s="118" t="s">
         <v>157</v>
-      </c>
-      <c r="D77" s="117" t="s">
-        <v>158</v>
-      </c>
-      <c r="E77" s="118" t="s">
-        <v>159</v>
       </c>
       <c r="F77" s="118" t="s">
         <v>118</v>
@@ -38354,19 +38315,19 @@
     </row>
     <row r="78" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B78" s="110">
         <v>4612050</v>
       </c>
       <c r="C78" s="110" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D78" s="111" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E78" s="112" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F78" s="112" t="s">
         <v>112</v>
@@ -38384,19 +38345,19 @@
     </row>
     <row r="79" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B79" s="116">
         <v>4612140</v>
       </c>
       <c r="C79" s="116" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D79" s="117" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E79" s="118" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F79" s="118" t="s">
         <v>110</v>
@@ -38414,19 +38375,19 @@
     </row>
     <row r="80" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B80" s="110">
         <v>4612243</v>
       </c>
       <c r="C80" s="110" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D80" s="111" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E80" s="112" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F80" s="112" t="s">
         <v>120</v>
@@ -38444,19 +38405,19 @@
     </row>
     <row r="81" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B81" s="116">
         <v>4612389</v>
       </c>
       <c r="C81" s="116" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D81" s="117" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E81" s="118" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F81" s="118" t="s">
         <v>116</v>
@@ -38474,19 +38435,19 @@
     </row>
     <row r="82" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="121" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B82" s="110">
         <v>4612192</v>
       </c>
       <c r="C82" s="110" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D82" s="122" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E82" s="123" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F82" s="123" t="s">
         <v>114</v>
@@ -38504,22 +38465,22 @@
     </row>
     <row r="83" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="121" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B83" s="116">
         <v>4612393</v>
       </c>
       <c r="C83" s="116" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D83" s="125" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E83" s="126" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F83" s="126" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G83" s="118">
         <f ca="1">COUNTIFS('Planejamento IED'!A:A,'Embarques Vivenciais'!F83,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!D:D,"&lt;="&amp;TODAY())</f>
@@ -38534,22 +38495,22 @@
     </row>
     <row r="84" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B84" s="110">
         <v>4612228</v>
       </c>
       <c r="C84" s="110" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D84" s="111" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E84" s="112" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F84" s="112" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G84" s="118">
         <f ca="1">COUNTIFS('Planejamento IED'!A:A,'Embarques Vivenciais'!F84,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!D:D,"&lt;="&amp;TODAY())</f>
@@ -38564,22 +38525,22 @@
     </row>
     <row r="85" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="121" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B85" s="116">
         <v>4612247</v>
       </c>
       <c r="C85" s="116" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D85" s="117" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E85" s="118" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F85" s="118" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G85" s="118">
         <f ca="1">COUNTIFS('Planejamento IED'!A:A,'Embarques Vivenciais'!F85,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!D:D,"&lt;="&amp;TODAY())</f>
@@ -38594,19 +38555,19 @@
     </row>
     <row r="86" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="121" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B86" s="116">
         <v>4612098</v>
       </c>
       <c r="C86" s="116" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D86" s="117" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E86" s="118" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F86" s="118" t="s">
         <v>106</v>
@@ -38624,19 +38585,19 @@
     </row>
     <row r="87" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="121" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B87" s="110">
         <v>4612126</v>
       </c>
       <c r="C87" s="110" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D87" s="111" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E87" s="112" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F87" s="123" t="s">
         <v>130</v>
@@ -38654,19 +38615,19 @@
     </row>
     <row r="88" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B88" s="110">
         <v>9842940</v>
       </c>
       <c r="C88" s="110" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D88" s="122" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E88" s="123" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F88" s="123" t="s">
         <v>31</v>
@@ -38684,19 +38645,19 @@
     </row>
     <row r="89" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B89" s="110">
         <v>4608721</v>
       </c>
       <c r="C89" s="110" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="D89" s="122" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E89" s="123" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F89" s="112" t="s">
         <v>30</v>
@@ -38714,19 +38675,19 @@
     </row>
     <row r="90" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B90" s="110">
         <v>4608685</v>
       </c>
       <c r="C90" s="110" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D90" s="122" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E90" s="123" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F90" s="123" t="s">
         <v>19</v>
@@ -38744,19 +38705,19 @@
     </row>
     <row r="91" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="79" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B91" s="116">
         <v>4608389</v>
       </c>
       <c r="C91" s="116" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D91" s="125" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E91" s="126" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F91" s="126" t="s">
         <v>44</v>
@@ -38774,19 +38735,19 @@
     </row>
     <row r="92" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B92" s="110">
         <v>4608544</v>
       </c>
       <c r="C92" s="110" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D92" s="111" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E92" s="112" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F92" s="112" t="s">
         <v>10</v>
@@ -38804,19 +38765,19 @@
     </row>
     <row r="93" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B93" s="116">
         <v>4608474</v>
       </c>
       <c r="C93" s="116" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D93" s="117" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E93" s="118" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F93" s="118" t="s">
         <v>28</v>
@@ -38834,19 +38795,19 @@
     </row>
     <row r="94" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B94" s="128">
         <v>4608684</v>
       </c>
       <c r="C94" s="116" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D94" s="117" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E94" s="126" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F94" s="126" t="s">
         <v>52</v>
@@ -38864,19 +38825,19 @@
     </row>
     <row r="95" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="79" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B95" s="110">
         <v>4608559</v>
       </c>
       <c r="C95" s="110" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D95" s="111" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E95" s="80" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F95" s="80" t="s">
         <v>14</v>
@@ -38894,19 +38855,19 @@
     </row>
     <row r="96" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="79" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B96" s="116">
         <v>4608411</v>
       </c>
       <c r="C96" s="116" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D96" s="117" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E96" s="81" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F96" s="81" t="s">
         <v>46</v>
@@ -38924,19 +38885,19 @@
     </row>
     <row r="97" spans="1:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="79" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B97" s="116">
         <v>4608780</v>
       </c>
       <c r="C97" s="116" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D97" s="117" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E97" s="81" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F97" s="81" t="s">
         <v>42</v>
@@ -39067,10 +39028,10 @@
   <sheetData>
     <row r="1" spans="1:239" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -39078,31 +39039,31 @@
       <c r="F1" s="31"/>
       <c r="H1" s="2"/>
       <c r="I1" s="50" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2" spans="1:239" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:239" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B3" s="70" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C3" s="69">
         <f>Início_do_projeto+120</f>
         <v>46051</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E3" s="146">
         <v>45931</v>
@@ -39112,10 +39073,10 @@
     </row>
     <row r="4" spans="1:239" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C4" s="147" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D4" s="148"/>
       <c r="E4" s="7">
@@ -39454,7 +39415,7 @@
     </row>
     <row r="5" spans="1:239" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B5" s="49"/>
       <c r="C5" s="49"/>
@@ -40389,22 +40350,22 @@
     </row>
     <row r="6" spans="1:239" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
+        <v>286</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>288</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="D6" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>291</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>292</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>293</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
@@ -41337,7 +41298,7 @@
     </row>
     <row r="7" spans="1:239" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C7" s="35"/>
       <c r="E7"/>
@@ -41404,10 +41365,10 @@
     </row>
     <row r="8" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="16"/>
@@ -41652,10 +41613,10 @@
     </row>
     <row r="9" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="17">
@@ -41908,7 +41869,7 @@
     </row>
     <row r="10" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B10" s="45" t="s">
         <v>17</v>
@@ -42165,7 +42126,7 @@
     <row r="11" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33"/>
       <c r="B11" s="45" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="17"/>
@@ -42414,7 +42375,7 @@
     <row r="12" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="32"/>
       <c r="B12" s="45" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="17">
@@ -42919,7 +42880,7 @@
     <row r="14" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32"/>
       <c r="B14" s="45" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="17">
@@ -43420,10 +43381,10 @@
     </row>
     <row r="16" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="19"/>
@@ -43669,7 +43630,7 @@
     <row r="17" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="33"/>
       <c r="B17" s="46" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C17" s="41"/>
       <c r="D17" s="20">
@@ -44177,7 +44138,7 @@
     <row r="19" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="32"/>
       <c r="B19" s="46" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C19" s="41"/>
       <c r="D19" s="20">
@@ -44682,7 +44643,7 @@
     <row r="21" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="32"/>
       <c r="B21" s="46" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C21" s="41"/>
       <c r="D21" s="20">
@@ -45183,10 +45144,10 @@
     </row>
     <row r="23" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C23" s="42"/>
       <c r="D23" s="22"/>
@@ -45432,7 +45393,7 @@
     <row r="24" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="32"/>
       <c r="B24" s="47" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="C24" s="43"/>
       <c r="D24" s="23">
@@ -45940,7 +45901,7 @@
     <row r="26" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="32"/>
       <c r="B26" s="47" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C26" s="43"/>
       <c r="D26" s="23">
@@ -46445,7 +46406,7 @@
     <row r="28" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="32"/>
       <c r="B28" s="47" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="C28" s="43"/>
       <c r="D28" s="23">
@@ -46946,7 +46907,7 @@
     </row>
     <row r="30" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="32" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B30" s="48"/>
       <c r="C30" s="44"/>
@@ -47192,10 +47153,10 @@
     </row>
     <row r="31" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="33" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="26"/>
@@ -47450,12 +47411,23 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="I4:O4"/>
-    <mergeCell ref="P4:V4"/>
-    <mergeCell ref="W4:AC4"/>
+    <mergeCell ref="GW4:HC4"/>
+    <mergeCell ref="HD4:HJ4"/>
+    <mergeCell ref="HK4:HQ4"/>
+    <mergeCell ref="HR4:HX4"/>
+    <mergeCell ref="HY4:IE4"/>
+    <mergeCell ref="GP4:GV4"/>
+    <mergeCell ref="DQ4:DW4"/>
+    <mergeCell ref="DX4:ED4"/>
+    <mergeCell ref="EE4:EK4"/>
+    <mergeCell ref="EL4:ER4"/>
+    <mergeCell ref="ES4:EY4"/>
+    <mergeCell ref="EZ4:FF4"/>
+    <mergeCell ref="FG4:FM4"/>
+    <mergeCell ref="FN4:FT4"/>
+    <mergeCell ref="FU4:GA4"/>
+    <mergeCell ref="GB4:GH4"/>
+    <mergeCell ref="GI4:GO4"/>
     <mergeCell ref="DJ4:DP4"/>
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
@@ -47468,23 +47440,12 @@
     <mergeCell ref="CO4:CU4"/>
     <mergeCell ref="CV4:DB4"/>
     <mergeCell ref="DC4:DI4"/>
-    <mergeCell ref="GP4:GV4"/>
-    <mergeCell ref="DQ4:DW4"/>
-    <mergeCell ref="DX4:ED4"/>
-    <mergeCell ref="EE4:EK4"/>
-    <mergeCell ref="EL4:ER4"/>
-    <mergeCell ref="ES4:EY4"/>
-    <mergeCell ref="EZ4:FF4"/>
-    <mergeCell ref="FG4:FM4"/>
-    <mergeCell ref="FN4:FT4"/>
-    <mergeCell ref="FU4:GA4"/>
-    <mergeCell ref="GB4:GH4"/>
-    <mergeCell ref="GI4:GO4"/>
-    <mergeCell ref="GW4:HC4"/>
-    <mergeCell ref="HD4:HJ4"/>
-    <mergeCell ref="HK4:HQ4"/>
-    <mergeCell ref="HR4:HX4"/>
-    <mergeCell ref="HY4:IE4"/>
+    <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="I4:O4"/>
+    <mergeCell ref="P4:V4"/>
+    <mergeCell ref="W4:AC4"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D31">
     <cfRule type="dataBar" priority="1">
@@ -47553,15 +47514,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="0d1dea18-7b56-4ac7-aa1d-7834839a8030" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a9f3451a-73cb-4405-a932-26db050e40a8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_Flow_SignoffStatus xmlns="a9f3451a-73cb-4405-a932-26db050e40a8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -47832,27 +47790,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="0d1dea18-7b56-4ac7-aa1d-7834839a8030" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a9f3451a-73cb-4405-a932-26db050e40a8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_Flow_SignoffStatus xmlns="a9f3451a-73cb-4405-a932-26db050e40a8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="0d1dea18-7b56-4ac7-aa1d-7834839a8030"/>
-    <ds:schemaRef ds:uri="a9f3451a-73cb-4405-a932-26db050e40a8"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -47877,9 +47829,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="0d1dea18-7b56-4ac7-aa1d-7834839a8030"/>
+    <ds:schemaRef ds:uri="a9f3451a-73cb-4405-a932-26db050e40a8"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/Planejamento Geral.xlsx
+++ b/Planejamento Geral.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29225"/>
   <workbookPr filterPrivacy="1" updateLinks="always" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="2619" documentId="13_ncr:1_{8CB3FCBC-DACE-4BCA-A656-CE7D6185D885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4ED1901-CBFD-4E87-BE40-C0434A4CD913}"/>
+  <xr:revisionPtr revIDLastSave="2727" documentId="13_ncr:1_{8CB3FCBC-DACE-4BCA-A656-CE7D6185D885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40070FD9-B80F-4EB3-A927-79C0FB8C0B9F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="363" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Embarques Vivenciais'!$A$76:$H$97</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Equipe!$A$1:$I$46</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Planejamento IED'!$A$1:$E$1032</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Planejamento IED'!$A$1:$E$1031</definedName>
     <definedName name="Hoje" localSheetId="3">TODAY()</definedName>
     <definedName name="Hoje" localSheetId="0">TODAY()</definedName>
     <definedName name="Início_da_tarefa" localSheetId="3">'3 Pessoas'!$E1</definedName>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="317">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="321">
   <si>
     <t>Nome</t>
   </si>
@@ -325,9 +325,6 @@
     <t>Lista de espera - Mecânica e Manutenção de Turbocompressores</t>
   </si>
   <si>
-    <t>Lista de espera - Selagem a Gás de Compressores Centrífugos</t>
-  </si>
-  <si>
     <t>Lista de espera - Aprendendo a Usar o System 1 Evolution</t>
   </si>
   <si>
@@ -506,6 +503,21 @@
   </si>
   <si>
     <t>Folga de 11 dias úteis pós-embarque na P-74</t>
+  </si>
+  <si>
+    <t>Folga alinhada com supervisor Marcio</t>
+  </si>
+  <si>
+    <t>Treinamento presencial termografia Edihb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Treinamento ModBus RTU EAD - manhãs </t>
+  </si>
+  <si>
+    <t>Folga projetada após embarque na P-75</t>
+  </si>
+  <si>
+    <t>Folga MB alinhada com supervisor</t>
   </si>
   <si>
     <t>Disciplina</t>
@@ -3749,55 +3761,55 @@
                   <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>19</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>21</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6323,55 +6335,55 @@
                   <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>4</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -9256,8 +9268,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6AB63F5-01C4-4ED8-B3C5-D3AEB2DB48F3}" name="Tabela1" displayName="Tabela1" ref="A1:I1032" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57" dataCellStyle="Nome">
-  <autoFilter ref="A1:I1032" xr:uid="{D6AB63F5-01C4-4ED8-B3C5-D3AEB2DB48F3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6AB63F5-01C4-4ED8-B3C5-D3AEB2DB48F3}" name="Tabela1" displayName="Tabela1" ref="A1:I1031" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57" dataCellStyle="Nome">
+  <autoFilter ref="A1:I1031" xr:uid="{D6AB63F5-01C4-4ED8-B3C5-D3AEB2DB48F3}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{C8A8658B-B54C-47E5-A350-3E4123B94A55}" name="Nome" dataDxfId="56" dataCellStyle="Nome"/>
     <tableColumn id="2" xr3:uid="{41F4E0E6-9B25-4120-B6CD-9E09A0162769}" name="Matrícula" dataDxfId="55" dataCellStyle="Nome">
@@ -9547,11 +9559,12 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L1032"/>
+  <dimension ref="A1:L1031"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A190" sqref="A190"/>
+      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G197" sqref="G197"/>
+      <selection activeCell="A193" sqref="A193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1"/>
@@ -12622,29 +12635,29 @@
         <v>Experiente</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="15" thickBot="1">
+    <row r="94" spans="1:9" ht="29.45" thickBot="1">
       <c r="A94" s="85" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="B94" s="104">
         <f>_xlfn.XLOOKUP(A94,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4608780</v>
+        <v>2475130</v>
       </c>
       <c r="C94" s="89">
-        <v>45810</v>
+        <v>45964</v>
       </c>
       <c r="D94" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C94+E94-1,"")</f>
-        <v>45814</v>
+        <v>45967</v>
       </c>
       <c r="E94" s="85">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F94" s="85" t="s">
         <v>16</v>
       </c>
       <c r="G94" s="97" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H94" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
@@ -12652,7 +12665,7 @@
       </c>
       <c r="I94" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Novo</v>
+        <v>Experiente</v>
       </c>
     </row>
     <row r="95" spans="1:9" ht="29.45" thickBot="1">
@@ -12664,20 +12677,20 @@
         <v>2475130</v>
       </c>
       <c r="C95" s="89">
-        <v>45964</v>
+        <v>45867</v>
       </c>
       <c r="D95" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C95+E95-1,"")</f>
-        <v>45967</v>
+        <v>45869</v>
       </c>
       <c r="E95" s="85">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F95" s="85" t="s">
         <v>16</v>
       </c>
       <c r="G95" s="97" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H95" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
@@ -12688,89 +12701,89 @@
         <v>Experiente</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="29.45" thickBot="1">
+    <row r="96" spans="1:9" ht="15" thickBot="1">
       <c r="A96" s="85" t="s">
-        <v>88</v>
+        <v>33</v>
       </c>
       <c r="B96" s="104">
         <f>_xlfn.XLOOKUP(A96,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>2475130</v>
+        <v>9724817</v>
       </c>
       <c r="C96" s="89">
-        <v>45902</v>
+        <v>45814</v>
       </c>
       <c r="D96" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C96+E96-1,"")</f>
-        <v>45903</v>
+        <v>45814</v>
       </c>
       <c r="E96" s="85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" s="85" t="s">
         <v>16</v>
       </c>
       <c r="G96" s="97" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H96" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P83</v>
+        <v>P82</v>
       </c>
       <c r="I96" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
         <v>Experiente</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="29.45" thickBot="1">
+    <row r="97" spans="1:9" ht="15" thickBot="1">
       <c r="A97" s="85" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
       <c r="B97" s="104">
         <f>_xlfn.XLOOKUP(A97,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>2475130</v>
+        <v>4608544</v>
       </c>
       <c r="C97" s="89">
-        <v>45867</v>
+        <v>45816</v>
       </c>
       <c r="D97" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C97+E97-1,"")</f>
-        <v>45869</v>
+        <v>45821</v>
       </c>
       <c r="E97" s="85">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F97" s="85" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G97" s="97" t="s">
-        <v>91</v>
+        <v>52</v>
       </c>
       <c r="H97" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P83</v>
+        <v>P82</v>
       </c>
       <c r="I97" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Experiente</v>
+        <v>Novo</v>
       </c>
     </row>
     <row r="98" spans="1:9" ht="15" thickBot="1">
       <c r="A98" s="85" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="B98" s="104">
         <f>_xlfn.XLOOKUP(A98,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>9724817</v>
+        <v>4608780</v>
       </c>
       <c r="C98" s="89">
-        <v>45814</v>
+        <v>45817</v>
       </c>
       <c r="D98" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C98+E98-1,"")</f>
-        <v>45814</v>
+        <v>45821</v>
       </c>
       <c r="E98" s="85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F98" s="85" t="s">
         <v>16</v>
@@ -12780,53 +12793,53 @@
       </c>
       <c r="H98" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P82</v>
+        <v>P83</v>
       </c>
       <c r="I98" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Experiente</v>
+        <v>Novo</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15" thickBot="1">
       <c r="A99" s="85" t="s">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="B99" s="104">
         <f>_xlfn.XLOOKUP(A99,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4608544</v>
+        <v>1381625</v>
       </c>
       <c r="C99" s="89">
-        <v>45816</v>
+        <v>45817</v>
       </c>
       <c r="D99" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C99+E99-1,"")</f>
         <v>45821</v>
       </c>
       <c r="E99" s="85">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F99" s="85" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G99" s="97" t="s">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="H99" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P82</v>
+        <v>P80</v>
       </c>
       <c r="I99" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Novo</v>
+        <v>Experiente</v>
       </c>
     </row>
     <row r="100" spans="1:9" ht="15" thickBot="1">
       <c r="A100" s="85" t="s">
-        <v>41</v>
+        <v>88</v>
       </c>
       <c r="B100" s="104">
         <f>_xlfn.XLOOKUP(A100,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4608780</v>
+        <v>2475130</v>
       </c>
       <c r="C100" s="89">
         <v>45817</v>
@@ -12839,10 +12852,10 @@
         <v>5</v>
       </c>
       <c r="F100" s="85" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G100" s="97" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H100" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
@@ -12850,16 +12863,16 @@
       </c>
       <c r="I100" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Novo</v>
+        <v>Experiente</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="15" thickBot="1">
       <c r="A101" s="85" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="B101" s="104">
         <f>_xlfn.XLOOKUP(A101,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>1381625</v>
+        <v>4608721</v>
       </c>
       <c r="C101" s="89">
         <v>45817</v>
@@ -12875,7 +12888,7 @@
         <v>16</v>
       </c>
       <c r="G101" s="97" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H101" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
@@ -12883,65 +12896,65 @@
       </c>
       <c r="I101" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Experiente</v>
+        <v>Novo</v>
       </c>
     </row>
     <row r="102" spans="1:9" ht="15" thickBot="1">
       <c r="A102" s="85" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
       <c r="B102" s="104">
         <f>_xlfn.XLOOKUP(A102,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>2475130</v>
+        <v>4608721</v>
       </c>
       <c r="C102" s="89">
-        <v>45817</v>
+        <v>45824</v>
       </c>
       <c r="D102" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C102+E102-1,"")</f>
-        <v>45821</v>
+        <v>45825</v>
       </c>
       <c r="E102" s="85">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F102" s="85" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G102" s="97" t="s">
         <v>95</v>
       </c>
       <c r="H102" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P83</v>
+        <v>P80</v>
       </c>
       <c r="I102" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Experiente</v>
+        <v>Novo</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15" thickBot="1">
       <c r="A103" s="85" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B103" s="104">
         <f>_xlfn.XLOOKUP(A103,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4608721</v>
+        <v>4608389</v>
       </c>
       <c r="C103" s="89">
-        <v>45817</v>
+        <v>45664</v>
       </c>
       <c r="D103" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C103+E103-1,"")</f>
-        <v>45821</v>
+        <v>45670</v>
       </c>
       <c r="E103" s="85">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F103" s="85" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G103" s="97" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="H103" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
@@ -12954,27 +12967,27 @@
     </row>
     <row r="104" spans="1:9" ht="15" thickBot="1">
       <c r="A104" s="85" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B104" s="104">
         <f>_xlfn.XLOOKUP(A104,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4608721</v>
+        <v>4608389</v>
       </c>
       <c r="C104" s="89">
-        <v>45824</v>
+        <v>45671</v>
       </c>
       <c r="D104" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C104+E104-1,"")</f>
-        <v>45825</v>
+        <v>45686</v>
       </c>
       <c r="E104" s="85">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="F104" s="85" t="s">
         <v>17</v>
       </c>
       <c r="G104" s="97" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="H104" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
@@ -12994,20 +13007,20 @@
         <v>4608389</v>
       </c>
       <c r="C105" s="89">
-        <v>45664</v>
+        <v>45867</v>
       </c>
       <c r="D105" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C105+E105-1,"")</f>
-        <v>45670</v>
+        <v>45880</v>
       </c>
       <c r="E105" s="85">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="F105" s="85" t="s">
         <v>11</v>
       </c>
       <c r="G105" s="97" t="s">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="H105" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
@@ -13027,20 +13040,20 @@
         <v>4608389</v>
       </c>
       <c r="C106" s="89">
-        <v>45671</v>
+        <v>45882</v>
       </c>
       <c r="D106" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C106+E106-1,"")</f>
-        <v>45686</v>
+        <v>45910</v>
       </c>
       <c r="E106" s="85">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="F106" s="85" t="s">
         <v>17</v>
       </c>
       <c r="G106" s="97" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="H106" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
@@ -13053,31 +13066,29 @@
     </row>
     <row r="107" spans="1:9" ht="15" thickBot="1">
       <c r="A107" s="85" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
       <c r="B107" s="104">
         <f>_xlfn.XLOOKUP(A107,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4608389</v>
+        <v>4608559</v>
       </c>
       <c r="C107" s="89">
-        <v>45867</v>
+        <v>45866</v>
       </c>
       <c r="D107" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C107+E107-1,"")</f>
-        <v>45880</v>
+        <v>45867</v>
       </c>
       <c r="E107" s="85">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="F107" s="85" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" s="97" t="s">
-        <v>97</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G107" s="97"/>
       <c r="H107" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P80</v>
+        <v>P83</v>
       </c>
       <c r="I107" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
@@ -13085,32 +13096,32 @@
       </c>
     </row>
     <row r="108" spans="1:9" ht="15" thickBot="1">
-      <c r="A108" s="85" t="s">
-        <v>43</v>
+      <c r="A108" s="106" t="s">
+        <v>69</v>
       </c>
       <c r="B108" s="104">
         <f>_xlfn.XLOOKUP(A108,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4608389</v>
+        <v>4606246</v>
       </c>
       <c r="C108" s="89">
-        <v>45882</v>
+        <v>45825</v>
       </c>
       <c r="D108" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C108+E108-1,"")</f>
-        <v>45910</v>
+        <v>45825</v>
       </c>
       <c r="E108" s="85">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="F108" s="85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G108" s="97" t="s">
         <v>98</v>
       </c>
       <c r="H108" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P80</v>
+        <v>PBAC</v>
       </c>
       <c r="I108" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
@@ -13119,95 +13130,96 @@
     </row>
     <row r="109" spans="1:9" ht="15" thickBot="1">
       <c r="A109" s="85" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="B109" s="104">
         <f>_xlfn.XLOOKUP(A109,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4608559</v>
+        <v>9886449</v>
       </c>
       <c r="C109" s="89">
-        <v>45866</v>
+        <v>45923</v>
       </c>
       <c r="D109" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C109+E109-1,"")</f>
-        <v>45867</v>
+        <v>45936</v>
       </c>
       <c r="E109" s="85">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F109" s="85" t="s">
-        <v>17</v>
-      </c>
-      <c r="G109" s="97"/>
+        <v>11</v>
+      </c>
+      <c r="G109" s="97" t="s">
+        <v>99</v>
+      </c>
       <c r="H109" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P83</v>
+        <v>P80</v>
       </c>
       <c r="I109" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Novo</v>
+        <v>Experiente</v>
       </c>
     </row>
     <row r="110" spans="1:9" ht="15" thickBot="1">
-      <c r="A110" s="106" t="s">
-        <v>69</v>
+      <c r="A110" s="85" t="s">
+        <v>53</v>
       </c>
       <c r="B110" s="104">
         <f>_xlfn.XLOOKUP(A110,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4606246</v>
+        <v>9886449</v>
       </c>
       <c r="C110" s="89">
-        <v>45825</v>
+        <v>45937</v>
       </c>
       <c r="D110" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C110+E110-1,"")</f>
-        <v>45825</v>
+        <v>45957</v>
       </c>
       <c r="E110" s="85">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F110" s="85" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G110" s="97" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H110" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>PBAC</v>
+        <v>P80</v>
       </c>
       <c r="I110" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Novo</v>
+        <v>Experiente</v>
       </c>
     </row>
     <row r="111" spans="1:9" ht="15" thickBot="1">
       <c r="A111" s="85" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="B111" s="104">
         <f>_xlfn.XLOOKUP(A111,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>9886449</v>
+        <v>9724817</v>
       </c>
       <c r="C111" s="89">
-        <v>45923</v>
+        <v>45828</v>
       </c>
       <c r="D111" s="105">
-        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C111+E111-1,"")</f>
-        <v>45936</v>
+        <v>45828</v>
       </c>
       <c r="E111" s="85">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F111" s="85" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G111" s="97" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="H111" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P80</v>
+        <v>P82</v>
       </c>
       <c r="I111" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
@@ -13216,27 +13228,26 @@
     </row>
     <row r="112" spans="1:9" ht="15" thickBot="1">
       <c r="A112" s="85" t="s">
-        <v>53</v>
+        <v>102</v>
       </c>
       <c r="B112" s="104">
         <f>_xlfn.XLOOKUP(A112,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>9886449</v>
+        <v>9683150</v>
       </c>
       <c r="C112" s="89">
-        <v>45937</v>
+        <v>45820</v>
       </c>
       <c r="D112" s="105">
-        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C112+E112-1,"")</f>
-        <v>45957</v>
+        <v>45828</v>
       </c>
       <c r="E112" s="85">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="F112" s="85" t="s">
         <v>17</v>
       </c>
       <c r="G112" s="97" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="H112" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
@@ -13249,34 +13260,34 @@
     </row>
     <row r="113" spans="1:9" ht="15" thickBot="1">
       <c r="A113" s="85" t="s">
-        <v>33</v>
+        <v>103</v>
       </c>
       <c r="B113" s="104">
         <f>_xlfn.XLOOKUP(A113,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>9724817</v>
+        <v>4612098</v>
       </c>
       <c r="C113" s="89">
-        <v>45828</v>
+        <v>45847</v>
       </c>
       <c r="D113" s="105">
-        <v>45828</v>
+        <v>45847</v>
       </c>
       <c r="E113" s="85">
         <v>1</v>
       </c>
       <c r="F113" s="85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G113" s="97" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="H113" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P82</v>
+        <v>P80</v>
       </c>
       <c r="I113" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Experiente</v>
+        <v>Novo</v>
       </c>
     </row>
     <row r="114" spans="1:9" ht="15" thickBot="1">
@@ -13285,22 +13296,22 @@
       </c>
       <c r="B114" s="104">
         <f>_xlfn.XLOOKUP(A114,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>9683150</v>
+        <v>4612098</v>
       </c>
       <c r="C114" s="89">
-        <v>45820</v>
+        <v>45853</v>
       </c>
       <c r="D114" s="105">
-        <v>45828</v>
+        <v>45853</v>
       </c>
       <c r="E114" s="85">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F114" s="85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G114" s="97" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="H114" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
@@ -13308,31 +13319,30 @@
       </c>
       <c r="I114" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Experiente</v>
+        <v>Novo</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="15" thickBot="1">
       <c r="A115" s="85" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B115" s="104">
-        <f>_xlfn.XLOOKUP(A115,Equipe!H:H,Equipe!B:B,"",0)</f>
         <v>4612098</v>
       </c>
       <c r="C115" s="89">
-        <v>45847</v>
+        <v>45859</v>
       </c>
       <c r="D115" s="105">
-        <v>45847</v>
+        <v>45859</v>
       </c>
       <c r="E115" s="85">
         <v>1</v>
       </c>
       <c r="F115" s="85" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G115" s="97" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H115" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
@@ -13345,30 +13355,31 @@
     </row>
     <row r="116" spans="1:9" ht="15" thickBot="1">
       <c r="A116" s="85" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B116" s="104">
         <f>_xlfn.XLOOKUP(A116,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612098</v>
+        <v>4612140</v>
       </c>
       <c r="C116" s="89">
-        <v>45853</v>
+        <v>45852</v>
       </c>
       <c r="D116" s="105">
-        <v>45853</v>
+        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C116+E116-1,"")</f>
+        <v>45852</v>
       </c>
       <c r="E116" s="85">
         <v>1</v>
       </c>
       <c r="F116" s="85" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G116" s="97" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="H116" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P80</v>
+        <v>P83</v>
       </c>
       <c r="I116" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
@@ -13377,16 +13388,18 @@
     </row>
     <row r="117" spans="1:9" ht="15" thickBot="1">
       <c r="A117" s="85" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B117" s="104">
-        <v>4612098</v>
+        <f>_xlfn.XLOOKUP(A117,Equipe!H:H,Equipe!B:B,"",0)</f>
+        <v>4612050</v>
       </c>
       <c r="C117" s="89">
-        <v>45859</v>
+        <v>45852</v>
       </c>
       <c r="D117" s="105">
-        <v>45859</v>
+        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C117+E117-1,"")</f>
+        <v>45852</v>
       </c>
       <c r="E117" s="85">
         <v>1</v>
@@ -13395,11 +13408,11 @@
         <v>13</v>
       </c>
       <c r="G117" s="97" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="H117" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P80</v>
+        <v>P82</v>
       </c>
       <c r="I117" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
@@ -13408,18 +13421,18 @@
     </row>
     <row r="118" spans="1:9" ht="15" thickBot="1">
       <c r="A118" s="85" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B118" s="104">
         <f>_xlfn.XLOOKUP(A118,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612140</v>
+        <v>4612192</v>
       </c>
       <c r="C118" s="89">
-        <v>45852</v>
+        <v>45866</v>
       </c>
       <c r="D118" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C118+E118-1,"")</f>
-        <v>45852</v>
+        <v>45866</v>
       </c>
       <c r="E118" s="85">
         <v>1</v>
@@ -13428,11 +13441,11 @@
         <v>13</v>
       </c>
       <c r="G118" s="97" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="H118" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P83</v>
+        <v>P82</v>
       </c>
       <c r="I118" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
@@ -13441,18 +13454,17 @@
     </row>
     <row r="119" spans="1:9" ht="15" thickBot="1">
       <c r="A119" s="85" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B119" s="104">
         <f>_xlfn.XLOOKUP(A119,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612050</v>
+        <v>4612389</v>
       </c>
       <c r="C119" s="89">
-        <v>45852</v>
+        <v>45866</v>
       </c>
       <c r="D119" s="105">
-        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C119+E119-1,"")</f>
-        <v>45852</v>
+        <v>45866</v>
       </c>
       <c r="E119" s="85">
         <v>1</v>
@@ -13461,31 +13473,31 @@
         <v>13</v>
       </c>
       <c r="G119" s="97" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="H119" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P82</v>
+        <v>P80</v>
       </c>
       <c r="I119" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
         <v>Novo</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="15" thickBot="1">
-      <c r="A120" s="85" t="s">
-        <v>112</v>
+    <row r="120" spans="1:9" ht="12.6" customHeight="1" thickBot="1">
+      <c r="A120" s="88" t="s">
+        <v>115</v>
       </c>
       <c r="B120" s="104">
         <f>_xlfn.XLOOKUP(A120,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612192</v>
+        <v>4612171</v>
       </c>
       <c r="C120" s="89">
-        <v>45866</v>
+        <v>45852</v>
       </c>
       <c r="D120" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C120+E120-1,"")</f>
-        <v>45866</v>
+        <v>45852</v>
       </c>
       <c r="E120" s="85">
         <v>1</v>
@@ -13494,11 +13506,11 @@
         <v>13</v>
       </c>
       <c r="G120" s="97" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="H120" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P82</v>
+        <v>P80</v>
       </c>
       <c r="I120" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
@@ -13506,27 +13518,28 @@
       </c>
     </row>
     <row r="121" spans="1:9" ht="15" thickBot="1">
-      <c r="A121" s="85" t="s">
-        <v>114</v>
+      <c r="A121" s="88" t="s">
+        <v>117</v>
       </c>
       <c r="B121" s="104">
         <f>_xlfn.XLOOKUP(A121,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612389</v>
-      </c>
-      <c r="C121" s="89">
+        <v>4612243</v>
+      </c>
+      <c r="C121" s="90">
         <v>45866</v>
       </c>
       <c r="D121" s="105">
+        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C121+E121-1,"")</f>
         <v>45866</v>
       </c>
-      <c r="E121" s="85">
+      <c r="E121" s="88">
         <v>1</v>
       </c>
-      <c r="F121" s="85" t="s">
+      <c r="F121" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="G121" s="97" t="s">
-        <v>115</v>
+      <c r="G121" s="100" t="s">
+        <v>118</v>
       </c>
       <c r="H121" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
@@ -13537,33 +13550,33 @@
         <v>Novo</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="12.6" customHeight="1" thickBot="1">
-      <c r="A122" s="88" t="s">
-        <v>116</v>
+    <row r="122" spans="1:9" ht="15" thickBot="1">
+      <c r="A122" s="85" t="s">
+        <v>111</v>
       </c>
       <c r="B122" s="104">
         <f>_xlfn.XLOOKUP(A122,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612171</v>
+        <v>4612192</v>
       </c>
       <c r="C122" s="89">
-        <v>45852</v>
+        <v>45867</v>
       </c>
       <c r="D122" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C122+E122-1,"")</f>
-        <v>45852</v>
+        <v>45867</v>
       </c>
       <c r="E122" s="85">
         <v>1</v>
       </c>
       <c r="F122" s="85" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G122" s="97" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H122" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P80</v>
+        <v>P82</v>
       </c>
       <c r="I122" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
@@ -13571,32 +13584,32 @@
       </c>
     </row>
     <row r="123" spans="1:9" ht="15" thickBot="1">
-      <c r="A123" s="88" t="s">
-        <v>118</v>
+      <c r="A123" s="85" t="s">
+        <v>111</v>
       </c>
       <c r="B123" s="104">
         <f>_xlfn.XLOOKUP(A123,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612243</v>
-      </c>
-      <c r="C123" s="90">
-        <v>45866</v>
+        <v>4612192</v>
+      </c>
+      <c r="C123" s="89">
+        <v>45873</v>
       </c>
       <c r="D123" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C123+E123-1,"")</f>
-        <v>45866</v>
-      </c>
-      <c r="E123" s="88">
-        <v>1</v>
-      </c>
-      <c r="F123" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="G123" s="100" t="s">
-        <v>119</v>
+        <v>45877</v>
+      </c>
+      <c r="E123" s="85">
+        <v>5</v>
+      </c>
+      <c r="F123" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G123" s="97" t="s">
+        <v>120</v>
       </c>
       <c r="H123" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P80</v>
+        <v>P82</v>
       </c>
       <c r="I123" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
@@ -13605,116 +13618,116 @@
     </row>
     <row r="124" spans="1:9" ht="15" thickBot="1">
       <c r="A124" s="85" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="B124" s="104">
         <f>_xlfn.XLOOKUP(A124,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612192</v>
+        <v>229316</v>
       </c>
       <c r="C124" s="89">
-        <v>45867</v>
+        <v>45860</v>
       </c>
       <c r="D124" s="105">
-        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C124+E124-1,"")</f>
-        <v>45867</v>
+        <v>45862</v>
       </c>
       <c r="E124" s="85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F124" s="85" t="s">
         <v>16</v>
       </c>
       <c r="G124" s="97" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H124" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P82</v>
+        <v>PBAC</v>
       </c>
       <c r="I124" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Novo</v>
+        <v>Experiente</v>
       </c>
     </row>
     <row r="125" spans="1:9" ht="15" thickBot="1">
       <c r="A125" s="85" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="B125" s="104">
         <f>_xlfn.XLOOKUP(A125,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612192</v>
+        <v>9886449</v>
       </c>
       <c r="C125" s="89">
-        <v>45873</v>
+        <v>45838</v>
       </c>
       <c r="D125" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C125+E125-1,"")</f>
-        <v>45877</v>
+        <v>45838</v>
       </c>
       <c r="E125" s="85">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F125" s="85" t="s">
         <v>16</v>
       </c>
       <c r="G125" s="97" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H125" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P82</v>
+        <v>P80</v>
       </c>
       <c r="I125" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Novo</v>
+        <v>Experiente</v>
       </c>
     </row>
     <row r="126" spans="1:9" ht="15" thickBot="1">
       <c r="A126" s="85" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="B126" s="104">
         <f>_xlfn.XLOOKUP(A126,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>229316</v>
+        <v>4608721</v>
       </c>
       <c r="C126" s="89">
-        <v>45860</v>
+        <v>45833</v>
       </c>
       <c r="D126" s="105">
-        <v>45862</v>
+        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C126+E126-1,"")</f>
+        <v>45833</v>
       </c>
       <c r="E126" s="85">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F126" s="85" t="s">
         <v>16</v>
       </c>
       <c r="G126" s="97" t="s">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="H126" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>PBAC</v>
+        <v>P80</v>
       </c>
       <c r="I126" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Experiente</v>
+        <v>Novo</v>
       </c>
     </row>
     <row r="127" spans="1:9" ht="15" thickBot="1">
       <c r="A127" s="85" t="s">
-        <v>53</v>
+        <v>28</v>
       </c>
       <c r="B127" s="104">
         <f>_xlfn.XLOOKUP(A127,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>9886449</v>
+        <v>4608721</v>
       </c>
       <c r="C127" s="89">
-        <v>45838</v>
+        <v>45835</v>
       </c>
       <c r="D127" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C127+E127-1,"")</f>
-        <v>45838</v>
+        <v>45835</v>
       </c>
       <c r="E127" s="85">
         <v>1</v>
@@ -13731,23 +13744,23 @@
       </c>
       <c r="I127" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Experiente</v>
+        <v>Novo</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="15" thickBot="1">
       <c r="A128" s="85" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="B128" s="104">
         <f>_xlfn.XLOOKUP(A128,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4608721</v>
+        <v>4612243</v>
       </c>
       <c r="C128" s="89">
-        <v>45833</v>
+        <v>45867</v>
       </c>
       <c r="D128" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C128+E128-1,"")</f>
-        <v>45833</v>
+        <v>45867</v>
       </c>
       <c r="E128" s="85">
         <v>1</v>
@@ -13756,7 +13769,7 @@
         <v>16</v>
       </c>
       <c r="G128" s="97" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="H128" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
@@ -13769,27 +13782,27 @@
     </row>
     <row r="129" spans="1:9" ht="15" thickBot="1">
       <c r="A129" s="85" t="s">
-        <v>28</v>
+        <v>117</v>
       </c>
       <c r="B129" s="104">
         <f>_xlfn.XLOOKUP(A129,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4608721</v>
+        <v>4612243</v>
       </c>
       <c r="C129" s="89">
-        <v>45835</v>
+        <v>45873</v>
       </c>
       <c r="D129" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C129+E129-1,"")</f>
-        <v>45835</v>
+        <v>45877</v>
       </c>
       <c r="E129" s="85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F129" s="85" t="s">
         <v>16</v>
       </c>
       <c r="G129" s="97" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="H129" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
@@ -13802,27 +13815,27 @@
     </row>
     <row r="130" spans="1:9" ht="15" thickBot="1">
       <c r="A130" s="85" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="B130" s="104">
         <f>_xlfn.XLOOKUP(A130,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612243</v>
+        <v>9886449</v>
       </c>
       <c r="C130" s="89">
-        <v>45867</v>
+        <v>45835</v>
       </c>
       <c r="D130" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C130+E130-1,"")</f>
-        <v>45867</v>
+        <v>45835</v>
       </c>
       <c r="E130" s="85">
         <v>1</v>
       </c>
       <c r="F130" s="85" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G130" s="97" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H130" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
@@ -13830,98 +13843,96 @@
       </c>
       <c r="I130" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Novo</v>
+        <v>Experiente</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="15" thickBot="1">
       <c r="A131" s="85" t="s">
-        <v>118</v>
+        <v>57</v>
       </c>
       <c r="B131" s="104">
         <f>_xlfn.XLOOKUP(A131,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612243</v>
+        <v>9612082</v>
       </c>
       <c r="C131" s="89">
-        <v>45873</v>
+        <v>45851</v>
       </c>
       <c r="D131" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C131+E131-1,"")</f>
-        <v>45877</v>
+        <v>45864</v>
       </c>
       <c r="E131" s="85">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F131" s="85" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G131" s="97" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="H131" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P80</v>
+        <v>P82</v>
       </c>
       <c r="I131" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Novo</v>
+        <v>Experiente</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="15" thickBot="1">
       <c r="A132" s="85" t="s">
-        <v>53</v>
+        <v>127</v>
       </c>
       <c r="B132" s="104">
         <f>_xlfn.XLOOKUP(A132,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>9886449</v>
+        <v>4612126</v>
       </c>
       <c r="C132" s="89">
-        <v>45835</v>
+        <v>45873</v>
       </c>
       <c r="D132" s="105">
-        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C132+E132-1,"")</f>
-        <v>45835</v>
+        <v>45877</v>
       </c>
       <c r="E132" s="85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F132" s="85" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G132" s="97" t="s">
-        <v>126</v>
+        <v>36</v>
       </c>
       <c r="H132" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P80</v>
+        <v>P82</v>
       </c>
       <c r="I132" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Experiente</v>
+        <v>Novo</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="15" thickBot="1">
       <c r="A133" s="85" t="s">
-        <v>57</v>
+        <v>127</v>
       </c>
       <c r="B133" s="104">
         <f>_xlfn.XLOOKUP(A133,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>9612082</v>
+        <v>4612126</v>
       </c>
       <c r="C133" s="89">
-        <v>45851</v>
+        <v>45853</v>
       </c>
       <c r="D133" s="105">
-        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C133+E133-1,"")</f>
-        <v>45864</v>
+        <v>45853</v>
       </c>
       <c r="E133" s="85">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F133" s="85" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G133" s="97" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H133" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
@@ -13929,31 +13940,31 @@
       </c>
       <c r="I133" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Experiente</v>
+        <v>Novo</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="15" thickBot="1">
       <c r="A134" s="85" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B134" s="104">
         <f>_xlfn.XLOOKUP(A134,Equipe!H:H,Equipe!B:B,"",0)</f>
         <v>4612126</v>
       </c>
       <c r="C134" s="89">
-        <v>45873</v>
+        <v>45859</v>
       </c>
       <c r="D134" s="105">
-        <v>45877</v>
+        <v>45859</v>
       </c>
       <c r="E134" s="85">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F134" s="85" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G134" s="97" t="s">
-        <v>36</v>
+        <v>128</v>
       </c>
       <c r="H134" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
@@ -13966,17 +13977,18 @@
     </row>
     <row r="135" spans="1:9" ht="15" thickBot="1">
       <c r="A135" s="85" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="B135" s="104">
         <f>_xlfn.XLOOKUP(A135,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612126</v>
+        <v>4612243</v>
       </c>
       <c r="C135" s="89">
-        <v>45853</v>
+        <v>45847</v>
       </c>
       <c r="D135" s="105">
-        <v>45853</v>
+        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C135+E135-1,"")</f>
+        <v>45847</v>
       </c>
       <c r="E135" s="85">
         <v>1</v>
@@ -13985,11 +13997,11 @@
         <v>16</v>
       </c>
       <c r="G135" s="97" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="H135" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P82</v>
+        <v>P80</v>
       </c>
       <c r="I135" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
@@ -13998,25 +14010,26 @@
     </row>
     <row r="136" spans="1:9" ht="15" thickBot="1">
       <c r="A136" s="85" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B136" s="104">
         <f>_xlfn.XLOOKUP(A136,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612126</v>
+        <v>4612192</v>
       </c>
       <c r="C136" s="89">
-        <v>45859</v>
+        <v>45847</v>
       </c>
       <c r="D136" s="105">
-        <v>45859</v>
+        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C136+E136-1,"")</f>
+        <v>45847</v>
       </c>
       <c r="E136" s="85">
         <v>1</v>
       </c>
       <c r="F136" s="85" t="s">
-        <v>13</v>
-      </c>
-      <c r="G136" s="97" t="s">
+        <v>16</v>
+      </c>
+      <c r="G136" s="108" t="s">
         <v>129</v>
       </c>
       <c r="H136" s="39" t="str">
@@ -14030,17 +14043,16 @@
     </row>
     <row r="137" spans="1:9" ht="15" thickBot="1">
       <c r="A137" s="85" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="B137" s="104">
         <f>_xlfn.XLOOKUP(A137,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612243</v>
+        <v>4612126</v>
       </c>
       <c r="C137" s="89">
         <v>45847</v>
       </c>
       <c r="D137" s="105">
-        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C137+E137-1,"")</f>
         <v>45847</v>
       </c>
       <c r="E137" s="85">
@@ -14049,12 +14061,12 @@
       <c r="F137" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="G137" s="97" t="s">
-        <v>83</v>
+      <c r="G137" s="108" t="s">
+        <v>129</v>
       </c>
       <c r="H137" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P80</v>
+        <v>P82</v>
       </c>
       <c r="I137" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
@@ -14063,11 +14075,11 @@
     </row>
     <row r="138" spans="1:9" ht="15" thickBot="1">
       <c r="A138" s="85" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B138" s="104">
         <f>_xlfn.XLOOKUP(A138,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612192</v>
+        <v>4612050</v>
       </c>
       <c r="C138" s="89">
         <v>45847</v>
@@ -14082,7 +14094,7 @@
       <c r="F138" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="G138" s="108" t="s">
+      <c r="G138" s="97" t="s">
         <v>130</v>
       </c>
       <c r="H138" s="39" t="str">
@@ -14096,30 +14108,31 @@
     </row>
     <row r="139" spans="1:9" ht="15" thickBot="1">
       <c r="A139" s="85" t="s">
-        <v>128</v>
+        <v>47</v>
       </c>
       <c r="B139" s="104">
         <f>_xlfn.XLOOKUP(A139,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612126</v>
+        <v>4606694</v>
       </c>
       <c r="C139" s="89">
-        <v>45847</v>
+        <v>45839</v>
       </c>
       <c r="D139" s="105">
-        <v>45847</v>
+        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C139+E139-1,"")</f>
+        <v>45841</v>
       </c>
       <c r="E139" s="85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F139" s="85" t="s">
-        <v>16</v>
-      </c>
-      <c r="G139" s="108" t="s">
-        <v>130</v>
+        <v>20</v>
+      </c>
+      <c r="G139" s="97" t="s">
+        <v>131</v>
       </c>
       <c r="H139" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P82</v>
+        <v>PBAC</v>
       </c>
       <c r="I139" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
@@ -14128,31 +14141,31 @@
     </row>
     <row r="140" spans="1:9" ht="15" thickBot="1">
       <c r="A140" s="85" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="B140" s="104">
         <f>_xlfn.XLOOKUP(A140,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612050</v>
+        <v>4608559</v>
       </c>
       <c r="C140" s="89">
-        <v>45847</v>
+        <v>45839</v>
       </c>
       <c r="D140" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C140+E140-1,"")</f>
-        <v>45847</v>
+        <v>45841</v>
       </c>
       <c r="E140" s="85">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F140" s="85" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G140" s="97" t="s">
         <v>131</v>
       </c>
       <c r="H140" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P82</v>
+        <v>P83</v>
       </c>
       <c r="I140" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
@@ -14160,65 +14173,63 @@
       </c>
     </row>
     <row r="141" spans="1:9" ht="15" thickBot="1">
-      <c r="A141" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="B141" s="104">
-        <f>_xlfn.XLOOKUP(A141,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4606694</v>
-      </c>
-      <c r="C141" s="89">
-        <v>45839</v>
-      </c>
-      <c r="D141" s="105">
-        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C141+E141-1,"")</f>
-        <v>45841</v>
-      </c>
-      <c r="E141" s="85">
-        <v>3</v>
-      </c>
-      <c r="F141" s="85" t="s">
-        <v>20</v>
+      <c r="A141" s="94" t="s">
+        <v>107</v>
+      </c>
+      <c r="B141" s="129">
+        <v>4612140</v>
+      </c>
+      <c r="C141" s="95">
+        <v>45859</v>
+      </c>
+      <c r="D141" s="128">
+        <v>45859</v>
+      </c>
+      <c r="E141" s="94">
+        <v>1</v>
+      </c>
+      <c r="F141" s="94" t="s">
+        <v>16</v>
       </c>
       <c r="G141" s="97" t="s">
+        <v>130</v>
+      </c>
+      <c r="H141" s="39" t="str">
+        <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
+        <v>P83</v>
+      </c>
+      <c r="I141" s="39" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
+        <v>Novo</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" ht="15" thickBot="1">
+      <c r="A142" s="94" t="s">
+        <v>43</v>
+      </c>
+      <c r="B142" s="129">
+        <f>_xlfn.XLOOKUP(A142,Equipe!H:H,Equipe!B:B,"",0)</f>
+        <v>4608389</v>
+      </c>
+      <c r="C142" s="95">
+        <v>45845</v>
+      </c>
+      <c r="D142" s="128">
+        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C142+E142-1,"")</f>
+        <v>45846</v>
+      </c>
+      <c r="E142" s="94">
+        <v>2</v>
+      </c>
+      <c r="F142" s="94" t="s">
+        <v>16</v>
+      </c>
+      <c r="G142" s="108" t="s">
         <v>132</v>
       </c>
-      <c r="H141" s="39" t="str">
-        <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>PBAC</v>
-      </c>
-      <c r="I141" s="39" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Novo</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" ht="15" thickBot="1">
-      <c r="A142" s="85" t="s">
-        <v>14</v>
-      </c>
-      <c r="B142" s="104">
-        <f>_xlfn.XLOOKUP(A142,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4608559</v>
-      </c>
-      <c r="C142" s="89">
-        <v>45839</v>
-      </c>
-      <c r="D142" s="105">
-        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C142+E142-1,"")</f>
-        <v>45841</v>
-      </c>
-      <c r="E142" s="85">
-        <v>3</v>
-      </c>
-      <c r="F142" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="G142" s="97" t="s">
-        <v>132</v>
-      </c>
       <c r="H142" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P83</v>
+        <v>P80</v>
       </c>
       <c r="I142" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
@@ -14227,124 +14238,124 @@
     </row>
     <row r="143" spans="1:9" ht="15" thickBot="1">
       <c r="A143" s="94" t="s">
-        <v>108</v>
+        <v>25</v>
       </c>
       <c r="B143" s="129">
-        <v>4612140</v>
+        <f>_xlfn.XLOOKUP(A143,Equipe!H:H,Equipe!B:B,"",0)</f>
+        <v>9762281</v>
       </c>
       <c r="C143" s="95">
-        <v>45859</v>
+        <v>45832</v>
       </c>
       <c r="D143" s="128">
-        <v>45859</v>
+        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C143+E143-1,"")</f>
+        <v>45845</v>
       </c>
       <c r="E143" s="94">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F143" s="94" t="s">
-        <v>16</v>
-      </c>
-      <c r="G143" s="97" t="s">
-        <v>131</v>
+        <v>11</v>
+      </c>
+      <c r="G143" s="108" t="s">
+        <v>24</v>
       </c>
       <c r="H143" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P83</v>
+        <v>P80</v>
       </c>
       <c r="I143" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Novo</v>
+        <v>Experiente</v>
       </c>
     </row>
     <row r="144" spans="1:9" ht="15" thickBot="1">
-      <c r="A144" s="94" t="s">
-        <v>43</v>
+      <c r="A144" s="85" t="s">
+        <v>25</v>
       </c>
       <c r="B144" s="129">
         <f>_xlfn.XLOOKUP(A144,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4608389</v>
-      </c>
-      <c r="C144" s="95">
-        <v>45845</v>
-      </c>
-      <c r="D144" s="128">
+        <v>9762281</v>
+      </c>
+      <c r="C144" s="89">
+        <v>45481</v>
+      </c>
+      <c r="D144" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C144+E144-1,"")</f>
-        <v>45846</v>
-      </c>
-      <c r="E144" s="94">
-        <v>2</v>
-      </c>
-      <c r="F144" s="94" t="s">
+        <v>45501</v>
+      </c>
+      <c r="E144" s="85">
+        <v>21</v>
+      </c>
+      <c r="F144" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="G144" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="H144" s="39" t="str">
+        <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
+        <v>P80</v>
+      </c>
+      <c r="I144" s="39" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
+        <v>Experiente</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" ht="15" thickBot="1">
+      <c r="A145" s="85" t="s">
+        <v>113</v>
+      </c>
+      <c r="B145" s="104">
+        <f>_xlfn.XLOOKUP(A145,Equipe!H:H,Equipe!B:B,"",0)</f>
+        <v>4612389</v>
+      </c>
+      <c r="C145" s="89">
+        <v>45847</v>
+      </c>
+      <c r="D145" s="105">
+        <v>45847</v>
+      </c>
+      <c r="E145" s="85">
+        <v>1</v>
+      </c>
+      <c r="F145" s="85" t="s">
         <v>16</v>
       </c>
-      <c r="G144" s="108" t="s">
+      <c r="G145" s="97" t="s">
         <v>133</v>
       </c>
-      <c r="H144" s="39" t="str">
+      <c r="H145" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
         <v>P80</v>
       </c>
-      <c r="I144" s="39" t="str">
+      <c r="I145" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
         <v>Novo</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" ht="15" thickBot="1">
-      <c r="A145" s="94" t="s">
-        <v>25</v>
-      </c>
-      <c r="B145" s="129">
-        <f>_xlfn.XLOOKUP(A145,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>9762281</v>
-      </c>
-      <c r="C145" s="95">
-        <v>45832</v>
-      </c>
-      <c r="D145" s="128">
-        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C145+E145-1,"")</f>
-        <v>45845</v>
-      </c>
-      <c r="E145" s="94">
-        <v>14</v>
-      </c>
-      <c r="F145" s="94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" s="108" t="s">
-        <v>24</v>
-      </c>
-      <c r="H145" s="39" t="str">
-        <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P80</v>
-      </c>
-      <c r="I145" s="39" t="str">
-        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Experiente</v>
       </c>
     </row>
     <row r="146" spans="1:9" ht="15" thickBot="1">
       <c r="A146" s="85" t="s">
-        <v>25</v>
-      </c>
-      <c r="B146" s="129">
+        <v>113</v>
+      </c>
+      <c r="B146" s="104">
         <f>_xlfn.XLOOKUP(A146,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>9762281</v>
+        <v>4612389</v>
       </c>
       <c r="C146" s="89">
-        <v>45481</v>
+        <v>45867</v>
       </c>
       <c r="D146" s="105">
-        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C146+E146-1,"")</f>
-        <v>45501</v>
+        <v>45867</v>
       </c>
       <c r="E146" s="85">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F146" s="85" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G146" s="97" t="s">
-        <v>18</v>
+        <v>119</v>
       </c>
       <c r="H146" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
@@ -14352,31 +14363,31 @@
       </c>
       <c r="I146" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Experiente</v>
+        <v>Novo</v>
       </c>
     </row>
     <row r="147" spans="1:9" ht="15" thickBot="1">
       <c r="A147" s="85" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B147" s="104">
         <f>_xlfn.XLOOKUP(A147,Equipe!H:H,Equipe!B:B,"",0)</f>
         <v>4612389</v>
       </c>
       <c r="C147" s="89">
-        <v>45847</v>
+        <v>45873</v>
       </c>
       <c r="D147" s="105">
-        <v>45847</v>
+        <v>45877</v>
       </c>
       <c r="E147" s="85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F147" s="85" t="s">
         <v>16</v>
       </c>
       <c r="G147" s="97" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
       <c r="H147" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
@@ -14389,30 +14400,31 @@
     </row>
     <row r="148" spans="1:9" ht="15" thickBot="1">
       <c r="A148" s="85" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="B148" s="104">
         <f>_xlfn.XLOOKUP(A148,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612389</v>
+        <v>4612140</v>
       </c>
       <c r="C148" s="89">
-        <v>45867</v>
+        <v>45849</v>
       </c>
       <c r="D148" s="105">
-        <v>45867</v>
+        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C148+E148-1,"")</f>
+        <v>45849</v>
       </c>
       <c r="E148" s="85">
         <v>1</v>
       </c>
       <c r="F148" s="85" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G148" s="97" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="H148" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P80</v>
+        <v>P83</v>
       </c>
       <c r="I148" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
@@ -14420,31 +14432,32 @@
       </c>
     </row>
     <row r="149" spans="1:9" ht="15" thickBot="1">
-      <c r="A149" s="85" t="s">
-        <v>114</v>
+      <c r="A149" s="106" t="s">
+        <v>69</v>
       </c>
       <c r="B149" s="104">
         <f>_xlfn.XLOOKUP(A149,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612389</v>
+        <v>4606246</v>
       </c>
       <c r="C149" s="89">
-        <v>45873</v>
+        <v>45853</v>
       </c>
       <c r="D149" s="105">
-        <v>45877</v>
+        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C149+E149-1,"")</f>
+        <v>45855</v>
       </c>
       <c r="E149" s="85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F149" s="85" t="s">
         <v>16</v>
       </c>
       <c r="G149" s="97" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="H149" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P80</v>
+        <v>PBAC</v>
       </c>
       <c r="I149" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
@@ -14453,31 +14466,31 @@
     </row>
     <row r="150" spans="1:9" ht="15" thickBot="1">
       <c r="A150" s="85" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B150" s="104">
         <f>_xlfn.XLOOKUP(A150,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612140</v>
+        <v>4612171</v>
       </c>
       <c r="C150" s="89">
-        <v>45849</v>
+        <v>45863</v>
       </c>
       <c r="D150" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C150+E150-1,"")</f>
-        <v>45849</v>
+        <v>45863</v>
       </c>
       <c r="E150" s="85">
         <v>1</v>
       </c>
       <c r="F150" s="85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G150" s="97" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="H150" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P83</v>
+        <v>P80</v>
       </c>
       <c r="I150" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
@@ -14485,32 +14498,32 @@
       </c>
     </row>
     <row r="151" spans="1:9" ht="15" thickBot="1">
-      <c r="A151" s="106" t="s">
-        <v>69</v>
+      <c r="A151" s="85" t="s">
+        <v>107</v>
       </c>
       <c r="B151" s="104">
         <f>_xlfn.XLOOKUP(A151,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4606246</v>
+        <v>4612140</v>
       </c>
       <c r="C151" s="89">
-        <v>45853</v>
+        <v>45866</v>
       </c>
       <c r="D151" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C151+E151-1,"")</f>
-        <v>45855</v>
+        <v>45867</v>
       </c>
       <c r="E151" s="85">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F151" s="85" t="s">
         <v>16</v>
       </c>
       <c r="G151" s="97" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H151" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>PBAC</v>
+        <v>P83</v>
       </c>
       <c r="I151" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
@@ -14519,27 +14532,26 @@
     </row>
     <row r="152" spans="1:9" ht="15" thickBot="1">
       <c r="A152" s="85" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B152" s="104">
         <f>_xlfn.XLOOKUP(A152,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612171</v>
+        <v>4612098</v>
       </c>
       <c r="C152" s="89">
-        <v>45863</v>
+        <v>45866</v>
       </c>
       <c r="D152" s="105">
-        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C152+E152-1,"")</f>
-        <v>45863</v>
+        <v>45870</v>
       </c>
       <c r="E152" s="85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F152" s="85" t="s">
         <v>16</v>
       </c>
       <c r="G152" s="97" t="s">
-        <v>136</v>
+        <v>36</v>
       </c>
       <c r="H152" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
@@ -14552,11 +14564,11 @@
     </row>
     <row r="153" spans="1:9" ht="15" thickBot="1">
       <c r="A153" s="85" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="B153" s="104">
         <f>_xlfn.XLOOKUP(A153,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612140</v>
+        <v>2493288</v>
       </c>
       <c r="C153" s="89">
         <v>45866</v>
@@ -14569,46 +14581,47 @@
         <v>2</v>
       </c>
       <c r="F153" s="85" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G153" s="97" t="s">
         <v>137</v>
       </c>
       <c r="H153" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P83</v>
+        <v>PBAC</v>
       </c>
       <c r="I153" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Novo</v>
+        <v>Experiente</v>
       </c>
     </row>
     <row r="154" spans="1:9" ht="15" thickBot="1">
       <c r="A154" s="85" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B154" s="104">
         <f>_xlfn.XLOOKUP(A154,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612098</v>
+        <v>4612050</v>
       </c>
       <c r="C154" s="89">
         <v>45866</v>
       </c>
       <c r="D154" s="105">
-        <v>45870</v>
+        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C154+E154-1,"")</f>
+        <v>45867</v>
       </c>
       <c r="E154" s="85">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F154" s="85" t="s">
         <v>16</v>
       </c>
       <c r="G154" s="97" t="s">
-        <v>36</v>
+        <v>136</v>
       </c>
       <c r="H154" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P80</v>
+        <v>P82</v>
       </c>
       <c r="I154" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
@@ -14616,25 +14629,25 @@
       </c>
     </row>
     <row r="155" spans="1:9" ht="15" thickBot="1">
-      <c r="A155" s="85" t="s">
-        <v>30</v>
+      <c r="A155" s="106" t="s">
+        <v>69</v>
       </c>
       <c r="B155" s="104">
         <f>_xlfn.XLOOKUP(A155,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>2493288</v>
+        <v>4606246</v>
       </c>
       <c r="C155" s="89">
-        <v>45866</v>
+        <v>45855</v>
       </c>
       <c r="D155" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C155+E155-1,"")</f>
-        <v>45867</v>
+        <v>45889</v>
       </c>
       <c r="E155" s="85">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="F155" s="85" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G155" s="97" t="s">
         <v>138</v>
@@ -14645,36 +14658,36 @@
       </c>
       <c r="I155" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Experiente</v>
+        <v>Novo</v>
       </c>
     </row>
     <row r="156" spans="1:9" ht="15" thickBot="1">
       <c r="A156" s="85" t="s">
-        <v>110</v>
+        <v>29</v>
       </c>
       <c r="B156" s="104">
         <f>_xlfn.XLOOKUP(A156,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612050</v>
+        <v>9842940</v>
       </c>
       <c r="C156" s="89">
-        <v>45866</v>
+        <v>45869</v>
       </c>
       <c r="D156" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C156+E156-1,"")</f>
-        <v>45867</v>
+        <v>45882</v>
       </c>
       <c r="E156" s="85">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F156" s="85" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G156" s="97" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H156" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P82</v>
+        <v>P80</v>
       </c>
       <c r="I156" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
@@ -14682,32 +14695,32 @@
       </c>
     </row>
     <row r="157" spans="1:9" ht="15" thickBot="1">
-      <c r="A157" s="106" t="s">
-        <v>69</v>
+      <c r="A157" s="85" t="s">
+        <v>29</v>
       </c>
       <c r="B157" s="104">
         <f>_xlfn.XLOOKUP(A157,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4606246</v>
+        <v>9842940</v>
       </c>
       <c r="C157" s="89">
-        <v>45855</v>
+        <v>45883</v>
       </c>
       <c r="D157" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C157+E157-1,"")</f>
-        <v>45889</v>
+        <v>45911</v>
       </c>
       <c r="E157" s="85">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F157" s="85" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G157" s="97" t="s">
-        <v>139</v>
+        <v>18</v>
       </c>
       <c r="H157" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>PBAC</v>
+        <v>P80</v>
       </c>
       <c r="I157" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
@@ -14716,24 +14729,24 @@
     </row>
     <row r="158" spans="1:9" ht="15" thickBot="1">
       <c r="A158" s="85" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="B158" s="104">
         <f>_xlfn.XLOOKUP(A158,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>9842940</v>
+        <v>9886449</v>
       </c>
       <c r="C158" s="89">
-        <v>45869</v>
+        <v>45877</v>
       </c>
       <c r="D158" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C158+E158-1,"")</f>
-        <v>45882</v>
+        <v>45877</v>
       </c>
       <c r="E158" s="85">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="F158" s="85" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G158" s="97" t="s">
         <v>140</v>
@@ -14744,36 +14757,36 @@
       </c>
       <c r="I158" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Novo</v>
+        <v>Experiente</v>
       </c>
     </row>
     <row r="159" spans="1:9" ht="15" thickBot="1">
       <c r="A159" s="85" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="B159" s="104">
         <f>_xlfn.XLOOKUP(A159,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>9842940</v>
+        <v>4608684</v>
       </c>
       <c r="C159" s="89">
-        <v>45883</v>
+        <v>45816</v>
       </c>
       <c r="D159" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C159+E159-1,"")</f>
-        <v>45911</v>
+        <v>45821</v>
       </c>
       <c r="E159" s="85">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="F159" s="85" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G159" s="97" t="s">
-        <v>18</v>
+        <v>52</v>
       </c>
       <c r="H159" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P80</v>
+        <v>P82</v>
       </c>
       <c r="I159" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
@@ -14782,60 +14795,60 @@
     </row>
     <row r="160" spans="1:9" ht="15" thickBot="1">
       <c r="A160" s="85" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B160" s="104">
         <f>_xlfn.XLOOKUP(A160,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>9886449</v>
+        <v>4608684</v>
       </c>
       <c r="C160" s="89">
-        <v>45877</v>
+        <v>45822</v>
       </c>
       <c r="D160" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C160+E160-1,"")</f>
-        <v>45877</v>
+        <v>45834</v>
       </c>
       <c r="E160" s="85">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="F160" s="85" t="s">
         <v>17</v>
       </c>
       <c r="G160" s="97" t="s">
-        <v>141</v>
+        <v>97</v>
       </c>
       <c r="H160" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P80</v>
+        <v>P82</v>
       </c>
       <c r="I160" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Experiente</v>
+        <v>Novo</v>
       </c>
     </row>
     <row r="161" spans="1:9" ht="15" thickBot="1">
       <c r="A161" s="85" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B161" s="104">
         <f>_xlfn.XLOOKUP(A161,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4608684</v>
+        <v>4608544</v>
       </c>
       <c r="C161" s="89">
-        <v>45816</v>
+        <v>45509</v>
       </c>
       <c r="D161" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C161+E161-1,"")</f>
-        <v>45821</v>
+        <v>45532</v>
       </c>
       <c r="E161" s="85">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F161" s="85" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G161" s="97" t="s">
-        <v>52</v>
+        <v>97</v>
       </c>
       <c r="H161" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
@@ -14848,11 +14861,11 @@
     </row>
     <row r="162" spans="1:9" ht="15" thickBot="1">
       <c r="A162" s="85" t="s">
-        <v>51</v>
+        <v>10</v>
       </c>
       <c r="B162" s="104">
         <f>_xlfn.XLOOKUP(A162,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4608684</v>
+        <v>4608544</v>
       </c>
       <c r="C162" s="89">
         <v>45822</v>
@@ -14868,7 +14881,7 @@
         <v>17</v>
       </c>
       <c r="G162" s="97" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H162" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
@@ -14881,64 +14894,60 @@
     </row>
     <row r="163" spans="1:9" ht="15" thickBot="1">
       <c r="A163" s="85" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="B163" s="104">
         <f>_xlfn.XLOOKUP(A163,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4608544</v>
+        <v>9683150</v>
       </c>
       <c r="C163" s="89">
-        <v>45509</v>
+        <v>45870</v>
       </c>
       <c r="D163" s="105">
-        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C163+E163-1,"")</f>
-        <v>45532</v>
+        <v>45870</v>
       </c>
       <c r="E163" s="85">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="F163" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="G163" s="97" t="s">
-        <v>98</v>
-      </c>
+      <c r="G163" s="97"/>
       <c r="H163" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P82</v>
+        <v>P80</v>
       </c>
       <c r="I163" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Novo</v>
+        <v>Experiente</v>
       </c>
     </row>
     <row r="164" spans="1:9" ht="15" thickBot="1">
       <c r="A164" s="85" t="s">
-        <v>10</v>
+        <v>141</v>
       </c>
       <c r="B164" s="104">
         <f>_xlfn.XLOOKUP(A164,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4608544</v>
+        <v>4612247</v>
       </c>
       <c r="C164" s="89">
-        <v>45822</v>
+        <v>45875</v>
       </c>
       <c r="D164" s="105">
-        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C164+E164-1,"")</f>
-        <v>45834</v>
+        <v>45875</v>
       </c>
       <c r="E164" s="85">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F164" s="85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G164" s="97" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="H164" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P82</v>
+        <v>P83</v>
       </c>
       <c r="I164" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
@@ -14947,32 +14956,34 @@
     </row>
     <row r="165" spans="1:9" ht="15" thickBot="1">
       <c r="A165" s="85" t="s">
-        <v>103</v>
+        <v>142</v>
       </c>
       <c r="B165" s="104">
         <f>_xlfn.XLOOKUP(A165,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>9683150</v>
+        <v>4612393</v>
       </c>
       <c r="C165" s="89">
-        <v>45870</v>
+        <v>45875</v>
       </c>
       <c r="D165" s="105">
-        <v>45870</v>
+        <v>45875</v>
       </c>
       <c r="E165" s="85">
         <v>1</v>
       </c>
       <c r="F165" s="85" t="s">
-        <v>17</v>
-      </c>
-      <c r="G165" s="97"/>
+        <v>16</v>
+      </c>
+      <c r="G165" s="97" t="s">
+        <v>119</v>
+      </c>
       <c r="H165" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P80</v>
+        <v>P83</v>
       </c>
       <c r="I165" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Experiente</v>
+        <v>Novo</v>
       </c>
     </row>
     <row r="166" spans="1:9" ht="15" thickBot="1">
@@ -14981,22 +14992,22 @@
       </c>
       <c r="B166" s="104">
         <f>_xlfn.XLOOKUP(A166,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612247</v>
+        <v>4612393</v>
       </c>
       <c r="C166" s="89">
-        <v>45875</v>
+        <v>45887</v>
       </c>
       <c r="D166" s="105">
-        <v>45875</v>
+        <v>45891</v>
       </c>
       <c r="E166" s="85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F166" s="85" t="s">
         <v>16</v>
       </c>
       <c r="G166" s="97" t="s">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="H166" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
@@ -15009,20 +15020,20 @@
     </row>
     <row r="167" spans="1:9" ht="15" thickBot="1">
       <c r="A167" s="85" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B167" s="104">
         <f>_xlfn.XLOOKUP(A167,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612393</v>
+        <v>4612247</v>
       </c>
       <c r="C167" s="89">
-        <v>45875</v>
+        <v>45880</v>
       </c>
       <c r="D167" s="105">
-        <v>45875</v>
+        <v>45884</v>
       </c>
       <c r="E167" s="85">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F167" s="85" t="s">
         <v>16</v>
@@ -15045,26 +15056,27 @@
       </c>
       <c r="B168" s="104">
         <f>_xlfn.XLOOKUP(A168,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612393</v>
+        <v>4612228</v>
       </c>
       <c r="C168" s="89">
-        <v>45887</v>
+        <v>45877</v>
       </c>
       <c r="D168" s="105">
-        <v>45891</v>
+        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C168+E168-1,"")</f>
+        <v>45877</v>
       </c>
       <c r="E168" s="85">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F168" s="85" t="s">
         <v>16</v>
       </c>
       <c r="G168" s="97" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H168" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P83</v>
+        <v>P82</v>
       </c>
       <c r="I168" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
@@ -15073,26 +15085,27 @@
     </row>
     <row r="169" spans="1:9" ht="15" thickBot="1">
       <c r="A169" s="85" t="s">
-        <v>142</v>
+        <v>35</v>
       </c>
       <c r="B169" s="104">
         <f>_xlfn.XLOOKUP(A169,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612247</v>
+        <v>9634222</v>
       </c>
       <c r="C169" s="89">
-        <v>45880</v>
+        <v>45881</v>
       </c>
       <c r="D169" s="105">
-        <v>45884</v>
+        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C169+E169-1,"")</f>
+        <v>45894</v>
       </c>
       <c r="E169" s="85">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="F169" s="85" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="G169" s="97" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="H169" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
@@ -15100,98 +15113,97 @@
       </c>
       <c r="I169" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Novo</v>
+        <v>Experiente</v>
       </c>
     </row>
     <row r="170" spans="1:9" ht="15" thickBot="1">
       <c r="A170" s="85" t="s">
-        <v>144</v>
+        <v>35</v>
       </c>
       <c r="B170" s="104">
         <f>_xlfn.XLOOKUP(A170,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612228</v>
+        <v>9634222</v>
       </c>
       <c r="C170" s="89">
-        <v>45877</v>
+        <v>45895</v>
       </c>
       <c r="D170" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C170+E170-1,"")</f>
-        <v>45877</v>
+        <v>45915</v>
       </c>
       <c r="E170" s="85">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="F170" s="85" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G170" s="97" t="s">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="H170" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P82</v>
+        <v>P83</v>
       </c>
       <c r="I170" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Novo</v>
+        <v>Experiente</v>
       </c>
     </row>
     <row r="171" spans="1:9" ht="15" thickBot="1">
       <c r="A171" s="85" t="s">
-        <v>35</v>
+        <v>143</v>
       </c>
       <c r="B171" s="104">
         <f>_xlfn.XLOOKUP(A171,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>9634222</v>
+        <v>4612228</v>
       </c>
       <c r="C171" s="89">
-        <v>45881</v>
+        <v>45887</v>
       </c>
       <c r="D171" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C171+E171-1,"")</f>
-        <v>45894</v>
+        <v>45891</v>
       </c>
       <c r="E171" s="85">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="F171" s="85" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="G171" s="97" t="s">
-        <v>97</v>
+        <v>120</v>
       </c>
       <c r="H171" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P83</v>
+        <v>P82</v>
       </c>
       <c r="I171" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Experiente</v>
+        <v>Novo</v>
       </c>
     </row>
     <row r="172" spans="1:9" ht="15" thickBot="1">
       <c r="A172" s="85" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="B172" s="104">
         <f>_xlfn.XLOOKUP(A172,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>9634222</v>
+        <v>4612247</v>
       </c>
       <c r="C172" s="89">
-        <v>45895</v>
+        <v>45887</v>
       </c>
       <c r="D172" s="105">
-        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C172+E172-1,"")</f>
-        <v>45915</v>
+        <v>45887</v>
       </c>
       <c r="E172" s="85">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="F172" s="85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G172" s="97" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="H172" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
@@ -15199,32 +15211,31 @@
       </c>
       <c r="I172" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Experiente</v>
+        <v>Novo</v>
       </c>
     </row>
     <row r="173" spans="1:9" ht="15" thickBot="1">
       <c r="A173" s="85" t="s">
-        <v>144</v>
+        <v>26</v>
       </c>
       <c r="B173" s="104">
         <f>_xlfn.XLOOKUP(A173,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612228</v>
+        <v>4608474</v>
       </c>
       <c r="C173" s="89">
-        <v>45887</v>
+        <v>45889</v>
       </c>
       <c r="D173" s="105">
-        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C173+E173-1,"")</f>
         <v>45891</v>
       </c>
       <c r="E173" s="85">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F173" s="85" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G173" s="97" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="H173" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
@@ -15237,30 +15248,31 @@
     </row>
     <row r="174" spans="1:9" ht="15" thickBot="1">
       <c r="A174" s="85" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="B174" s="104">
         <f>_xlfn.XLOOKUP(A174,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612247</v>
+        <v>4612171</v>
       </c>
       <c r="C174" s="89">
-        <v>45887</v>
+        <v>45925</v>
       </c>
       <c r="D174" s="105">
-        <v>45887</v>
+        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C174+E174-1,"")</f>
+        <v>45926</v>
       </c>
       <c r="E174" s="85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F174" s="85" t="s">
         <v>16</v>
       </c>
       <c r="G174" s="97" t="s">
-        <v>120</v>
+        <v>145</v>
       </c>
       <c r="H174" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P83</v>
+        <v>P80</v>
       </c>
       <c r="I174" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
@@ -15269,30 +15281,31 @@
     </row>
     <row r="175" spans="1:9" ht="15" thickBot="1">
       <c r="A175" s="85" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="B175" s="104">
         <f>_xlfn.XLOOKUP(A175,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4608474</v>
+        <v>4612098</v>
       </c>
       <c r="C175" s="89">
-        <v>45889</v>
+        <v>45890</v>
       </c>
       <c r="D175" s="105">
-        <v>45891</v>
+        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C175+E175-1,"")</f>
+        <v>45903</v>
       </c>
       <c r="E175" s="85">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="F175" s="85" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G175" s="97" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="H175" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P82</v>
+        <v>P80</v>
       </c>
       <c r="I175" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
@@ -15301,27 +15314,26 @@
     </row>
     <row r="176" spans="1:9" ht="15" thickBot="1">
       <c r="A176" s="85" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="B176" s="104">
         <f>_xlfn.XLOOKUP(A176,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612171</v>
+        <v>4612098</v>
       </c>
       <c r="C176" s="89">
-        <v>45925</v>
+        <v>45904</v>
       </c>
       <c r="D176" s="105">
-        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C176+E176-1,"")</f>
-        <v>45926</v>
+        <v>45932</v>
       </c>
       <c r="E176" s="85">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="F176" s="85" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G176" s="97" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H176" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
@@ -15333,32 +15345,32 @@
       </c>
     </row>
     <row r="177" spans="1:9" ht="15" thickBot="1">
-      <c r="A177" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="B177" s="104">
+      <c r="A177" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B177" s="129">
         <f>_xlfn.XLOOKUP(A177,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612098</v>
-      </c>
-      <c r="C177" s="89">
-        <v>45890</v>
-      </c>
-      <c r="D177" s="105">
+        <v>4608544</v>
+      </c>
+      <c r="C177" s="95">
+        <v>45904</v>
+      </c>
+      <c r="D177" s="128">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C177+E177-1,"")</f>
-        <v>45903</v>
-      </c>
-      <c r="E177" s="85">
+        <v>45917</v>
+      </c>
+      <c r="E177" s="94">
         <v>14</v>
       </c>
       <c r="F177" s="85" t="s">
         <v>11</v>
       </c>
       <c r="G177" s="97" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H177" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P80</v>
+        <v>P82</v>
       </c>
       <c r="I177" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
@@ -15366,20 +15378,21 @@
       </c>
     </row>
     <row r="178" spans="1:9" ht="15" thickBot="1">
-      <c r="A178" s="85" t="s">
-        <v>104</v>
-      </c>
-      <c r="B178" s="104">
+      <c r="A178" s="94" t="s">
+        <v>10</v>
+      </c>
+      <c r="B178" s="129">
         <f>_xlfn.XLOOKUP(A178,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612098</v>
-      </c>
-      <c r="C178" s="89">
-        <v>45904</v>
-      </c>
-      <c r="D178" s="105">
-        <v>45932</v>
-      </c>
-      <c r="E178" s="85">
+        <v>4608544</v>
+      </c>
+      <c r="C178" s="95">
+        <v>45918</v>
+      </c>
+      <c r="D178" s="128">
+        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C178+E178-1,"")</f>
+        <v>45946</v>
+      </c>
+      <c r="E178" s="94">
         <v>29</v>
       </c>
       <c r="F178" s="85" t="s">
@@ -15390,7 +15403,7 @@
       </c>
       <c r="H178" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P80</v>
+        <v>P82</v>
       </c>
       <c r="I178" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
@@ -15406,26 +15419,26 @@
         <v>4608544</v>
       </c>
       <c r="C179" s="95">
-        <v>45904</v>
+        <v>45974</v>
       </c>
       <c r="D179" s="128">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C179+E179-1,"")</f>
-        <v>45917</v>
+        <v>45987</v>
       </c>
       <c r="E179" s="94">
         <v>14</v>
       </c>
-      <c r="F179" s="85" t="s">
+      <c r="F179" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="G179" s="97" t="s">
-        <v>140</v>
-      </c>
-      <c r="H179" s="39" t="str">
+      <c r="G179" s="108" t="s">
+        <v>139</v>
+      </c>
+      <c r="H179" s="144" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
         <v>P82</v>
       </c>
-      <c r="I179" s="39" t="str">
+      <c r="I179" s="144" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
         <v>Novo</v>
       </c>
@@ -15439,26 +15452,26 @@
         <v>4608544</v>
       </c>
       <c r="C180" s="95">
-        <v>45918</v>
+        <v>45988</v>
       </c>
       <c r="D180" s="128">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C180+E180-1,"")</f>
-        <v>45946</v>
+        <v>46020</v>
       </c>
       <c r="E180" s="94">
-        <v>29</v>
-      </c>
-      <c r="F180" s="85" t="s">
+        <v>33</v>
+      </c>
+      <c r="F180" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="G180" s="97" t="s">
-        <v>149</v>
-      </c>
-      <c r="H180" s="39" t="str">
+      <c r="G180" s="108" t="s">
+        <v>148</v>
+      </c>
+      <c r="H180" s="144" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
         <v>P82</v>
       </c>
-      <c r="I180" s="39" t="str">
+      <c r="I180" s="144" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
         <v>Novo</v>
       </c>
@@ -15472,11 +15485,11 @@
         <v>4608544</v>
       </c>
       <c r="C181" s="95">
-        <v>45974</v>
+        <v>46044</v>
       </c>
       <c r="D181" s="128">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C181+E181-1,"")</f>
-        <v>45987</v>
+        <v>46057</v>
       </c>
       <c r="E181" s="94">
         <v>14</v>
@@ -15485,7 +15498,7 @@
         <v>11</v>
       </c>
       <c r="G181" s="108" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H181" s="144" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
@@ -15505,11 +15518,11 @@
         <v>4608544</v>
       </c>
       <c r="C182" s="95">
-        <v>45988</v>
+        <v>46058</v>
       </c>
       <c r="D182" s="128">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C182+E182-1,"")</f>
-        <v>46020</v>
+        <v>46090</v>
       </c>
       <c r="E182" s="94">
         <v>33</v>
@@ -15518,7 +15531,7 @@
         <v>17</v>
       </c>
       <c r="G182" s="108" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H182" s="144" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
@@ -15531,31 +15544,30 @@
     </row>
     <row r="183" spans="1:9" ht="15" thickBot="1">
       <c r="A183" s="94" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="B183" s="129">
-        <f>_xlfn.XLOOKUP(A183,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4608544</v>
+        <v>4612140</v>
       </c>
       <c r="C183" s="95">
-        <v>46044</v>
+        <v>45889</v>
       </c>
       <c r="D183" s="128">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C183+E183-1,"")</f>
-        <v>46057</v>
+        <v>45895</v>
       </c>
       <c r="E183" s="94">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F183" s="94" t="s">
         <v>11</v>
       </c>
       <c r="G183" s="108" t="s">
-        <v>140</v>
+        <v>80</v>
       </c>
       <c r="H183" s="144" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P82</v>
+        <v>P83</v>
       </c>
       <c r="I183" s="144" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
@@ -15564,21 +15576,21 @@
     </row>
     <row r="184" spans="1:9" ht="15" thickBot="1">
       <c r="A184" s="94" t="s">
-        <v>10</v>
+        <v>107</v>
       </c>
       <c r="B184" s="129">
         <f>_xlfn.XLOOKUP(A184,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4608544</v>
+        <v>4612140</v>
       </c>
       <c r="C184" s="95">
-        <v>46058</v>
+        <v>45896</v>
       </c>
       <c r="D184" s="128">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C184+E184-1,"")</f>
-        <v>46090</v>
+        <v>45910</v>
       </c>
       <c r="E184" s="94">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="F184" s="94" t="s">
         <v>17</v>
@@ -15588,7 +15600,7 @@
       </c>
       <c r="H184" s="144" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P82</v>
+        <v>P83</v>
       </c>
       <c r="I184" s="144" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
@@ -15597,129 +15609,130 @@
     </row>
     <row r="185" spans="1:9" ht="15" thickBot="1">
       <c r="A185" s="94" t="s">
-        <v>108</v>
+        <v>30</v>
       </c>
       <c r="B185" s="129">
-        <v>4612140</v>
+        <f>_xlfn.XLOOKUP(A185,Equipe!H:H,Equipe!B:B,"",0)</f>
+        <v>2493288</v>
       </c>
       <c r="C185" s="95">
-        <v>45889</v>
+        <v>45912</v>
       </c>
       <c r="D185" s="128">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C185+E185-1,"")</f>
-        <v>45895</v>
+        <v>45912</v>
       </c>
       <c r="E185" s="94">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F185" s="94" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G185" s="108" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="H185" s="144" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P83</v>
+        <v>PBAC</v>
       </c>
       <c r="I185" s="144" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Novo</v>
+        <v>Experiente</v>
       </c>
     </row>
     <row r="186" spans="1:9" ht="15" thickBot="1">
       <c r="A186" s="94" t="s">
-        <v>108</v>
+        <v>23</v>
       </c>
       <c r="B186" s="129">
         <f>_xlfn.XLOOKUP(A186,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612140</v>
+        <v>1386344</v>
       </c>
       <c r="C186" s="95">
-        <v>45896</v>
+        <v>45940</v>
       </c>
       <c r="D186" s="128">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C186+E186-1,"")</f>
-        <v>45910</v>
+        <v>45940</v>
       </c>
       <c r="E186" s="94">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="F186" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="G186" s="108" t="s">
-        <v>150</v>
+      <c r="G186" s="97" t="s">
+        <v>85</v>
       </c>
       <c r="H186" s="144" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P83</v>
+        <v>P82</v>
       </c>
       <c r="I186" s="144" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Novo</v>
+        <v>Experiente</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="15" thickBot="1">
       <c r="A187" s="94" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="B187" s="129">
         <f>_xlfn.XLOOKUP(A187,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>2493288</v>
+        <v>4612171</v>
       </c>
       <c r="C187" s="95">
-        <v>45912</v>
+        <v>45950</v>
       </c>
       <c r="D187" s="128">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C187+E187-1,"")</f>
-        <v>45912</v>
+        <v>45952</v>
       </c>
       <c r="E187" s="94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F187" s="94" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G187" s="108" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="H187" s="144" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>PBAC</v>
+        <v>P80</v>
       </c>
       <c r="I187" s="144" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>Experiente</v>
+        <v>Novo</v>
       </c>
     </row>
     <row r="188" spans="1:9" ht="15" thickBot="1">
       <c r="A188" s="94" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B188" s="129">
         <f>_xlfn.XLOOKUP(A188,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>1386344</v>
+        <v>1381625</v>
       </c>
       <c r="C188" s="95">
-        <v>45940</v>
+        <v>45901</v>
       </c>
       <c r="D188" s="128">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C188+E188-1,"")</f>
-        <v>45940</v>
+        <v>45903</v>
       </c>
       <c r="E188" s="94">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F188" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="G188" s="97" t="s">
-        <v>85</v>
+      <c r="G188" s="108" t="s">
+        <v>150</v>
       </c>
       <c r="H188" s="144" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P82</v>
+        <v>P80</v>
       </c>
       <c r="I188" s="144" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
@@ -15727,197 +15740,263 @@
       </c>
     </row>
     <row r="189" spans="1:9" ht="15" thickBot="1">
-      <c r="A189" s="94" t="s">
-        <v>116</v>
-      </c>
-      <c r="B189" s="129">
-        <f>_xlfn.XLOOKUP(A189,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612171</v>
-      </c>
-      <c r="C189" s="95">
-        <v>45950</v>
-      </c>
-      <c r="D189" s="128">
+      <c r="A189" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B189" s="104">
+        <v>4608559</v>
+      </c>
+      <c r="C189" s="89">
+        <v>45895</v>
+      </c>
+      <c r="D189" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C189+E189-1,"")</f>
-        <v>45952</v>
-      </c>
-      <c r="E189" s="94">
-        <v>3</v>
-      </c>
-      <c r="F189" s="94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G189" s="108" t="s">
+        <v>45896</v>
+      </c>
+      <c r="E189" s="85">
+        <v>2</v>
+      </c>
+      <c r="F189" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G189" s="97" t="s">
+        <v>151</v>
+      </c>
+      <c r="H189" s="39" t="str">
+        <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
+        <v>P83</v>
+      </c>
+      <c r="I189" s="39" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
+        <v>Novo</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" ht="15" thickBot="1">
+      <c r="A190" s="85" t="s">
+        <v>14</v>
+      </c>
+      <c r="B190" s="104">
+        <f>_xlfn.XLOOKUP(A190,Equipe!H:H,Equipe!B:B,"",0)</f>
+        <v>4608559</v>
+      </c>
+      <c r="C190" s="89">
+        <v>45897</v>
+      </c>
+      <c r="D190" s="105">
+        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C190+E190-1,"")</f>
+        <v>45898</v>
+      </c>
+      <c r="E190" s="85">
+        <v>2</v>
+      </c>
+      <c r="F190" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G190" s="97" t="s">
         <v>97</v>
       </c>
-      <c r="H189" s="144" t="str">
-        <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>P80</v>
-      </c>
-      <c r="I189" s="144" t="str">
+      <c r="H190" s="39" t="str">
+        <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
+        <v>P83</v>
+      </c>
+      <c r="I190" s="39" t="str">
         <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
         <v>Novo</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="15" thickBot="1">
-      <c r="A190" s="94"/>
-      <c r="B190" s="129">
-        <f>_xlfn.XLOOKUP(A190,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
-      </c>
-      <c r="C190" s="95"/>
-      <c r="D190" s="128" t="str">
-        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C190+E190-1,"")</f>
-        <v/>
-      </c>
-      <c r="E190" s="94"/>
-      <c r="F190" s="94"/>
-      <c r="G190" s="108"/>
-      <c r="H190" s="144" t="str">
-        <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>ERRO</v>
-      </c>
-      <c r="I190" s="144" t="e">
-        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
     <row r="191" spans="1:9" ht="15" thickBot="1">
-      <c r="A191" s="85"/>
+      <c r="A191" s="85" t="s">
+        <v>14</v>
+      </c>
       <c r="B191" s="104">
         <f>_xlfn.XLOOKUP(A191,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
-      </c>
-      <c r="C191" s="89"/>
-      <c r="D191" s="105" t="str">
+        <v>4608559</v>
+      </c>
+      <c r="C191" s="89">
+        <v>45889</v>
+      </c>
+      <c r="D191" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C191+E191-1,"")</f>
-        <v/>
-      </c>
-      <c r="E191" s="85"/>
-      <c r="F191" s="85"/>
+        <v>45891</v>
+      </c>
+      <c r="E191" s="85">
+        <v>3</v>
+      </c>
+      <c r="F191" s="85" t="s">
+        <v>11</v>
+      </c>
       <c r="G191" s="97"/>
       <c r="H191" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>ERRO</v>
-      </c>
-      <c r="I191" s="39" t="e">
-        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>#N/A</v>
+        <v>P83</v>
+      </c>
+      <c r="I191" s="39" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
+        <v>Novo</v>
       </c>
     </row>
     <row r="192" spans="1:9" ht="15" thickBot="1">
-      <c r="A192" s="85"/>
+      <c r="A192" s="85" t="s">
+        <v>53</v>
+      </c>
       <c r="B192" s="104">
         <f>_xlfn.XLOOKUP(A192,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
-      </c>
-      <c r="C192" s="89"/>
-      <c r="D192" s="105" t="str">
+        <v>9886449</v>
+      </c>
+      <c r="C192" s="89">
+        <v>45894</v>
+      </c>
+      <c r="D192" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C192+E192-1,"")</f>
-        <v/>
-      </c>
-      <c r="E192" s="85"/>
-      <c r="F192" s="85"/>
-      <c r="G192" s="97"/>
+        <v>45896</v>
+      </c>
+      <c r="E192" s="85">
+        <v>3</v>
+      </c>
+      <c r="F192" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G192" s="97" t="s">
+        <v>152</v>
+      </c>
       <c r="H192" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>ERRO</v>
-      </c>
-      <c r="I192" s="39" t="e">
-        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9" ht="15" thickBot="1">
-      <c r="A193" s="85"/>
+        <v>P80</v>
+      </c>
+      <c r="I192" s="39" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
+        <v>Experiente</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" ht="15">
+      <c r="A193" s="85" t="s">
+        <v>115</v>
+      </c>
       <c r="B193" s="104">
         <f>_xlfn.XLOOKUP(A193,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
-      </c>
-      <c r="C193" s="89"/>
-      <c r="D193" s="105" t="str">
+        <v>4612171</v>
+      </c>
+      <c r="C193" s="89">
+        <v>45936</v>
+      </c>
+      <c r="D193" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C193+E193-1,"")</f>
-        <v/>
-      </c>
-      <c r="E193" s="85"/>
-      <c r="F193" s="85"/>
-      <c r="G193" s="97"/>
+        <v>45938</v>
+      </c>
+      <c r="E193" s="85">
+        <v>3</v>
+      </c>
+      <c r="F193" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G193" s="97" t="s">
+        <v>153</v>
+      </c>
       <c r="H193" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>ERRO</v>
-      </c>
-      <c r="I193" s="39" t="e">
-        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9" ht="15" thickBot="1">
-      <c r="A194" s="85"/>
+        <v>P80</v>
+      </c>
+      <c r="I193" s="39" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
+        <v>Novo</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" ht="15">
+      <c r="A194" s="85" t="s">
+        <v>115</v>
+      </c>
       <c r="B194" s="104">
         <f>_xlfn.XLOOKUP(A194,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
-      </c>
-      <c r="C194" s="89"/>
-      <c r="D194" s="105" t="str">
+        <v>4612171</v>
+      </c>
+      <c r="C194" s="89">
+        <v>45943</v>
+      </c>
+      <c r="D194" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C194+E194-1,"")</f>
-        <v/>
-      </c>
-      <c r="E194" s="85"/>
-      <c r="F194" s="85"/>
-      <c r="G194" s="97"/>
+        <v>45943</v>
+      </c>
+      <c r="E194" s="85">
+        <v>1</v>
+      </c>
+      <c r="F194" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G194" s="97" t="s">
+        <v>153</v>
+      </c>
       <c r="H194" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>ERRO</v>
-      </c>
-      <c r="I194" s="39" t="e">
-        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9" ht="15" thickBot="1">
-      <c r="A195" s="85"/>
+        <v>P80</v>
+      </c>
+      <c r="I194" s="39" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
+        <v>Novo</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" ht="15">
+      <c r="A195" s="85" t="s">
+        <v>115</v>
+      </c>
       <c r="B195" s="104">
         <f>_xlfn.XLOOKUP(A195,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
-      </c>
-      <c r="C195" s="89"/>
-      <c r="D195" s="105" t="str">
+        <v>4612171</v>
+      </c>
+      <c r="C195" s="89">
+        <v>45944</v>
+      </c>
+      <c r="D195" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C195+E195-1,"")</f>
-        <v/>
-      </c>
-      <c r="E195" s="85"/>
-      <c r="F195" s="85"/>
-      <c r="G195" s="97"/>
+        <v>45945</v>
+      </c>
+      <c r="E195" s="85">
+        <v>2</v>
+      </c>
+      <c r="F195" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G195" s="97" t="s">
+        <v>154</v>
+      </c>
       <c r="H195" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>ERRO</v>
-      </c>
-      <c r="I195" s="39" t="e">
-        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9" ht="15" thickBot="1">
-      <c r="A196" s="85"/>
+        <v>P80</v>
+      </c>
+      <c r="I195" s="39" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
+        <v>Novo</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" ht="15">
+      <c r="A196" s="85" t="s">
+        <v>115</v>
+      </c>
       <c r="B196" s="104">
         <f>_xlfn.XLOOKUP(A196,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
-      </c>
-      <c r="C196" s="89"/>
-      <c r="D196" s="105" t="str">
-        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C196+E196-1,"")</f>
-        <v/>
-      </c>
-      <c r="E196" s="85"/>
-      <c r="F196" s="85"/>
-      <c r="G196" s="97"/>
+        <v>4612171</v>
+      </c>
+      <c r="C196" s="89">
+        <v>45950</v>
+      </c>
+      <c r="D196" s="105">
+        <v>45951</v>
+      </c>
+      <c r="E196" s="85">
+        <v>2</v>
+      </c>
+      <c r="F196" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G196" s="97" t="s">
+        <v>154</v>
+      </c>
       <c r="H196" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>ERRO</v>
-      </c>
-      <c r="I196" s="39" t="e">
-        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>#N/A</v>
+        <v>P80</v>
+      </c>
+      <c r="I196" s="39" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
+        <v>Novo</v>
       </c>
     </row>
     <row r="197" spans="1:9" ht="15" thickBot="1">
@@ -18243,7 +18322,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="298" spans="1:9" ht="15" thickBot="1">
+    <row r="298" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A298" s="85"/>
       <c r="B298" s="104">
         <f>_xlfn.XLOOKUP(A298,Equipe!H:H,Equipe!B:B,"",0)</f>
@@ -18266,7 +18345,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="299" spans="1:9" ht="15" thickBot="1">
+    <row r="299" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A299" s="85"/>
       <c r="B299" s="104">
         <f>_xlfn.XLOOKUP(A299,Equipe!H:H,Equipe!B:B,"",0)</f>
@@ -35033,7 +35112,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1028" spans="1:9" ht="30" customHeight="1" thickBot="1">
+    <row r="1028" spans="1:9" ht="1.35" customHeight="1" thickBot="1">
       <c r="A1028" s="85"/>
       <c r="B1028" s="104">
         <f>_xlfn.XLOOKUP(A1028,Equipe!H:H,Equipe!B:B,"",0)</f>
@@ -35079,20 +35158,19 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1030" spans="1:9" ht="1.35" customHeight="1" thickBot="1">
-      <c r="A1030" s="85"/>
-      <c r="B1030" s="104">
-        <f>_xlfn.XLOOKUP(A1030,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
-      </c>
-      <c r="C1030" s="89"/>
-      <c r="D1030" s="105" t="str">
+    <row r="1030" spans="1:9" ht="30" customHeight="1" thickBot="1">
+      <c r="A1030" s="88"/>
+      <c r="B1030" s="88">
+        <v>4608</v>
+      </c>
+      <c r="C1030" s="90"/>
+      <c r="D1030" s="107" t="str">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C1030+E1030-1,"")</f>
         <v/>
       </c>
-      <c r="E1030" s="85"/>
-      <c r="F1030" s="85"/>
-      <c r="G1030" s="97"/>
+      <c r="E1030" s="88"/>
+      <c r="F1030" s="88"/>
+      <c r="G1030" s="100"/>
       <c r="H1030" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
         <v>ERRO</v>
@@ -35102,45 +35180,23 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1031" spans="1:9" ht="30" customHeight="1" thickBot="1">
+    <row r="1031" spans="1:9" ht="30" customHeight="1">
       <c r="A1031" s="88"/>
-      <c r="B1031" s="88">
-        <v>4608</v>
-      </c>
+      <c r="B1031" s="88"/>
       <c r="C1031" s="90"/>
-      <c r="D1031" s="107" t="str">
-        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C1031+E1031-1,"")</f>
-        <v/>
-      </c>
+      <c r="D1031" s="107"/>
       <c r="E1031" s="88"/>
       <c r="F1031" s="88"/>
       <c r="G1031" s="100"/>
-      <c r="H1031" s="39" t="str">
-        <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>ERRO</v>
-      </c>
-      <c r="I1031" s="39" t="e">
-        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1032" spans="1:9" ht="30" customHeight="1">
-      <c r="A1032" s="88"/>
-      <c r="B1032" s="88"/>
-      <c r="C1032" s="90"/>
-      <c r="D1032" s="107"/>
-      <c r="E1032" s="88"/>
-      <c r="F1032" s="88"/>
-      <c r="G1032" s="100"/>
-      <c r="H1032" s="143"/>
-      <c r="I1032" s="143"/>
+      <c r="H1031" s="143"/>
+      <c r="I1031" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="L5:L7"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
-  <conditionalFormatting sqref="A1:XFD1 C2:XFD3 K2:K6 A2:B34 L4:XFD4 E4:J62 C4:D68 M5:XFD7 L8:XFD176 K9:K176 A35:A54 B35:B64 A56:A64 E63:I73 J63:J176 A65:B68 A69:C70 D69:D73 A70:B72 A73:C73 A74:I86 A87:B88 D87:I88 A89:I109 A110:B110 D110:I110 A111:I118 A119:F119 H119:I119 A120:I150 A151:B151 D151:I151 A152:I176 A177:XFD1048576">
+  <conditionalFormatting sqref="A1:XFD1 C2:XFD3 K2:K6 A2:B34 L4:XFD4 E4:J62 C4:D68 M5:XFD7 L8:XFD174 K9:K174 A35:A54 B35:B64 A56:A64 E63:I73 J63:J174 A65:B68 A69:C70 D69:D73 A70:B72 A73:C73 A74:I86 A87:B88 D87:I88 A89:I107 A108:B108 D108:I108 A109:I116 A117:F117 H117:I117 A118:I148 A149:B149 D149:I149 A150:I174 A175:XFD188 A189:F189 H189:XFD189 D189:D191 A190:XFD1048576">
     <cfRule type="cellIs" dxfId="64" priority="11" operator="equal">
       <formula>"ESTALEIRO"</formula>
     </cfRule>
@@ -35155,21 +35211,21 @@
       <formula>"ESTALEIRO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C110">
+  <conditionalFormatting sqref="C108">
     <cfRule type="cellIs" dxfId="61" priority="2" operator="equal">
       <formula>"ESTALEIRO"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C151">
+  <conditionalFormatting sqref="C149">
     <cfRule type="cellIs" dxfId="60" priority="1" operator="equal">
       <formula>"ESTALEIRO"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1031:F1131" xr:uid="{FE92769D-A30C-45A3-B10C-426BB3355AD8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1030:F1130" xr:uid="{FE92769D-A30C-45A3-B10C-426BB3355AD8}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1030" xr:uid="{156E15E9-23E7-431B-9B12-A26E3B0A7469}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1029" xr:uid="{156E15E9-23E7-431B-9B12-A26E3B0A7469}">
       <formula1>$K$2:$K$11</formula1>
     </dataValidation>
   </dataValidations>
@@ -35193,7 +35249,7 @@
           <x14:formula1>
             <xm:f>Equipe!$H$2:$H$131</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A1030</xm:sqref>
+          <xm:sqref>A2:A1029</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -35207,8 +35263,8 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="N34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N34" sqref="N34"/>
+      <pane ySplit="1" topLeftCell="H39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -35226,1397 +35282,1397 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="112" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B1" s="113" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="113" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D1" s="113" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E1" s="114" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F1" s="114" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="114" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="H1" s="114" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="131" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="J1" s="132" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="79" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B2" s="115">
         <v>4612171</v>
       </c>
       <c r="C2" s="115" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D2" s="116" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E2" s="117" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F2" s="117" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G2" s="118" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="H2" s="117" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I2" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J2" s="134"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="79" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B3" s="109">
         <v>4612050</v>
       </c>
       <c r="C3" s="109" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D3" s="110" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E3" s="117" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="F3" s="111" t="s">
-        <v>162</v>
-      </c>
       <c r="G3" s="119" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H3" s="111" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I3" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J3" s="134"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="79" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B4" s="115">
         <v>4612140</v>
       </c>
       <c r="C4" s="115" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D4" s="116" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E4" s="122" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F4" s="117" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G4" s="118" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H4" s="117" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I4" s="133" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="J4" s="134"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="79" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B5" s="109">
         <v>9842940</v>
       </c>
       <c r="C5" s="109" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D5" s="110" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E5" s="111" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F5" s="111" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G5" s="119" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="H5" s="111" t="s">
         <v>29</v>
       </c>
       <c r="I5" s="133" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="J5" s="135"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="79" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B6" s="115">
         <v>9886449</v>
       </c>
       <c r="C6" s="115" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D6" s="116" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E6" s="117" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F6" s="117" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G6" s="136" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H6" s="117" t="s">
         <v>53</v>
       </c>
       <c r="I6" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J6" s="135" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="120" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B7" s="109">
         <v>4608721</v>
       </c>
       <c r="C7" s="109" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D7" s="121" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E7" s="122" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F7" s="122" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G7" s="123" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H7" s="122" t="s">
         <v>28</v>
       </c>
       <c r="I7" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J7" s="135"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="120" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B8" s="115">
         <v>1385894</v>
       </c>
       <c r="C8" s="115" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D8" s="124" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E8" s="125" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F8" s="125" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G8" s="137" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="H8" s="125" t="s">
         <v>31</v>
       </c>
       <c r="I8" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J8" s="135" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="120" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B9" s="109">
         <v>4608685</v>
       </c>
       <c r="C9" s="109" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D9" s="121" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E9" s="122" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F9" s="122" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G9" s="138" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H9" s="122" t="s">
         <v>19</v>
       </c>
       <c r="I9" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J9" s="135"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="120" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B10" s="115">
         <v>9762281</v>
       </c>
       <c r="C10" s="115" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D10" s="124" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E10" s="125" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F10" s="125" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G10" s="137" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="H10" s="125" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I10" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J10" s="135" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="120" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B11" s="109">
         <v>9683150</v>
       </c>
       <c r="C11" s="109" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D11" s="121" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E11" s="122" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F11" s="122" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G11" s="138" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H11" s="122" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I11" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J11" s="135" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="79" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B12" s="115">
         <v>2440812</v>
       </c>
       <c r="C12" s="115" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D12" s="116" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E12" s="117" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F12" s="117" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G12" s="136" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H12" s="117" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="I12" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J12" s="135"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="120" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B13" s="109">
         <v>1381625</v>
       </c>
       <c r="C13" s="109" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D13" s="110" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E13" s="111" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F13" s="111" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G13" s="139" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="H13" s="111" t="s">
         <v>37</v>
       </c>
       <c r="I13" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J13" s="135"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="79" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B14" s="115">
         <v>4608389</v>
       </c>
       <c r="C14" s="115" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D14" s="116" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E14" s="117" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F14" s="117" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G14" s="136" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="H14" s="117" t="s">
         <v>43</v>
       </c>
       <c r="I14" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J14" s="135"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="120" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B15" s="109">
         <v>4608544</v>
       </c>
       <c r="C15" s="109" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D15" s="110" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E15" s="111" t="s">
+        <v>170</v>
+      </c>
+      <c r="F15" s="111" t="s">
         <v>166</v>
       </c>
-      <c r="F15" s="111" t="s">
-        <v>162</v>
-      </c>
       <c r="G15" s="139" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H15" s="111" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J15" s="135"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="120" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B16" s="115">
         <v>4608474</v>
       </c>
       <c r="C16" s="115" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D16" s="116" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E16" s="117" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" s="125" t="s">
         <v>166</v>
       </c>
-      <c r="F16" s="125" t="s">
-        <v>162</v>
-      </c>
       <c r="G16" s="126" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H16" s="125" t="s">
         <v>26</v>
       </c>
       <c r="I16" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J16" s="135"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="79" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B17" s="109">
         <v>1386344</v>
       </c>
       <c r="C17" s="109" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D17" s="121" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E17" s="122" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F17" s="122" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G17" s="123" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H17" s="122" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="I17" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J17" s="135" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="79" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B18" s="115">
         <v>4608684</v>
       </c>
       <c r="C18" s="115" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D18" s="124" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E18" s="125" t="s">
+        <v>170</v>
+      </c>
+      <c r="F18" s="125" t="s">
         <v>166</v>
       </c>
-      <c r="F18" s="125" t="s">
-        <v>162</v>
-      </c>
       <c r="G18" s="126" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="H18" s="117" t="s">
         <v>51</v>
       </c>
       <c r="I18" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J18" s="135"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="79" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B19" s="109">
         <v>9612082</v>
       </c>
       <c r="C19" s="109" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D19" s="121" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E19" s="122" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F19" s="111" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G19" s="123" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="H19" s="122" t="s">
         <v>57</v>
       </c>
       <c r="I19" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J19" s="135"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="79" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B20" s="115">
         <v>9618720</v>
       </c>
       <c r="C20" s="115" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D20" s="124" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E20" s="125" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F20" s="117" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G20" s="126" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H20" s="125" t="s">
         <v>55</v>
       </c>
       <c r="I20" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J20" s="135" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="79" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B21" s="109">
         <v>9724817</v>
       </c>
       <c r="C21" s="109" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D21" s="121" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E21" s="122" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F21" s="111" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G21" s="123" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H21" s="122" t="s">
         <v>33</v>
       </c>
       <c r="I21" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J21" s="135"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="79" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B22" s="115">
         <v>2460800</v>
       </c>
       <c r="C22" s="115" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D22" s="124" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E22" s="125" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F22" s="117" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G22" s="118" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H22" s="117" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="I22" s="133" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="J22" s="135"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="79" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B23" s="109">
         <v>4608559</v>
       </c>
       <c r="C23" s="109" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D23" s="121" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E23" s="122" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F23" s="122" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G23" s="123" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="H23" s="122" t="s">
         <v>14</v>
       </c>
       <c r="I23" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J23" s="134"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="79" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B24" s="115">
         <v>4608411</v>
       </c>
       <c r="C24" s="115" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D24" s="124" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E24" s="125" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F24" s="117" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G24" s="126" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H24" s="125" t="s">
         <v>45</v>
       </c>
       <c r="I24" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J24" s="134"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="79" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B25" s="109">
         <v>9634180</v>
       </c>
       <c r="C25" s="109" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D25" s="110" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E25" s="111" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F25" s="111" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G25" s="119" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H25" s="111" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="I25" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J25" s="134"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="79" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B26" s="115">
         <v>4608780</v>
       </c>
       <c r="C26" s="115" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D26" s="116" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E26" s="117" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F26" s="117" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G26" s="118" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="H26" s="117" t="s">
         <v>41</v>
       </c>
       <c r="I26" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J26" s="134"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="79" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B27" s="109">
         <v>2475130</v>
       </c>
       <c r="C27" s="109" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D27" s="110" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E27" s="111" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F27" s="111" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G27" s="138" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H27" s="122" t="s">
         <v>88</v>
       </c>
       <c r="I27" s="133" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="J27" s="134"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="79" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B28" s="115">
         <v>2477135</v>
       </c>
       <c r="C28" s="115" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D28" s="116" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E28" s="117" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F28" s="117" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G28" s="137" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H28" s="125" t="s">
         <v>50</v>
       </c>
       <c r="I28" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J28" s="134"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="79" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B29" s="109">
         <v>4606246</v>
       </c>
       <c r="C29" s="109" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D29" s="110" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E29" s="122" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F29" s="111" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G29" s="138" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H29" s="122" t="s">
         <v>69</v>
       </c>
       <c r="I29" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J29" s="135"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="79" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B30" s="115">
         <v>4606308</v>
       </c>
       <c r="C30" s="115" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D30" s="116" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E30" s="125" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F30" s="117" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G30" s="137" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="H30" s="125" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="I30" s="133" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="J30" s="135"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="79" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B31" s="109">
         <v>9634222</v>
       </c>
       <c r="C31" s="109" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D31" s="110" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E31" s="122" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F31" s="111" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G31" s="138" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="H31" s="122" t="s">
         <v>35</v>
       </c>
       <c r="I31" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J31" s="135" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="79" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B32" s="115">
         <v>229316</v>
       </c>
       <c r="C32" s="115" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D32" s="115" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E32" s="81" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F32" s="81" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G32" s="140" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="H32" s="81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I32" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J32" s="135"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="79" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B33" s="109">
         <v>2493288</v>
       </c>
       <c r="C33" s="109" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D33" s="109" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E33" s="80" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F33" s="111" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G33" s="141" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H33" s="80" t="s">
         <v>30</v>
       </c>
       <c r="I33" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J33" s="135"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="79" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B34" s="115">
         <v>214272</v>
       </c>
       <c r="C34" s="115" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D34" s="115" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E34" s="81" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F34" s="117" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G34" s="140" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H34" s="81" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="I34" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J34" s="135"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="79" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B35" s="109">
         <v>4606694</v>
       </c>
       <c r="C35" s="109" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D35" s="110" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E35" s="80" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F35" s="80" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G35" s="141" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H35" s="80" t="s">
         <v>47</v>
       </c>
       <c r="I35" s="133" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="J35" s="135"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="79" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B36" s="115">
         <v>2430855</v>
       </c>
       <c r="C36" s="115" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D36" s="116" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="E36" s="81" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F36" s="81" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G36" s="83" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="H36" s="81" t="s">
         <v>21</v>
       </c>
       <c r="I36" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J36" s="135"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="79" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B37" s="109">
         <v>4604625</v>
       </c>
       <c r="C37" s="109" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D37" s="110" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="E37" s="80" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="F37" s="80" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G37" s="82" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="H37" s="80" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="I37" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J37" s="135"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="79" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B38" s="115">
         <v>4612098</v>
       </c>
       <c r="C38" s="115" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D38" s="116" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E38" s="117" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F38" s="81" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G38" s="83" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="H38" s="81" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I38" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J38" s="134"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="120" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B39" s="109">
         <v>4612126</v>
       </c>
       <c r="C39" s="109" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D39" s="110" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E39" s="117" t="s">
+        <v>170</v>
+      </c>
+      <c r="F39" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="F39" s="80" t="s">
-        <v>162</v>
-      </c>
       <c r="G39" s="82" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H39" s="80" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I39" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J39" s="134"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="79" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B40" s="115">
         <v>2550195</v>
       </c>
       <c r="C40" s="115" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D40" s="115" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E40" s="81" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F40" s="81" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G40" s="83" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H40" s="81" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="I40" s="133" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="J40" s="134"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="79" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B41" s="109">
         <v>4612243</v>
       </c>
       <c r="C41" s="109" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D41" s="110" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E41" s="111" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F41" s="80" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G41" s="82" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="H41" s="80" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I41" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J41" s="134"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="79" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B42" s="115">
         <v>4612389</v>
       </c>
       <c r="C42" s="115" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D42" s="116" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E42" s="111" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F42" s="81" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G42" s="83" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="H42" s="81" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="I42" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J42" s="134"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="79" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B43" s="109">
         <v>4612192</v>
       </c>
       <c r="C43" s="109" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D43" s="110" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E43" s="117" t="s">
+        <v>170</v>
+      </c>
+      <c r="F43" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="F43" s="80" t="s">
-        <v>162</v>
-      </c>
       <c r="G43" s="82" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H43" s="80" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I43" s="133" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="J43" s="134"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="79" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B44" s="115">
         <v>4612393</v>
       </c>
       <c r="C44" s="115" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D44" s="116" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E44" s="122" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F44" s="81" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G44" s="83" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H44" s="81" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="I44" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J44" s="134"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="79" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B45" s="109">
         <v>4612228</v>
       </c>
       <c r="C45" s="109" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D45" s="110" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E45" s="117" t="s">
+        <v>170</v>
+      </c>
+      <c r="F45" s="80" t="s">
         <v>166</v>
       </c>
-      <c r="F45" s="80" t="s">
-        <v>162</v>
-      </c>
       <c r="G45" s="82" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="H45" s="80" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I45" s="133" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="J45" s="134"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="79" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B46" s="115">
         <v>4612247</v>
       </c>
       <c r="C46" s="115" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D46" s="116" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E46" s="122" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F46" s="81" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G46" s="83" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H46" s="81" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="I46" s="133" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="J46" s="134"/>
     </row>
@@ -36787,8 +36843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5301D2C-3B8C-401D-A3DC-45DAB443D846}">
   <dimension ref="A1:AI98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R44" sqref="R44"/>
+    <sheetView showGridLines="0" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M82" sqref="M82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
@@ -36797,7 +36853,7 @@
     <col min="3" max="3" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.85546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" style="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" style="5" customWidth="1"/>
     <col min="8" max="9" width="10.5703125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" style="5" bestFit="1" customWidth="1"/>
@@ -36815,25 +36871,25 @@
     <row r="1" spans="2:35" ht="14.45"/>
     <row r="2" spans="2:35" ht="14.85" customHeight="1">
       <c r="B2" s="151" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C2" s="152"/>
       <c r="D2" s="152"/>
       <c r="E2" s="152"/>
       <c r="G2" s="147" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="H2" s="147"/>
       <c r="I2" s="147"/>
       <c r="J2" s="147"/>
       <c r="L2" s="148" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="M2" s="149"/>
       <c r="N2" s="149"/>
       <c r="O2" s="150"/>
       <c r="Q2" s="148" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="R2" s="149"/>
       <c r="S2" s="149"/>
@@ -36841,52 +36897,52 @@
     </row>
     <row r="3" spans="2:35" ht="14.45">
       <c r="B3" s="130" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C3" s="130" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D3" s="130" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="E3" s="130" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="G3" s="102" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H3" s="102" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="I3" s="102" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="J3" s="84" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="L3" s="102" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="M3" s="102" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="N3" s="102" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="O3" s="84" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="Q3" s="102" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="R3" s="102" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="S3" s="102" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="T3" s="84" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="2:35" ht="14.45">
@@ -37509,7 +37565,7 @@
         <v>18</v>
       </c>
       <c r="AI13" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="2:35" ht="14.45">
@@ -37708,7 +37764,7 @@
       </c>
       <c r="D17" s="84">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E17" s="84">
         <f>COUNTIFS(Equipe!F:F,"Novo",Equipe!D:D,"Técnico")*3</f>
@@ -37753,7 +37809,7 @@
       </c>
       <c r="S17" s="84">
         <f>COUNTIFS('Planejamento IED'!C:C,"&lt;"&amp;R17,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!H:H,'Embarques Vivenciais'!$Q$2,'Planejamento IED'!I:I,"Novo")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T17" s="84">
         <f>COUNTIFS(Equipe!F:F,"Novo",Equipe!D:D,"Técnico",Equipe!E:E,$Q$2)*3</f>
@@ -37770,7 +37826,7 @@
       </c>
       <c r="D18" s="84">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E18" s="84">
         <f>COUNTIFS(Equipe!F:F,"Novo",Equipe!D:D,"Técnico")*3</f>
@@ -37815,7 +37871,7 @@
       </c>
       <c r="S18" s="84">
         <f>COUNTIFS('Planejamento IED'!C:C,"&lt;"&amp;R18,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!H:H,'Embarques Vivenciais'!$Q$2,'Planejamento IED'!I:I,"Novo")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T18" s="84">
         <f>COUNTIFS(Equipe!F:F,"Novo",Equipe!D:D,"Técnico",Equipe!E:E,$Q$2)*3</f>
@@ -37832,7 +37888,7 @@
       </c>
       <c r="D19" s="84">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E19" s="84">
         <f>COUNTIFS(Equipe!F:F,"Novo",Equipe!D:D,"Técnico")*3</f>
@@ -37877,7 +37933,7 @@
       </c>
       <c r="S19" s="84">
         <f>COUNTIFS('Planejamento IED'!C:C,"&lt;"&amp;R19,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!H:H,'Embarques Vivenciais'!$Q$2,'Planejamento IED'!I:I,"Novo")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T19" s="84">
         <f>COUNTIFS(Equipe!F:F,"Novo",Equipe!D:D,"Técnico",Equipe!E:E,$Q$2)*3</f>
@@ -37894,7 +37950,7 @@
       </c>
       <c r="D20" s="84">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E20" s="84">
         <f>COUNTIFS(Equipe!F:F,"Novo",Equipe!D:D,"Técnico")*3</f>
@@ -37939,7 +37995,7 @@
       </c>
       <c r="S20" s="84">
         <f>COUNTIFS('Planejamento IED'!C:C,"&lt;"&amp;R20,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!H:H,'Embarques Vivenciais'!$Q$2,'Planejamento IED'!I:I,"Novo")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T20" s="84">
         <f>COUNTIFS(Equipe!F:F,"Novo",Equipe!D:D,"Técnico",Equipe!E:E,$Q$2)*3</f>
@@ -37956,7 +38012,7 @@
       </c>
       <c r="D21" s="84">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E21" s="84">
         <f>COUNTIFS(Equipe!F:F,"Novo",Equipe!D:D,"Técnico")*3</f>
@@ -38001,7 +38057,7 @@
       </c>
       <c r="S21" s="84">
         <f>COUNTIFS('Planejamento IED'!C:C,"&lt;"&amp;R21,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!H:H,'Embarques Vivenciais'!$Q$2,'Planejamento IED'!I:I,"Novo")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T21" s="84">
         <f>COUNTIFS(Equipe!F:F,"Novo",Equipe!D:D,"Técnico",Equipe!E:E,$Q$2)*3</f>
@@ -38018,7 +38074,7 @@
       </c>
       <c r="D22" s="84">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E22" s="84">
         <f>COUNTIFS(Equipe!F:F,"Novo",Equipe!D:D,"Técnico")*3</f>
@@ -38063,7 +38119,7 @@
       </c>
       <c r="S22" s="84">
         <f>COUNTIFS('Planejamento IED'!C:C,"&lt;"&amp;R22,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!H:H,'Embarques Vivenciais'!$Q$2,'Planejamento IED'!I:I,"Novo")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T22" s="84">
         <f>COUNTIFS(Equipe!F:F,"Novo",Equipe!D:D,"Técnico",Equipe!E:E,$Q$2)*3</f>
@@ -38080,7 +38136,7 @@
       </c>
       <c r="D23" s="84">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E23" s="84">
         <f>COUNTIFS(Equipe!F:F,"Novo",Equipe!D:D,"Técnico")*3</f>
@@ -38125,7 +38181,7 @@
       </c>
       <c r="S23" s="84">
         <f>COUNTIFS('Planejamento IED'!C:C,"&lt;"&amp;R23,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!H:H,'Embarques Vivenciais'!$Q$2,'Planejamento IED'!I:I,"Novo")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T23" s="84">
         <f>COUNTIFS(Equipe!F:F,"Novo",Equipe!D:D,"Técnico",Equipe!E:E,$Q$2)*3</f>
@@ -38142,7 +38198,7 @@
       </c>
       <c r="D24" s="84">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E24" s="84">
         <f>COUNTIFS(Equipe!F:F,"Novo",Equipe!D:D,"Técnico")*3</f>
@@ -38187,7 +38243,7 @@
       </c>
       <c r="S24" s="84">
         <f>COUNTIFS('Planejamento IED'!C:C,"&lt;"&amp;R24,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!H:H,'Embarques Vivenciais'!$Q$2,'Planejamento IED'!I:I,"Novo")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T24" s="84">
         <f>COUNTIFS(Equipe!F:F,"Novo",Equipe!D:D,"Técnico",Equipe!E:E,$Q$2)*3</f>
@@ -38204,7 +38260,7 @@
       </c>
       <c r="D25" s="84">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E25" s="84">
         <f>COUNTIFS(Equipe!F:F,"Novo",Equipe!D:D,"Técnico")*3</f>
@@ -38249,7 +38305,7 @@
       </c>
       <c r="S25" s="84">
         <f>COUNTIFS('Planejamento IED'!C:C,"&lt;"&amp;R25,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!H:H,'Embarques Vivenciais'!$Q$2,'Planejamento IED'!I:I,"Novo")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T25" s="84">
         <f>COUNTIFS(Equipe!F:F,"Novo",Equipe!D:D,"Técnico",Equipe!E:E,$Q$2)*3</f>
@@ -38266,7 +38322,7 @@
       </c>
       <c r="D26" s="84">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E26" s="84">
         <f>COUNTIFS(Equipe!F:F,"Novo",Equipe!D:D,"Técnico")*3</f>
@@ -38311,7 +38367,7 @@
       </c>
       <c r="S26" s="84">
         <f>COUNTIFS('Planejamento IED'!C:C,"&lt;"&amp;R26,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!H:H,'Embarques Vivenciais'!$Q$2,'Planejamento IED'!I:I,"Novo")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T26" s="84">
         <f>COUNTIFS(Equipe!F:F,"Novo",Equipe!D:D,"Técnico",Equipe!E:E,$Q$2)*3</f>
@@ -38328,7 +38384,7 @@
       </c>
       <c r="D27" s="84">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E27" s="84">
         <f>COUNTIFS(Equipe!F:F,"Novo",Equipe!D:D,"Técnico")*3</f>
@@ -38373,7 +38429,7 @@
       </c>
       <c r="S27" s="84">
         <f>COUNTIFS('Planejamento IED'!C:C,"&lt;"&amp;R27,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!H:H,'Embarques Vivenciais'!$Q$2,'Planejamento IED'!I:I,"Novo")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T27" s="84">
         <f>COUNTIFS(Equipe!F:F,"Novo",Equipe!D:D,"Técnico",Equipe!E:E,$Q$2)*3</f>
@@ -38390,7 +38446,7 @@
       </c>
       <c r="D28" s="84">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28" s="84">
         <f>COUNTIFS(Equipe!F:F,"Novo",Equipe!D:D,"Técnico")*3</f>
@@ -38435,7 +38491,7 @@
       </c>
       <c r="S28" s="84">
         <f>COUNTIFS('Planejamento IED'!C:C,"&lt;"&amp;R28,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!H:H,'Embarques Vivenciais'!$Q$2,'Planejamento IED'!I:I,"Novo")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T28" s="84">
         <f>COUNTIFS(Equipe!F:F,"Novo",Equipe!D:D,"Técnico",Equipe!E:E,$Q$2)*3</f>
@@ -38452,7 +38508,7 @@
       </c>
       <c r="D29" s="84">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E29" s="84">
         <f>COUNTIFS(Equipe!F:F,"Novo",Equipe!D:D,"Técnico")*3</f>
@@ -38497,7 +38553,7 @@
       </c>
       <c r="S29" s="84">
         <f>COUNTIFS('Planejamento IED'!C:C,"&lt;"&amp;R29,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!H:H,'Embarques Vivenciais'!$Q$2,'Planejamento IED'!I:I,"Novo")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T29" s="84">
         <f>COUNTIFS(Equipe!F:F,"Novo",Equipe!D:D,"Técnico",Equipe!E:E,$Q$2)*3</f>
@@ -38514,7 +38570,7 @@
       </c>
       <c r="D30" s="84">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E30" s="84">
         <f>COUNTIFS(Equipe!F:F,"Novo",Equipe!D:D,"Técnico")*3</f>
@@ -38559,7 +38615,7 @@
       </c>
       <c r="S30" s="84">
         <f>COUNTIFS('Planejamento IED'!C:C,"&lt;"&amp;R30,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!H:H,'Embarques Vivenciais'!$Q$2,'Planejamento IED'!I:I,"Novo")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T30" s="84">
         <f>COUNTIFS(Equipe!F:F,"Novo",Equipe!D:D,"Técnico",Equipe!E:E,$Q$2)*3</f>
@@ -38576,7 +38632,7 @@
       </c>
       <c r="D31" s="84">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E31" s="84">
         <f>COUNTIFS(Equipe!F:F,"Novo",Equipe!D:D,"Técnico")*3</f>
@@ -38621,7 +38677,7 @@
       </c>
       <c r="S31" s="84">
         <f>COUNTIFS('Planejamento IED'!C:C,"&lt;"&amp;R31,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!H:H,'Embarques Vivenciais'!$Q$2,'Planejamento IED'!I:I,"Novo")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T31" s="84">
         <f>COUNTIFS(Equipe!F:F,"Novo",Equipe!D:D,"Técnico",Equipe!E:E,$Q$2)*3</f>
@@ -38638,7 +38694,7 @@
       </c>
       <c r="D32" s="84">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E32" s="84">
         <f>COUNTIFS(Equipe!F:F,"Novo",Equipe!D:D,"Técnico")*3</f>
@@ -38683,7 +38739,7 @@
       </c>
       <c r="S32" s="84">
         <f>COUNTIFS('Planejamento IED'!C:C,"&lt;"&amp;R32,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!H:H,'Embarques Vivenciais'!$Q$2,'Planejamento IED'!I:I,"Novo")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T32" s="84">
         <f>COUNTIFS(Equipe!F:F,"Novo",Equipe!D:D,"Técnico",Equipe!E:E,$Q$2)*3</f>
@@ -38700,7 +38756,7 @@
       </c>
       <c r="D33" s="84">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E33" s="84">
         <f>COUNTIFS(Equipe!F:F,"Novo",Equipe!D:D,"Técnico")*3</f>
@@ -38745,7 +38801,7 @@
       </c>
       <c r="S33" s="84">
         <f>COUNTIFS('Planejamento IED'!C:C,"&lt;"&amp;R33,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!H:H,'Embarques Vivenciais'!$Q$2,'Planejamento IED'!I:I,"Novo")</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T33" s="84">
         <f>COUNTIFS(Equipe!F:F,"Novo",Equipe!D:D,"Técnico",Equipe!E:E,$Q$2)*3</f>
@@ -38754,55 +38810,55 @@
     </row>
     <row r="40" spans="2:20" ht="15" customHeight="1">
       <c r="O40" s="142" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="76" spans="1:20" ht="15" customHeight="1">
       <c r="A76" s="112" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B76" s="113" t="s">
         <v>1</v>
       </c>
       <c r="C76" s="113" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D76" s="113" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E76" s="114" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="F76" s="114" t="s">
         <v>0</v>
       </c>
       <c r="G76" s="114" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="H76" s="114" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="S76"/>
       <c r="T76"/>
     </row>
     <row r="77" spans="1:20" ht="15" customHeight="1">
       <c r="A77" s="79" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B77" s="115">
         <v>4612171</v>
       </c>
       <c r="C77" s="115" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D77" s="116" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E77" s="117" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F77" s="117" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="G77" s="117">
         <f ca="1">COUNTIFS('Planejamento IED'!A:A,'Embarques Vivenciais'!F77,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!D:D,"&lt;="&amp;TODAY())</f>
@@ -38817,22 +38873,22 @@
     </row>
     <row r="78" spans="1:20" ht="15" customHeight="1">
       <c r="A78" s="79" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B78" s="109">
         <v>4612050</v>
       </c>
       <c r="C78" s="109" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="D78" s="110" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E78" s="111" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F78" s="111" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G78" s="117">
         <f ca="1">COUNTIFS('Planejamento IED'!A:A,'Embarques Vivenciais'!F78,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!D:D,"&lt;="&amp;TODAY())</f>
@@ -38847,52 +38903,52 @@
     </row>
     <row r="79" spans="1:20" ht="15" customHeight="1">
       <c r="A79" s="79" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B79" s="115">
         <v>4612140</v>
       </c>
       <c r="C79" s="115" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D79" s="116" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E79" s="117" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F79" s="117" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="G79" s="117">
         <f ca="1">COUNTIFS('Planejamento IED'!A:A,'Embarques Vivenciais'!F79,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!D:D,"&lt;="&amp;TODAY())</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H79" s="117">
         <f ca="1">SUMIFS('Planejamento IED'!E:E,'Planejamento IED'!A:A,F79,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!D:D,"&lt;="&amp;TODAY())</f>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="S79"/>
       <c r="T79"/>
     </row>
     <row r="80" spans="1:20" ht="15" customHeight="1">
       <c r="A80" s="79" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B80" s="109">
         <v>4612243</v>
       </c>
       <c r="C80" s="109" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D80" s="110" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E80" s="111" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F80" s="111" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G80" s="117">
         <f ca="1">COUNTIFS('Planejamento IED'!A:A,'Embarques Vivenciais'!F80,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!D:D,"&lt;="&amp;TODAY())</f>
@@ -38907,22 +38963,22 @@
     </row>
     <row r="81" spans="1:20" ht="15" customHeight="1">
       <c r="A81" s="79" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B81" s="115">
         <v>4612389</v>
       </c>
       <c r="C81" s="115" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D81" s="116" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E81" s="117" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F81" s="117" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="G81" s="117">
         <f ca="1">COUNTIFS('Planejamento IED'!A:A,'Embarques Vivenciais'!F81,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!D:D,"&lt;="&amp;TODAY())</f>
@@ -38937,22 +38993,22 @@
     </row>
     <row r="82" spans="1:20" ht="15" customHeight="1">
       <c r="A82" s="120" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B82" s="109">
         <v>4612192</v>
       </c>
       <c r="C82" s="109" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D82" s="121" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E82" s="122" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F82" s="122" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G82" s="117">
         <f ca="1">COUNTIFS('Planejamento IED'!A:A,'Embarques Vivenciais'!F82,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!D:D,"&lt;="&amp;TODAY())</f>
@@ -38967,22 +39023,22 @@
     </row>
     <row r="83" spans="1:20" ht="15" customHeight="1">
       <c r="A83" s="120" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B83" s="115">
         <v>4612393</v>
       </c>
       <c r="C83" s="115" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D83" s="124" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E83" s="125" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F83" s="125" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G83" s="117">
         <f ca="1">COUNTIFS('Planejamento IED'!A:A,'Embarques Vivenciais'!F83,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!D:D,"&lt;="&amp;TODAY())</f>
@@ -38997,22 +39053,22 @@
     </row>
     <row r="84" spans="1:20" ht="15" customHeight="1">
       <c r="A84" s="79" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B84" s="109">
         <v>4612228</v>
       </c>
       <c r="C84" s="109" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D84" s="110" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E84" s="111" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F84" s="111" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G84" s="117">
         <f ca="1">COUNTIFS('Planejamento IED'!A:A,'Embarques Vivenciais'!F84,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!D:D,"&lt;="&amp;TODAY())</f>
@@ -39027,22 +39083,22 @@
     </row>
     <row r="85" spans="1:20" ht="15" customHeight="1">
       <c r="A85" s="120" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B85" s="115">
         <v>4612247</v>
       </c>
       <c r="C85" s="115" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D85" s="116" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E85" s="117" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F85" s="117" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G85" s="117">
         <f ca="1">COUNTIFS('Planejamento IED'!A:A,'Embarques Vivenciais'!F85,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!D:D,"&lt;="&amp;TODAY())</f>
@@ -39057,22 +39113,22 @@
     </row>
     <row r="86" spans="1:20" ht="15" customHeight="1">
       <c r="A86" s="120" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B86" s="115">
         <v>4612098</v>
       </c>
       <c r="C86" s="115" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D86" s="116" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E86" s="117" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F86" s="117" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G86" s="117">
         <f ca="1">COUNTIFS('Planejamento IED'!A:A,'Embarques Vivenciais'!F86,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!D:D,"&lt;="&amp;TODAY())</f>
@@ -39087,22 +39143,22 @@
     </row>
     <row r="87" spans="1:20" ht="15" customHeight="1">
       <c r="A87" s="120" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B87" s="109">
         <v>4612126</v>
       </c>
       <c r="C87" s="109" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D87" s="110" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E87" s="111" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="F87" s="122" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G87" s="117">
         <f ca="1">COUNTIFS('Planejamento IED'!A:A,'Embarques Vivenciais'!F87,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!D:D,"&lt;="&amp;TODAY())</f>
@@ -39117,19 +39173,19 @@
     </row>
     <row r="88" spans="1:20" ht="15" customHeight="1">
       <c r="A88" s="79" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B88" s="109">
         <v>9842940</v>
       </c>
       <c r="C88" s="109" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D88" s="121" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E88" s="122" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F88" s="122" t="s">
         <v>29</v>
@@ -39147,19 +39203,19 @@
     </row>
     <row r="89" spans="1:20" ht="15" customHeight="1">
       <c r="A89" s="79" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B89" s="109">
         <v>4608721</v>
       </c>
       <c r="C89" s="109" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D89" s="121" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E89" s="122" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F89" s="111" t="s">
         <v>28</v>
@@ -39177,19 +39233,19 @@
     </row>
     <row r="90" spans="1:20" ht="15" customHeight="1">
       <c r="A90" s="79" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B90" s="109">
         <v>4608685</v>
       </c>
       <c r="C90" s="109" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D90" s="121" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E90" s="122" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F90" s="122" t="s">
         <v>19</v>
@@ -39207,19 +39263,19 @@
     </row>
     <row r="91" spans="1:20" ht="15" customHeight="1">
       <c r="A91" s="79" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B91" s="115">
         <v>4608389</v>
       </c>
       <c r="C91" s="115" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D91" s="124" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E91" s="125" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F91" s="125" t="s">
         <v>43</v>
@@ -39237,19 +39293,19 @@
     </row>
     <row r="92" spans="1:20" ht="15" customHeight="1">
       <c r="A92" s="79" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B92" s="109">
         <v>4608544</v>
       </c>
       <c r="C92" s="109" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D92" s="110" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E92" s="111" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F92" s="111" t="s">
         <v>10</v>
@@ -39267,19 +39323,19 @@
     </row>
     <row r="93" spans="1:20" ht="15" customHeight="1">
       <c r="A93" s="79" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B93" s="115">
         <v>4608474</v>
       </c>
       <c r="C93" s="115" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D93" s="116" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E93" s="117" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F93" s="117" t="s">
         <v>26</v>
@@ -39297,19 +39353,19 @@
     </row>
     <row r="94" spans="1:20" ht="15" customHeight="1">
       <c r="A94" s="79" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B94" s="127">
         <v>4608684</v>
       </c>
       <c r="C94" s="115" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D94" s="116" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E94" s="125" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F94" s="125" t="s">
         <v>51</v>
@@ -39327,49 +39383,49 @@
     </row>
     <row r="95" spans="1:20" ht="15" customHeight="1">
       <c r="A95" s="79" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B95" s="109">
         <v>4608559</v>
       </c>
       <c r="C95" s="109" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D95" s="110" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E95" s="80" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F95" s="80" t="s">
         <v>14</v>
       </c>
       <c r="G95" s="117">
         <f ca="1">COUNTIFS('Planejamento IED'!A:A,'Embarques Vivenciais'!F95,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!D:D,"&lt;="&amp;TODAY())</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H95" s="117">
         <f ca="1">SUMIFS('Planejamento IED'!E:E,'Planejamento IED'!A:A,F95,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!D:D,"&lt;="&amp;TODAY())</f>
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="S95"/>
       <c r="T95"/>
     </row>
     <row r="96" spans="1:20" ht="15" customHeight="1">
       <c r="A96" s="79" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B96" s="115">
         <v>4608411</v>
       </c>
       <c r="C96" s="115" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D96" s="116" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E96" s="81" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F96" s="81" t="s">
         <v>45</v>
@@ -39387,19 +39443,19 @@
     </row>
     <row r="97" spans="1:20" ht="15" customHeight="1">
       <c r="A97" s="79" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B97" s="115">
         <v>4608780</v>
       </c>
       <c r="C97" s="115" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D97" s="116" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E97" s="81" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F97" s="81" t="s">
         <v>41</v>
@@ -39530,10 +39586,10 @@
   <sheetData>
     <row r="1" spans="1:239" ht="30" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -39541,31 +39597,31 @@
       <c r="F1" s="31"/>
       <c r="H1" s="2"/>
       <c r="I1" s="50" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:239" ht="30" customHeight="1">
       <c r="A2" s="32" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:239" ht="33" customHeight="1">
       <c r="A3" s="32" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B3" s="70" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C3" s="69">
         <f>Início_do_projeto+120</f>
         <v>46051</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="E3" s="156">
         <v>45931</v>
@@ -39575,10 +39631,10 @@
     </row>
     <row r="4" spans="1:239" ht="30" customHeight="1">
       <c r="A4" s="33" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C4" s="157" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="D4" s="158"/>
       <c r="E4" s="7">
@@ -39917,7 +39973,7 @@
     </row>
     <row r="5" spans="1:239" ht="15" customHeight="1">
       <c r="A5" s="33" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B5" s="49"/>
       <c r="C5" s="49"/>
@@ -40852,22 +40908,22 @@
     </row>
     <row r="6" spans="1:239" ht="30" customHeight="1" thickBot="1">
       <c r="A6" s="33" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
@@ -41800,7 +41856,7 @@
     </row>
     <row r="7" spans="1:239" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A7" s="32" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C7" s="35"/>
       <c r="E7"/>
@@ -41867,10 +41923,10 @@
     </row>
     <row r="8" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="33" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="16"/>
@@ -42115,10 +42171,10 @@
     </row>
     <row r="9" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="33" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="17">
@@ -42371,7 +42427,7 @@
     </row>
     <row r="10" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A10" s="33" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B10" s="45" t="s">
         <v>17</v>
@@ -42628,7 +42684,7 @@
     <row r="11" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A11" s="33"/>
       <c r="B11" s="45" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="17"/>
@@ -42877,7 +42933,7 @@
     <row r="12" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="32"/>
       <c r="B12" s="45" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="17">
@@ -43382,7 +43438,7 @@
     <row r="14" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A14" s="32"/>
       <c r="B14" s="45" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="17">
@@ -43883,10 +43939,10 @@
     </row>
     <row r="16" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="33" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="19"/>
@@ -44132,7 +44188,7 @@
     <row r="17" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="33"/>
       <c r="B17" s="46" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C17" s="41"/>
       <c r="D17" s="20">
@@ -44640,7 +44696,7 @@
     <row r="19" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A19" s="32"/>
       <c r="B19" s="46" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C19" s="41"/>
       <c r="D19" s="20">
@@ -45145,7 +45201,7 @@
     <row r="21" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="32"/>
       <c r="B21" s="46" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C21" s="41"/>
       <c r="D21" s="20">
@@ -45646,10 +45702,10 @@
     </row>
     <row r="23" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A23" s="32" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C23" s="42"/>
       <c r="D23" s="22"/>
@@ -45895,7 +45951,7 @@
     <row r="24" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A24" s="32"/>
       <c r="B24" s="47" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C24" s="43"/>
       <c r="D24" s="23">
@@ -46403,7 +46459,7 @@
     <row r="26" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A26" s="32"/>
       <c r="B26" s="47" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C26" s="43"/>
       <c r="D26" s="23">
@@ -46908,7 +46964,7 @@
     <row r="28" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A28" s="32"/>
       <c r="B28" s="47" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C28" s="43"/>
       <c r="D28" s="23">
@@ -47409,7 +47465,7 @@
     </row>
     <row r="30" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A30" s="32" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B30" s="48"/>
       <c r="C30" s="44"/>
@@ -47655,10 +47711,10 @@
     </row>
     <row r="31" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A31" s="33" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="26"/>

--- a/Planejamento Geral.xlsx
+++ b/Planejamento Geral.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29227"/>
   <workbookPr filterPrivacy="1" updateLinks="always" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="2727" documentId="13_ncr:1_{8CB3FCBC-DACE-4BCA-A656-CE7D6185D885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{40070FD9-B80F-4EB3-A927-79C0FB8C0B9F}"/>
+  <xr:revisionPtr revIDLastSave="2855" documentId="13_ncr:1_{8CB3FCBC-DACE-4BCA-A656-CE7D6185D885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{91AC131F-449F-4782-9891-3A0BA7BF3008}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" tabRatio="363" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Embarques Vivenciais'!$A$76:$H$97</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Equipe!$A$1:$I$46</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Planejamento IED'!$A$1:$E$1031</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Planejamento IED'!$A$1:$E$1030</definedName>
     <definedName name="Hoje" localSheetId="3">TODAY()</definedName>
     <definedName name="Hoje" localSheetId="0">TODAY()</definedName>
     <definedName name="Início_da_tarefa" localSheetId="3">'3 Pessoas'!$E1</definedName>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1145" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1163" uniqueCount="325">
   <si>
     <t>Nome</t>
   </si>
@@ -514,10 +514,22 @@
     <t xml:space="preserve">Treinamento ModBus RTU EAD - manhãs </t>
   </si>
   <si>
-    <t>Folga projetada após embarque na P-75</t>
+    <t>Folga de embarque</t>
   </si>
   <si>
-    <t>Folga MB alinhada com supervisor</t>
+    <t>Folga de MB</t>
+  </si>
+  <si>
+    <t>Treinamento "SELEÇÃO E ESPECIFICAÇÃO DE MATERIAIS - INSTRUMENTAÇÃO" EAD - Manhãs</t>
+  </si>
+  <si>
+    <t>Treinamento "Tubing para Instrumentação" EAD - Manhãs</t>
+  </si>
+  <si>
+    <t>Apresentação Compressores de Anel Liquido - TGRU</t>
+  </si>
+  <si>
+    <t>Automação Pneumática - Fundamentos</t>
   </si>
   <si>
     <t>Disciplina</t>
@@ -9268,8 +9280,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6AB63F5-01C4-4ED8-B3C5-D3AEB2DB48F3}" name="Tabela1" displayName="Tabela1" ref="A1:I1031" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57" dataCellStyle="Nome">
-  <autoFilter ref="A1:I1031" xr:uid="{D6AB63F5-01C4-4ED8-B3C5-D3AEB2DB48F3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6AB63F5-01C4-4ED8-B3C5-D3AEB2DB48F3}" name="Tabela1" displayName="Tabela1" ref="A1:I1030" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57" dataCellStyle="Nome">
+  <autoFilter ref="A1:I1030" xr:uid="{D6AB63F5-01C4-4ED8-B3C5-D3AEB2DB48F3}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{C8A8658B-B54C-47E5-A350-3E4123B94A55}" name="Nome" dataDxfId="56" dataCellStyle="Nome"/>
     <tableColumn id="2" xr3:uid="{41F4E0E6-9B25-4120-B6CD-9E09A0162769}" name="Matrícula" dataDxfId="55" dataCellStyle="Nome">
@@ -9559,11 +9571,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L1031"/>
+  <dimension ref="A1:L1030"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G197" sqref="G197"/>
+      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G202" sqref="G202"/>
       <selection activeCell="A193" sqref="A193"/>
     </sheetView>
   </sheetViews>
@@ -15259,10 +15271,10 @@
       </c>
       <c r="D174" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C174+E174-1,"")</f>
-        <v>45926</v>
+        <v>45925</v>
       </c>
       <c r="E174" s="85">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F174" s="85" t="s">
         <v>16</v>
@@ -15868,7 +15880,7 @@
         <v>Experiente</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="15">
+    <row r="193" spans="1:9" ht="15" thickBot="1">
       <c r="A193" s="85" t="s">
         <v>115</v>
       </c>
@@ -15877,11 +15889,11 @@
         <v>4612171</v>
       </c>
       <c r="C193" s="89">
-        <v>45936</v>
+        <v>45938</v>
       </c>
       <c r="D193" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C193+E193-1,"")</f>
-        <v>45938</v>
+        <v>45940</v>
       </c>
       <c r="E193" s="85">
         <v>3</v>
@@ -15901,7 +15913,7 @@
         <v>Novo</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="15">
+    <row r="194" spans="1:9" ht="15" thickBot="1">
       <c r="A194" s="85" t="s">
         <v>115</v>
       </c>
@@ -15910,14 +15922,14 @@
         <v>4612171</v>
       </c>
       <c r="C194" s="89">
-        <v>45943</v>
+        <v>42290</v>
       </c>
       <c r="D194" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C194+E194-1,"")</f>
-        <v>45943</v>
+        <v>42291</v>
       </c>
       <c r="E194" s="85">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F194" s="85" t="s">
         <v>17</v>
@@ -15934,7 +15946,7 @@
         <v>Novo</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="15">
+    <row r="195" spans="1:9" ht="15" thickBot="1">
       <c r="A195" s="85" t="s">
         <v>115</v>
       </c>
@@ -15943,14 +15955,14 @@
         <v>4612171</v>
       </c>
       <c r="C195" s="89">
-        <v>45944</v>
+        <v>45931</v>
       </c>
       <c r="D195" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C195+E195-1,"")</f>
-        <v>45945</v>
+        <v>45933</v>
       </c>
       <c r="E195" s="85">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F195" s="85" t="s">
         <v>17</v>
@@ -15967,28 +15979,29 @@
         <v>Novo</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="15">
+    <row r="196" spans="1:9" ht="29.45" thickBot="1">
       <c r="A196" s="85" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B196" s="104">
         <f>_xlfn.XLOOKUP(A196,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>4612171</v>
+        <v>4612243</v>
       </c>
       <c r="C196" s="89">
-        <v>45950</v>
+        <v>45943</v>
       </c>
       <c r="D196" s="105">
-        <v>45951</v>
+        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C196+E196-1,"")</f>
+        <v>45947</v>
       </c>
       <c r="E196" s="85">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F196" s="85" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G196" s="97" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H196" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
@@ -15999,142 +16012,201 @@
         <v>Novo</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="15" thickBot="1">
-      <c r="A197" s="85"/>
+    <row r="197" spans="1:9" ht="29.45" thickBot="1">
+      <c r="A197" s="85" t="s">
+        <v>117</v>
+      </c>
       <c r="B197" s="104">
         <f>_xlfn.XLOOKUP(A197,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
-      </c>
-      <c r="C197" s="89"/>
-      <c r="D197" s="105" t="str">
+        <v>4612243</v>
+      </c>
+      <c r="C197" s="89">
+        <v>45950</v>
+      </c>
+      <c r="D197" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C197+E197-1,"")</f>
-        <v/>
-      </c>
-      <c r="E197" s="85"/>
-      <c r="F197" s="85"/>
-      <c r="G197" s="97"/>
+        <v>45952</v>
+      </c>
+      <c r="E197" s="85">
+        <v>3</v>
+      </c>
+      <c r="F197" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G197" s="97" t="s">
+        <v>156</v>
+      </c>
       <c r="H197" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>ERRO</v>
-      </c>
-      <c r="I197" s="39" t="e">
-        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" ht="15" thickBot="1">
-      <c r="A198" s="85"/>
+        <v>P80</v>
+      </c>
+      <c r="I197" s="39" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
+        <v>Novo</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" ht="29.45" thickBot="1">
+      <c r="A198" s="85" t="s">
+        <v>117</v>
+      </c>
       <c r="B198" s="104">
         <f>_xlfn.XLOOKUP(A198,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
-      </c>
-      <c r="C198" s="89"/>
-      <c r="D198" s="105" t="str">
+        <v>4612243</v>
+      </c>
+      <c r="C198" s="89">
+        <v>45929</v>
+      </c>
+      <c r="D198" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C198+E198-1,"")</f>
-        <v/>
-      </c>
-      <c r="E198" s="85"/>
-      <c r="F198" s="85"/>
-      <c r="G198" s="97"/>
+        <v>45929</v>
+      </c>
+      <c r="E198" s="85">
+        <v>1</v>
+      </c>
+      <c r="F198" s="85" t="s">
+        <v>13</v>
+      </c>
+      <c r="G198" s="97" t="s">
+        <v>157</v>
+      </c>
       <c r="H198" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>ERRO</v>
-      </c>
-      <c r="I198" s="39" t="e">
-        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>#N/A</v>
+        <v>P80</v>
+      </c>
+      <c r="I198" s="39" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
+        <v>Novo</v>
       </c>
     </row>
     <row r="199" spans="1:9" ht="15" thickBot="1">
-      <c r="A199" s="85"/>
+      <c r="A199" s="85" t="s">
+        <v>33</v>
+      </c>
       <c r="B199" s="104">
         <f>_xlfn.XLOOKUP(A199,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
-      </c>
-      <c r="C199" s="89"/>
-      <c r="D199" s="105" t="str">
-        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C199+E199-1,"")</f>
-        <v/>
-      </c>
-      <c r="E199" s="85"/>
-      <c r="F199" s="85"/>
-      <c r="G199" s="97"/>
+        <v>9724817</v>
+      </c>
+      <c r="C199" s="89">
+        <v>45909</v>
+      </c>
+      <c r="D199" s="105">
+        <v>45912</v>
+      </c>
+      <c r="E199" s="85">
+        <v>4</v>
+      </c>
+      <c r="F199" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G199" s="97" t="s">
+        <v>85</v>
+      </c>
       <c r="H199" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>ERRO</v>
-      </c>
-      <c r="I199" s="39" t="e">
-        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>#N/A</v>
+        <v>P82</v>
+      </c>
+      <c r="I199" s="39" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
+        <v>Experiente</v>
       </c>
     </row>
     <row r="200" spans="1:9" ht="15" thickBot="1">
-      <c r="A200" s="85"/>
-      <c r="B200" s="104">
+      <c r="A200" s="94" t="s">
+        <v>23</v>
+      </c>
+      <c r="B200" s="129">
         <f>_xlfn.XLOOKUP(A200,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
-      </c>
-      <c r="C200" s="89"/>
-      <c r="D200" s="105" t="str">
+        <v>1386344</v>
+      </c>
+      <c r="C200" s="95">
+        <v>45936</v>
+      </c>
+      <c r="D200" s="128">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C200+E200-1,"")</f>
-        <v/>
-      </c>
-      <c r="E200" s="85"/>
-      <c r="F200" s="85"/>
-      <c r="G200" s="97"/>
-      <c r="H200" s="39" t="str">
-        <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>ERRO</v>
-      </c>
-      <c r="I200" s="39" t="e">
-        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>#N/A</v>
+        <v>45936</v>
+      </c>
+      <c r="E200" s="94">
+        <v>1</v>
+      </c>
+      <c r="F200" s="94" t="s">
+        <v>17</v>
+      </c>
+      <c r="G200" s="97" t="s">
+        <v>85</v>
+      </c>
+      <c r="H200" s="144" t="str">
+        <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
+        <v>P82</v>
+      </c>
+      <c r="I200" s="144" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
+        <v>Experiente</v>
       </c>
     </row>
     <row r="201" spans="1:9" ht="15" thickBot="1">
-      <c r="A201" s="85"/>
+      <c r="A201" s="85" t="s">
+        <v>115</v>
+      </c>
       <c r="B201" s="104">
         <f>_xlfn.XLOOKUP(A201,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
-      </c>
-      <c r="C201" s="89"/>
-      <c r="D201" s="105" t="str">
+        <v>4612171</v>
+      </c>
+      <c r="C201" s="89">
+        <v>42292</v>
+      </c>
+      <c r="D201" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C201+E201-1,"")</f>
-        <v/>
-      </c>
-      <c r="E201" s="85"/>
-      <c r="F201" s="85"/>
-      <c r="G201" s="97"/>
+        <v>42294</v>
+      </c>
+      <c r="E201" s="85">
+        <v>3</v>
+      </c>
+      <c r="F201" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G201" s="97" t="s">
+        <v>154</v>
+      </c>
       <c r="H201" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>ERRO</v>
-      </c>
-      <c r="I201" s="39" t="e">
-        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9" ht="15" thickBot="1">
-      <c r="A202" s="85"/>
+        <v>P80</v>
+      </c>
+      <c r="I201" s="39" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
+        <v>Novo</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" ht="15">
+      <c r="A202" s="85" t="s">
+        <v>51</v>
+      </c>
       <c r="B202" s="104">
         <f>_xlfn.XLOOKUP(A202,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
-      </c>
-      <c r="C202" s="89"/>
-      <c r="D202" s="105" t="str">
+        <v>4608684</v>
+      </c>
+      <c r="C202" s="89">
+        <v>45908</v>
+      </c>
+      <c r="D202" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C202+E202-1,"")</f>
-        <v/>
-      </c>
-      <c r="E202" s="85"/>
-      <c r="F202" s="85"/>
-      <c r="G202" s="97"/>
+        <v>45912</v>
+      </c>
+      <c r="E202" s="85">
+        <v>5</v>
+      </c>
+      <c r="F202" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G202" s="97" t="s">
+        <v>158</v>
+      </c>
       <c r="H202" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>ERRO</v>
-      </c>
-      <c r="I202" s="39" t="e">
-        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>#N/A</v>
+        <v>P82</v>
+      </c>
+      <c r="I202" s="39" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
+        <v>Novo</v>
       </c>
     </row>
     <row r="203" spans="1:9" ht="15" thickBot="1">
@@ -18299,7 +18371,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="297" spans="1:9" ht="15" thickBot="1">
+    <row r="297" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A297" s="85"/>
       <c r="B297" s="104">
         <f>_xlfn.XLOOKUP(A297,Equipe!H:H,Equipe!B:B,"",0)</f>
@@ -35089,7 +35161,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1027" spans="1:9" ht="30" customHeight="1" thickBot="1">
+    <row r="1027" spans="1:9" ht="1.35" customHeight="1" thickBot="1">
       <c r="A1027" s="85"/>
       <c r="B1027" s="104">
         <f>_xlfn.XLOOKUP(A1027,Equipe!H:H,Equipe!B:B,"",0)</f>
@@ -35112,7 +35184,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1028" spans="1:9" ht="1.35" customHeight="1" thickBot="1">
+    <row r="1028" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A1028" s="85"/>
       <c r="B1028" s="104">
         <f>_xlfn.XLOOKUP(A1028,Equipe!H:H,Equipe!B:B,"",0)</f>
@@ -35136,19 +35208,18 @@
       </c>
     </row>
     <row r="1029" spans="1:9" ht="30" customHeight="1" thickBot="1">
-      <c r="A1029" s="85"/>
-      <c r="B1029" s="104">
-        <f>_xlfn.XLOOKUP(A1029,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
-      </c>
-      <c r="C1029" s="89"/>
-      <c r="D1029" s="105" t="str">
+      <c r="A1029" s="88"/>
+      <c r="B1029" s="88">
+        <v>4608</v>
+      </c>
+      <c r="C1029" s="90"/>
+      <c r="D1029" s="107" t="str">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C1029+E1029-1,"")</f>
         <v/>
       </c>
-      <c r="E1029" s="85"/>
-      <c r="F1029" s="85"/>
-      <c r="G1029" s="97"/>
+      <c r="E1029" s="88"/>
+      <c r="F1029" s="88"/>
+      <c r="G1029" s="100"/>
       <c r="H1029" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
         <v>ERRO</v>
@@ -35158,38 +35229,16 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1030" spans="1:9" ht="30" customHeight="1" thickBot="1">
+    <row r="1030" spans="1:9" ht="30" customHeight="1">
       <c r="A1030" s="88"/>
-      <c r="B1030" s="88">
-        <v>4608</v>
-      </c>
+      <c r="B1030" s="88"/>
       <c r="C1030" s="90"/>
-      <c r="D1030" s="107" t="str">
-        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C1030+E1030-1,"")</f>
-        <v/>
-      </c>
+      <c r="D1030" s="107"/>
       <c r="E1030" s="88"/>
       <c r="F1030" s="88"/>
       <c r="G1030" s="100"/>
-      <c r="H1030" s="39" t="str">
-        <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>ERRO</v>
-      </c>
-      <c r="I1030" s="39" t="e">
-        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1031" spans="1:9" ht="30" customHeight="1">
-      <c r="A1031" s="88"/>
-      <c r="B1031" s="88"/>
-      <c r="C1031" s="90"/>
-      <c r="D1031" s="107"/>
-      <c r="E1031" s="88"/>
-      <c r="F1031" s="88"/>
-      <c r="G1031" s="100"/>
-      <c r="H1031" s="143"/>
-      <c r="I1031" s="143"/>
+      <c r="H1030" s="143"/>
+      <c r="I1030" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -35222,10 +35271,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1030:F1130" xr:uid="{FE92769D-A30C-45A3-B10C-426BB3355AD8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1029:F1129" xr:uid="{FE92769D-A30C-45A3-B10C-426BB3355AD8}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1029" xr:uid="{156E15E9-23E7-431B-9B12-A26E3B0A7469}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1028" xr:uid="{156E15E9-23E7-431B-9B12-A26E3B0A7469}">
       <formula1>$K$2:$K$11</formula1>
     </dataValidation>
   </dataValidations>
@@ -35237,7 +35286,7 @@
     <firstFooter>&amp;L_x000D_&amp;1#&amp;"Trebuchet MS"&amp;9&amp;K008542 INTERNA</firstFooter>
   </headerFooter>
   <ignoredErrors>
-    <ignoredError sqref="D91 B91" calculatedColumn="1"/>
+    <ignoredError sqref="D91 B91 D199" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -35249,7 +35298,7 @@
           <x14:formula1>
             <xm:f>Equipe!$H$2:$H$131</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A1029</xm:sqref>
+          <xm:sqref>A2:A1028</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -35263,7 +35312,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="H39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
@@ -35282,1397 +35331,1397 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="112" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B1" s="113" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="113" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D1" s="113" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E1" s="114" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F1" s="114" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="114" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H1" s="114" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="131" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="J1" s="132" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="79" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B2" s="115">
         <v>4612171</v>
       </c>
       <c r="C2" s="115" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D2" s="116" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E2" s="117" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F2" s="117" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G2" s="118" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="H2" s="117" t="s">
         <v>115</v>
       </c>
       <c r="I2" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J2" s="134"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="79" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B3" s="109">
         <v>4612050</v>
       </c>
       <c r="C3" s="109" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D3" s="110" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E3" s="117" t="s">
+        <v>174</v>
+      </c>
+      <c r="F3" s="111" t="s">
         <v>170</v>
       </c>
-      <c r="F3" s="111" t="s">
-        <v>166</v>
-      </c>
       <c r="G3" s="119" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H3" s="111" t="s">
         <v>109</v>
       </c>
       <c r="I3" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J3" s="134"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="79" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B4" s="115">
         <v>4612140</v>
       </c>
       <c r="C4" s="115" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D4" s="116" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E4" s="122" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F4" s="117" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G4" s="118" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H4" s="117" t="s">
         <v>107</v>
       </c>
       <c r="I4" s="133" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="J4" s="134"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="79" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B5" s="109">
         <v>9842940</v>
       </c>
       <c r="C5" s="109" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D5" s="110" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E5" s="111" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F5" s="111" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G5" s="119" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H5" s="111" t="s">
         <v>29</v>
       </c>
       <c r="I5" s="133" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="J5" s="135"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="79" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B6" s="115">
         <v>9886449</v>
       </c>
       <c r="C6" s="115" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="D6" s="116" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E6" s="117" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F6" s="117" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G6" s="136" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="H6" s="117" t="s">
         <v>53</v>
       </c>
       <c r="I6" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J6" s="135" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="120" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B7" s="109">
         <v>4608721</v>
       </c>
       <c r="C7" s="109" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D7" s="121" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E7" s="122" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F7" s="122" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G7" s="123" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H7" s="122" t="s">
         <v>28</v>
       </c>
       <c r="I7" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J7" s="135"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="120" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B8" s="115">
         <v>1385894</v>
       </c>
       <c r="C8" s="115" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D8" s="124" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E8" s="125" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F8" s="125" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G8" s="137" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="H8" s="125" t="s">
         <v>31</v>
       </c>
       <c r="I8" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J8" s="135" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="120" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B9" s="109">
         <v>4608685</v>
       </c>
       <c r="C9" s="109" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D9" s="121" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E9" s="122" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F9" s="122" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G9" s="138" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="H9" s="122" t="s">
         <v>19</v>
       </c>
       <c r="I9" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J9" s="135"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="120" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B10" s="115">
         <v>9762281</v>
       </c>
       <c r="C10" s="115" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D10" s="124" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E10" s="125" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F10" s="125" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G10" s="137" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="H10" s="125" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="I10" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J10" s="135" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="120" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B11" s="109">
         <v>9683150</v>
       </c>
       <c r="C11" s="109" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D11" s="121" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E11" s="122" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F11" s="122" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G11" s="138" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="H11" s="122" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="I11" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J11" s="135" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="79" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B12" s="115">
         <v>2440812</v>
       </c>
       <c r="C12" s="115" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D12" s="116" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E12" s="117" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F12" s="117" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G12" s="136" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="H12" s="117" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="I12" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J12" s="135"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="120" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B13" s="109">
         <v>1381625</v>
       </c>
       <c r="C13" s="109" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D13" s="110" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E13" s="111" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F13" s="111" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G13" s="139" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="H13" s="111" t="s">
         <v>37</v>
       </c>
       <c r="I13" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J13" s="135"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="79" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B14" s="115">
         <v>4608389</v>
       </c>
       <c r="C14" s="115" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D14" s="116" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E14" s="117" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F14" s="117" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G14" s="136" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="H14" s="117" t="s">
         <v>43</v>
       </c>
       <c r="I14" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J14" s="135"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="120" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B15" s="109">
         <v>4608544</v>
       </c>
       <c r="C15" s="109" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D15" s="110" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E15" s="111" t="s">
+        <v>174</v>
+      </c>
+      <c r="F15" s="111" t="s">
         <v>170</v>
       </c>
-      <c r="F15" s="111" t="s">
-        <v>166</v>
-      </c>
       <c r="G15" s="139" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="H15" s="111" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J15" s="135"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="120" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B16" s="115">
         <v>4608474</v>
       </c>
       <c r="C16" s="115" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D16" s="116" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E16" s="117" t="s">
+        <v>174</v>
+      </c>
+      <c r="F16" s="125" t="s">
         <v>170</v>
       </c>
-      <c r="F16" s="125" t="s">
-        <v>166</v>
-      </c>
       <c r="G16" s="126" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="H16" s="125" t="s">
         <v>26</v>
       </c>
       <c r="I16" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J16" s="135"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="79" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B17" s="109">
         <v>1386344</v>
       </c>
       <c r="C17" s="109" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D17" s="121" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E17" s="122" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F17" s="122" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G17" s="123" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="H17" s="122" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="I17" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J17" s="135" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="79" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B18" s="115">
         <v>4608684</v>
       </c>
       <c r="C18" s="115" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D18" s="124" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E18" s="125" t="s">
+        <v>174</v>
+      </c>
+      <c r="F18" s="125" t="s">
         <v>170</v>
       </c>
-      <c r="F18" s="125" t="s">
-        <v>166</v>
-      </c>
       <c r="G18" s="126" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="H18" s="117" t="s">
         <v>51</v>
       </c>
       <c r="I18" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J18" s="135"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="79" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B19" s="109">
         <v>9612082</v>
       </c>
       <c r="C19" s="109" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D19" s="121" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E19" s="122" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F19" s="111" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G19" s="123" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="H19" s="122" t="s">
         <v>57</v>
       </c>
       <c r="I19" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J19" s="135"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="79" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B20" s="115">
         <v>9618720</v>
       </c>
       <c r="C20" s="115" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D20" s="124" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E20" s="125" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F20" s="117" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G20" s="126" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="H20" s="125" t="s">
         <v>55</v>
       </c>
       <c r="I20" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J20" s="135" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="79" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B21" s="109">
         <v>9724817</v>
       </c>
       <c r="C21" s="109" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D21" s="121" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E21" s="122" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F21" s="111" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G21" s="123" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H21" s="122" t="s">
         <v>33</v>
       </c>
       <c r="I21" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J21" s="135"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="79" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B22" s="115">
         <v>2460800</v>
       </c>
       <c r="C22" s="115" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D22" s="124" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E22" s="125" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F22" s="117" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G22" s="118" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="H22" s="117" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="I22" s="133" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="J22" s="135"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="79" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B23" s="109">
         <v>4608559</v>
       </c>
       <c r="C23" s="109" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D23" s="121" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E23" s="122" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F23" s="122" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G23" s="123" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H23" s="122" t="s">
         <v>14</v>
       </c>
       <c r="I23" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J23" s="134"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="79" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B24" s="115">
         <v>4608411</v>
       </c>
       <c r="C24" s="115" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D24" s="124" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E24" s="125" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F24" s="117" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G24" s="126" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="H24" s="125" t="s">
         <v>45</v>
       </c>
       <c r="I24" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J24" s="134"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="79" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B25" s="109">
         <v>9634180</v>
       </c>
       <c r="C25" s="109" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D25" s="110" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E25" s="111" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F25" s="111" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G25" s="119" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="H25" s="111" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="I25" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J25" s="134"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="79" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B26" s="115">
         <v>4608780</v>
       </c>
       <c r="C26" s="115" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D26" s="116" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E26" s="117" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F26" s="117" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G26" s="118" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="H26" s="117" t="s">
         <v>41</v>
       </c>
       <c r="I26" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J26" s="134"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="79" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B27" s="109">
         <v>2475130</v>
       </c>
       <c r="C27" s="109" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D27" s="110" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E27" s="111" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F27" s="111" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G27" s="138" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H27" s="122" t="s">
         <v>88</v>
       </c>
       <c r="I27" s="133" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="J27" s="134"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="79" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B28" s="115">
         <v>2477135</v>
       </c>
       <c r="C28" s="115" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D28" s="116" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E28" s="117" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F28" s="117" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G28" s="137" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H28" s="125" t="s">
         <v>50</v>
       </c>
       <c r="I28" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J28" s="134"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="79" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B29" s="109">
         <v>4606246</v>
       </c>
       <c r="C29" s="109" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D29" s="110" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E29" s="122" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F29" s="111" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G29" s="138" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="H29" s="122" t="s">
         <v>69</v>
       </c>
       <c r="I29" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J29" s="135"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="79" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B30" s="115">
         <v>4606308</v>
       </c>
       <c r="C30" s="115" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D30" s="116" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E30" s="125" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F30" s="117" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G30" s="137" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H30" s="125" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="I30" s="133" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="J30" s="135"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="79" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B31" s="109">
         <v>9634222</v>
       </c>
       <c r="C31" s="109" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D31" s="110" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E31" s="122" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F31" s="111" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G31" s="138" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="H31" s="122" t="s">
         <v>35</v>
       </c>
       <c r="I31" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J31" s="135" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="79" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B32" s="115">
         <v>229316</v>
       </c>
       <c r="C32" s="115" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D32" s="115" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E32" s="81" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F32" s="81" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G32" s="140" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="H32" s="81" t="s">
         <v>121</v>
       </c>
       <c r="I32" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J32" s="135"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="79" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B33" s="109">
         <v>2493288</v>
       </c>
       <c r="C33" s="109" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D33" s="109" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E33" s="80" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F33" s="111" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G33" s="141" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="H33" s="80" t="s">
         <v>30</v>
       </c>
       <c r="I33" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J33" s="135"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="79" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B34" s="115">
         <v>214272</v>
       </c>
       <c r="C34" s="115" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D34" s="115" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E34" s="81" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F34" s="117" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G34" s="140" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H34" s="81" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="I34" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J34" s="135"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="79" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B35" s="109">
         <v>4606694</v>
       </c>
       <c r="C35" s="109" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D35" s="110" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E35" s="80" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F35" s="80" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G35" s="141" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H35" s="80" t="s">
         <v>47</v>
       </c>
       <c r="I35" s="133" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="J35" s="135"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="79" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B36" s="115">
         <v>2430855</v>
       </c>
       <c r="C36" s="115" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D36" s="116" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="E36" s="81" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F36" s="81" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G36" s="83" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="H36" s="81" t="s">
         <v>21</v>
       </c>
       <c r="I36" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J36" s="135"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="79" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B37" s="109">
         <v>4604625</v>
       </c>
       <c r="C37" s="109" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D37" s="110" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="E37" s="80" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="F37" s="80" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G37" s="82" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="H37" s="80" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="I37" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J37" s="135"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="79" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B38" s="115">
         <v>4612098</v>
       </c>
       <c r="C38" s="115" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D38" s="116" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E38" s="117" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F38" s="81" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G38" s="83" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="H38" s="81" t="s">
         <v>103</v>
       </c>
       <c r="I38" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J38" s="134"/>
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="120" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B39" s="109">
         <v>4612126</v>
       </c>
       <c r="C39" s="109" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D39" s="110" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E39" s="117" t="s">
+        <v>174</v>
+      </c>
+      <c r="F39" s="80" t="s">
         <v>170</v>
       </c>
-      <c r="F39" s="80" t="s">
-        <v>166</v>
-      </c>
       <c r="G39" s="82" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="H39" s="80" t="s">
         <v>127</v>
       </c>
       <c r="I39" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J39" s="134"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="79" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B40" s="115">
         <v>2550195</v>
       </c>
       <c r="C40" s="115" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D40" s="115" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E40" s="81" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F40" s="81" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="G40" s="83" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="H40" s="81" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="I40" s="133" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="J40" s="134"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="79" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B41" s="109">
         <v>4612243</v>
       </c>
       <c r="C41" s="109" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D41" s="110" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E41" s="111" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F41" s="80" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G41" s="82" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="H41" s="80" t="s">
         <v>117</v>
       </c>
       <c r="I41" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J41" s="134"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="79" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B42" s="115">
         <v>4612389</v>
       </c>
       <c r="C42" s="115" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D42" s="116" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E42" s="111" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F42" s="81" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G42" s="83" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="H42" s="81" t="s">
         <v>113</v>
       </c>
       <c r="I42" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J42" s="134"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="79" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B43" s="109">
         <v>4612192</v>
       </c>
       <c r="C43" s="109" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D43" s="110" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E43" s="117" t="s">
+        <v>174</v>
+      </c>
+      <c r="F43" s="80" t="s">
         <v>170</v>
       </c>
-      <c r="F43" s="80" t="s">
-        <v>166</v>
-      </c>
       <c r="G43" s="82" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="H43" s="80" t="s">
         <v>111</v>
       </c>
       <c r="I43" s="133" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="J43" s="134"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="79" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B44" s="115">
         <v>4612393</v>
       </c>
       <c r="C44" s="115" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D44" s="116" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E44" s="122" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F44" s="81" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G44" s="83" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="H44" s="81" t="s">
         <v>142</v>
       </c>
       <c r="I44" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J44" s="134"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="79" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B45" s="109">
         <v>4612228</v>
       </c>
       <c r="C45" s="109" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D45" s="110" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E45" s="117" t="s">
+        <v>174</v>
+      </c>
+      <c r="F45" s="80" t="s">
         <v>170</v>
       </c>
-      <c r="F45" s="80" t="s">
-        <v>166</v>
-      </c>
       <c r="G45" s="82" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="H45" s="80" t="s">
         <v>143</v>
       </c>
       <c r="I45" s="133" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="J45" s="134"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="79" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B46" s="115">
         <v>4612247</v>
       </c>
       <c r="C46" s="115" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D46" s="116" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E46" s="122" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F46" s="81" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="G46" s="83" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="H46" s="81" t="s">
         <v>141</v>
       </c>
       <c r="I46" s="133" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="J46" s="134"/>
     </row>
@@ -36843,7 +36892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5301D2C-3B8C-401D-A3DC-45DAB443D846}">
   <dimension ref="A1:AI98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M82" sqref="M82"/>
     </sheetView>
   </sheetViews>
@@ -36871,25 +36920,25 @@
     <row r="1" spans="2:35" ht="14.45"/>
     <row r="2" spans="2:35" ht="14.85" customHeight="1">
       <c r="B2" s="151" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C2" s="152"/>
       <c r="D2" s="152"/>
       <c r="E2" s="152"/>
       <c r="G2" s="147" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H2" s="147"/>
       <c r="I2" s="147"/>
       <c r="J2" s="147"/>
       <c r="L2" s="148" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="M2" s="149"/>
       <c r="N2" s="149"/>
       <c r="O2" s="150"/>
       <c r="Q2" s="148" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="R2" s="149"/>
       <c r="S2" s="149"/>
@@ -36897,52 +36946,52 @@
     </row>
     <row r="3" spans="2:35" ht="14.45">
       <c r="B3" s="130" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C3" s="130" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D3" s="130" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="E3" s="130" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G3" s="102" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="H3" s="102" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="I3" s="102" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="J3" s="84" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="L3" s="102" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="M3" s="102" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="N3" s="102" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="O3" s="84" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Q3" s="102" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="R3" s="102" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="S3" s="102" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="T3" s="84" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="2:35" ht="14.45">
@@ -37565,7 +37614,7 @@
         <v>18</v>
       </c>
       <c r="AI13" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="14" spans="2:35" ht="14.45">
@@ -38810,52 +38859,52 @@
     </row>
     <row r="40" spans="2:20" ht="15" customHeight="1">
       <c r="O40" s="142" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="76" spans="1:20" ht="15" customHeight="1">
       <c r="A76" s="112" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B76" s="113" t="s">
         <v>1</v>
       </c>
       <c r="C76" s="113" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D76" s="113" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="E76" s="114" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F76" s="114" t="s">
         <v>0</v>
       </c>
       <c r="G76" s="114" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="H76" s="114" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="S76"/>
       <c r="T76"/>
     </row>
     <row r="77" spans="1:20" ht="15" customHeight="1">
       <c r="A77" s="79" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B77" s="115">
         <v>4612171</v>
       </c>
       <c r="C77" s="115" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D77" s="116" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E77" s="117" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F77" s="117" t="s">
         <v>115</v>
@@ -38873,19 +38922,19 @@
     </row>
     <row r="78" spans="1:20" ht="15" customHeight="1">
       <c r="A78" s="79" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B78" s="109">
         <v>4612050</v>
       </c>
       <c r="C78" s="109" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D78" s="110" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E78" s="111" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F78" s="111" t="s">
         <v>109</v>
@@ -38903,19 +38952,19 @@
     </row>
     <row r="79" spans="1:20" ht="15" customHeight="1">
       <c r="A79" s="79" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B79" s="115">
         <v>4612140</v>
       </c>
       <c r="C79" s="115" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D79" s="116" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E79" s="117" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F79" s="117" t="s">
         <v>107</v>
@@ -38933,19 +38982,19 @@
     </row>
     <row r="80" spans="1:20" ht="15" customHeight="1">
       <c r="A80" s="79" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B80" s="109">
         <v>4612243</v>
       </c>
       <c r="C80" s="109" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D80" s="110" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E80" s="111" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F80" s="111" t="s">
         <v>117</v>
@@ -38963,19 +39012,19 @@
     </row>
     <row r="81" spans="1:20" ht="15" customHeight="1">
       <c r="A81" s="79" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B81" s="115">
         <v>4612389</v>
       </c>
       <c r="C81" s="115" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D81" s="116" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E81" s="117" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F81" s="117" t="s">
         <v>113</v>
@@ -38993,19 +39042,19 @@
     </row>
     <row r="82" spans="1:20" ht="15" customHeight="1">
       <c r="A82" s="120" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B82" s="109">
         <v>4612192</v>
       </c>
       <c r="C82" s="109" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D82" s="121" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E82" s="122" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F82" s="122" t="s">
         <v>111</v>
@@ -39023,19 +39072,19 @@
     </row>
     <row r="83" spans="1:20" ht="15" customHeight="1">
       <c r="A83" s="120" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B83" s="115">
         <v>4612393</v>
       </c>
       <c r="C83" s="115" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D83" s="124" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E83" s="125" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F83" s="125" t="s">
         <v>142</v>
@@ -39053,19 +39102,19 @@
     </row>
     <row r="84" spans="1:20" ht="15" customHeight="1">
       <c r="A84" s="79" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B84" s="109">
         <v>4612228</v>
       </c>
       <c r="C84" s="109" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D84" s="110" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E84" s="111" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F84" s="111" t="s">
         <v>143</v>
@@ -39083,19 +39132,19 @@
     </row>
     <row r="85" spans="1:20" ht="15" customHeight="1">
       <c r="A85" s="120" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B85" s="115">
         <v>4612247</v>
       </c>
       <c r="C85" s="115" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D85" s="116" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E85" s="117" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F85" s="117" t="s">
         <v>141</v>
@@ -39113,49 +39162,49 @@
     </row>
     <row r="86" spans="1:20" ht="15" customHeight="1">
       <c r="A86" s="120" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B86" s="115">
         <v>4612098</v>
       </c>
       <c r="C86" s="115" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D86" s="116" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E86" s="117" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F86" s="117" t="s">
         <v>103</v>
       </c>
       <c r="G86" s="117">
         <f ca="1">COUNTIFS('Planejamento IED'!A:A,'Embarques Vivenciais'!F86,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!D:D,"&lt;="&amp;TODAY())</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H86" s="117">
         <f ca="1">SUMIFS('Planejamento IED'!E:E,'Planejamento IED'!A:A,F86,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!D:D,"&lt;="&amp;TODAY())</f>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S86"/>
       <c r="T86"/>
     </row>
     <row r="87" spans="1:20" ht="15" customHeight="1">
       <c r="A87" s="120" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B87" s="109">
         <v>4612126</v>
       </c>
       <c r="C87" s="109" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D87" s="110" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E87" s="111" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="F87" s="122" t="s">
         <v>127</v>
@@ -39173,19 +39222,19 @@
     </row>
     <row r="88" spans="1:20" ht="15" customHeight="1">
       <c r="A88" s="79" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B88" s="109">
         <v>9842940</v>
       </c>
       <c r="C88" s="109" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="D88" s="121" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E88" s="122" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F88" s="122" t="s">
         <v>29</v>
@@ -39203,19 +39252,19 @@
     </row>
     <row r="89" spans="1:20" ht="15" customHeight="1">
       <c r="A89" s="79" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B89" s="109">
         <v>4608721</v>
       </c>
       <c r="C89" s="109" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D89" s="121" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E89" s="122" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F89" s="111" t="s">
         <v>28</v>
@@ -39233,19 +39282,19 @@
     </row>
     <row r="90" spans="1:20" ht="15" customHeight="1">
       <c r="A90" s="79" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B90" s="109">
         <v>4608685</v>
       </c>
       <c r="C90" s="109" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D90" s="121" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E90" s="122" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F90" s="122" t="s">
         <v>19</v>
@@ -39263,19 +39312,19 @@
     </row>
     <row r="91" spans="1:20" ht="15" customHeight="1">
       <c r="A91" s="79" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B91" s="115">
         <v>4608389</v>
       </c>
       <c r="C91" s="115" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D91" s="124" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E91" s="125" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="F91" s="125" t="s">
         <v>43</v>
@@ -39293,19 +39342,19 @@
     </row>
     <row r="92" spans="1:20" ht="15" customHeight="1">
       <c r="A92" s="79" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B92" s="109">
         <v>4608544</v>
       </c>
       <c r="C92" s="109" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D92" s="110" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E92" s="111" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F92" s="111" t="s">
         <v>10</v>
@@ -39323,19 +39372,19 @@
     </row>
     <row r="93" spans="1:20" ht="15" customHeight="1">
       <c r="A93" s="79" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B93" s="115">
         <v>4608474</v>
       </c>
       <c r="C93" s="115" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D93" s="116" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E93" s="117" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F93" s="117" t="s">
         <v>26</v>
@@ -39353,19 +39402,19 @@
     </row>
     <row r="94" spans="1:20" ht="15" customHeight="1">
       <c r="A94" s="79" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B94" s="127">
         <v>4608684</v>
       </c>
       <c r="C94" s="115" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D94" s="116" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E94" s="125" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F94" s="125" t="s">
         <v>51</v>
@@ -39383,19 +39432,19 @@
     </row>
     <row r="95" spans="1:20" ht="15" customHeight="1">
       <c r="A95" s="79" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B95" s="109">
         <v>4608559</v>
       </c>
       <c r="C95" s="109" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D95" s="110" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E95" s="80" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F95" s="80" t="s">
         <v>14</v>
@@ -39413,19 +39462,19 @@
     </row>
     <row r="96" spans="1:20" ht="15" customHeight="1">
       <c r="A96" s="79" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B96" s="115">
         <v>4608411</v>
       </c>
       <c r="C96" s="115" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D96" s="116" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E96" s="81" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F96" s="81" t="s">
         <v>45</v>
@@ -39443,19 +39492,19 @@
     </row>
     <row r="97" spans="1:20" ht="15" customHeight="1">
       <c r="A97" s="79" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B97" s="115">
         <v>4608780</v>
       </c>
       <c r="C97" s="115" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D97" s="116" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E97" s="81" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F97" s="81" t="s">
         <v>41</v>
@@ -39586,10 +39635,10 @@
   <sheetData>
     <row r="1" spans="1:239" ht="30" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -39597,31 +39646,31 @@
       <c r="F1" s="31"/>
       <c r="H1" s="2"/>
       <c r="I1" s="50" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2" spans="1:239" ht="30" customHeight="1">
       <c r="A2" s="32" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:239" ht="33" customHeight="1">
       <c r="A3" s="32" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B3" s="70" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C3" s="69">
         <f>Início_do_projeto+120</f>
         <v>46051</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="E3" s="156">
         <v>45931</v>
@@ -39631,10 +39680,10 @@
     </row>
     <row r="4" spans="1:239" ht="30" customHeight="1">
       <c r="A4" s="33" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C4" s="157" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D4" s="158"/>
       <c r="E4" s="7">
@@ -39973,7 +40022,7 @@
     </row>
     <row r="5" spans="1:239" ht="15" customHeight="1">
       <c r="A5" s="33" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B5" s="49"/>
       <c r="C5" s="49"/>
@@ -40908,22 +40957,22 @@
     </row>
     <row r="6" spans="1:239" ht="30" customHeight="1" thickBot="1">
       <c r="A6" s="33" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
@@ -41856,7 +41905,7 @@
     </row>
     <row r="7" spans="1:239" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A7" s="32" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C7" s="35"/>
       <c r="E7"/>
@@ -41923,10 +41972,10 @@
     </row>
     <row r="8" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="33" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="16"/>
@@ -42171,10 +42220,10 @@
     </row>
     <row r="9" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="33" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="17">
@@ -42427,7 +42476,7 @@
     </row>
     <row r="10" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A10" s="33" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B10" s="45" t="s">
         <v>17</v>
@@ -42684,7 +42733,7 @@
     <row r="11" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A11" s="33"/>
       <c r="B11" s="45" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="17"/>
@@ -42933,7 +42982,7 @@
     <row r="12" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="32"/>
       <c r="B12" s="45" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="17">
@@ -43438,7 +43487,7 @@
     <row r="14" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A14" s="32"/>
       <c r="B14" s="45" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="17">
@@ -43939,10 +43988,10 @@
     </row>
     <row r="16" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="33" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="19"/>
@@ -44188,7 +44237,7 @@
     <row r="17" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="33"/>
       <c r="B17" s="46" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C17" s="41"/>
       <c r="D17" s="20">
@@ -44696,7 +44745,7 @@
     <row r="19" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A19" s="32"/>
       <c r="B19" s="46" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C19" s="41"/>
       <c r="D19" s="20">
@@ -45201,7 +45250,7 @@
     <row r="21" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="32"/>
       <c r="B21" s="46" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C21" s="41"/>
       <c r="D21" s="20">
@@ -45702,10 +45751,10 @@
     </row>
     <row r="23" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A23" s="32" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C23" s="42"/>
       <c r="D23" s="22"/>
@@ -45951,7 +46000,7 @@
     <row r="24" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A24" s="32"/>
       <c r="B24" s="47" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C24" s="43"/>
       <c r="D24" s="23">
@@ -46459,7 +46508,7 @@
     <row r="26" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A26" s="32"/>
       <c r="B26" s="47" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C26" s="43"/>
       <c r="D26" s="23">
@@ -46964,7 +47013,7 @@
     <row r="28" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A28" s="32"/>
       <c r="B28" s="47" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C28" s="43"/>
       <c r="D28" s="23">
@@ -47465,7 +47514,7 @@
     </row>
     <row r="30" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A30" s="32" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B30" s="48"/>
       <c r="C30" s="44"/>
@@ -47711,10 +47760,10 @@
     </row>
     <row r="31" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A31" s="33" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="26"/>

--- a/Planejamento Geral.xlsx
+++ b/Planejamento Geral.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29406"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29415"/>
   <workbookPr filterPrivacy="1" updateLinks="always" codeName="EstaPastaDeTrabalho"/>
-  <xr:revisionPtr revIDLastSave="3345" documentId="13_ncr:1_{8CB3FCBC-DACE-4BCA-A656-CE7D6185D885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1CB4290-6A14-4502-A6D2-CD74B3ED0F50}"/>
+  <xr:revisionPtr revIDLastSave="3422" documentId="13_ncr:1_{8CB3FCBC-DACE-4BCA-A656-CE7D6185D885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ECC01649-DE69-4B13-9AF6-E297C9F8F961}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="2620" yWindow="2620" windowWidth="14400" windowHeight="5610" tabRatio="363" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="363" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Planejamento IED" sheetId="11" r:id="rId1"/>
@@ -16,7 +16,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Embarques Vivenciais'!$A$76:$H$97</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Equipe!$A$1:$I$46</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Planejamento IED'!$A$1:$E$1020</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Planejamento IED'!$A$1:$E$1021</definedName>
     <definedName name="Hoje" localSheetId="3">TODAY()</definedName>
     <definedName name="Hoje" localSheetId="0">TODAY()</definedName>
     <definedName name="Início_da_tarefa" localSheetId="3">'3 Pessoas'!$E1</definedName>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1273" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1303" uniqueCount="356">
   <si>
     <t>Nome</t>
   </si>
@@ -577,7 +577,7 @@
     <t>Folga de 21 dias úteis pós-embarque na P-76</t>
   </si>
   <si>
-    <t>Folga de 21 dias úteis pós embarque na `P-74</t>
+    <t>Folga de 10 dias úteis pós embarque na P-74</t>
   </si>
   <si>
     <t>EDIHB REQUISITANTE DE PT</t>
@@ -608,6 +608,24 @@
   </si>
   <si>
     <t>T. 150800 - SELEÇÃO E ESPECIFICAÇÃO DE MATERIAIS - INSTRUMENTAÇÃO</t>
+  </si>
+  <si>
+    <t>Folga para abater MB alinhada com sup. Wellington</t>
+  </si>
+  <si>
+    <t>Folga alinhada Supervisor Márcio. Abatimento folgas missão exterior.</t>
+  </si>
+  <si>
+    <t>Embarque P-78</t>
+  </si>
+  <si>
+    <t>Folga Embarque P-78</t>
+  </si>
+  <si>
+    <t>Treinamento "Tubing para Instrumentação" EAD - Manhãs</t>
+  </si>
+  <si>
+    <t>Plan360 - Manhã</t>
   </si>
   <si>
     <t>Disciplina</t>
@@ -9352,8 +9370,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6AB63F5-01C4-4ED8-B3C5-D3AEB2DB48F3}" name="Tabela1" displayName="Tabela1" ref="A1:I1020" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57" dataCellStyle="Nome">
-  <autoFilter ref="A1:I1020" xr:uid="{D6AB63F5-01C4-4ED8-B3C5-D3AEB2DB48F3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D6AB63F5-01C4-4ED8-B3C5-D3AEB2DB48F3}" name="Tabela1" displayName="Tabela1" ref="A1:I1021" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58" tableBorderDxfId="57" dataCellStyle="Nome">
+  <autoFilter ref="A1:I1021" xr:uid="{D6AB63F5-01C4-4ED8-B3C5-D3AEB2DB48F3}"/>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{C8A8658B-B54C-47E5-A350-3E4123B94A55}" name="Nome" dataDxfId="56" dataCellStyle="Nome"/>
     <tableColumn id="2" xr3:uid="{41F4E0E6-9B25-4120-B6CD-9E09A0162769}" name="Matrícula" dataDxfId="55" dataCellStyle="Nome">
@@ -9643,11 +9661,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L1020"/>
+  <dimension ref="A1:L1021"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A228" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E240" sqref="E240"/>
+      <pane ySplit="1" topLeftCell="A243" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G250" sqref="G250"/>
       <selection activeCell="A193" sqref="A193"/>
     </sheetView>
   </sheetViews>
@@ -16900,10 +16918,10 @@
       </c>
       <c r="D221" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C221+E221-1,"")</f>
-        <v>45937</v>
+        <v>45930</v>
       </c>
       <c r="E221" s="85">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="F221" s="85" t="s">
         <v>11</v>
@@ -16929,14 +16947,14 @@
         <v>4608411</v>
       </c>
       <c r="C222" s="89">
-        <v>45938</v>
+        <v>45931</v>
       </c>
       <c r="D222" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C222+E222-1,"")</f>
-        <v>45966</v>
+        <v>45944</v>
       </c>
       <c r="E222" s="85">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="F222" s="85" t="s">
         <v>17</v>
@@ -17376,7 +17394,7 @@
         <v>Novo</v>
       </c>
     </row>
-    <row r="236" spans="1:9" ht="15">
+    <row r="236" spans="1:9" ht="15" thickBot="1">
       <c r="A236" s="85" t="s">
         <v>29</v>
       </c>
@@ -17409,7 +17427,7 @@
         <v>Novo</v>
       </c>
     </row>
-    <row r="237" spans="1:9" ht="15">
+    <row r="237" spans="1:9" ht="15" thickBot="1">
       <c r="A237" s="85" t="s">
         <v>29</v>
       </c>
@@ -17442,7 +17460,7 @@
         <v>Novo</v>
       </c>
     </row>
-    <row r="238" spans="1:9" ht="30.75">
+    <row r="238" spans="1:9" ht="29.45" thickBot="1">
       <c r="A238" s="85" t="s">
         <v>51</v>
       </c>
@@ -17508,234 +17526,334 @@
         <v>Novo</v>
       </c>
     </row>
-    <row r="240" spans="1:9" ht="15" thickBot="1">
-      <c r="A240" s="85"/>
+    <row r="240" spans="1:9" ht="29.45" thickBot="1">
+      <c r="A240" s="85" t="s">
+        <v>110</v>
+      </c>
       <c r="B240" s="104">
         <f>_xlfn.XLOOKUP(A240,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
-      </c>
-      <c r="C240" s="89"/>
-      <c r="D240" s="105" t="str">
+        <v>4612192</v>
+      </c>
+      <c r="C240" s="89">
+        <v>45957</v>
+      </c>
+      <c r="D240" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C240+E240-1,"")</f>
-        <v/>
-      </c>
-      <c r="E240" s="85"/>
-      <c r="F240" s="85"/>
-      <c r="G240" s="97"/>
+        <v>45957</v>
+      </c>
+      <c r="E240" s="85">
+        <v>1</v>
+      </c>
+      <c r="F240" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G240" s="97" t="s">
+        <v>185</v>
+      </c>
       <c r="H240" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>ERRO</v>
-      </c>
-      <c r="I240" s="39" t="e">
-        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>#N/A</v>
+        <v>P82</v>
+      </c>
+      <c r="I240" s="39" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
+        <v>Novo</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="15" thickBot="1">
-      <c r="A241" s="85"/>
+      <c r="A241" s="85" t="s">
+        <v>57</v>
+      </c>
       <c r="B241" s="104">
         <f>_xlfn.XLOOKUP(A241,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
-      </c>
-      <c r="C241" s="89"/>
-      <c r="D241" s="105" t="str">
+        <v>9612082</v>
+      </c>
+      <c r="C241" s="89">
+        <v>45951</v>
+      </c>
+      <c r="D241" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C241+E241-1,"")</f>
-        <v/>
-      </c>
-      <c r="E241" s="85"/>
-      <c r="F241" s="85"/>
-      <c r="G241" s="97"/>
+        <v>45964</v>
+      </c>
+      <c r="E241" s="85">
+        <v>14</v>
+      </c>
+      <c r="F241" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="G241" s="97" t="s">
+        <v>125</v>
+      </c>
       <c r="H241" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>ERRO</v>
-      </c>
-      <c r="I241" s="39" t="e">
-        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="242" spans="1:9" ht="15" thickBot="1">
-      <c r="A242" s="85"/>
+        <v>P82</v>
+      </c>
+      <c r="I241" s="39" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
+        <v>Experiente</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" ht="14.45">
+      <c r="A242" s="85" t="s">
+        <v>57</v>
+      </c>
       <c r="B242" s="104">
         <f>_xlfn.XLOOKUP(A242,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
-      </c>
-      <c r="C242" s="89"/>
-      <c r="D242" s="105" t="str">
+        <v>9612082</v>
+      </c>
+      <c r="C242" s="89">
+        <v>45965</v>
+      </c>
+      <c r="D242" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C242+E242-1,"")</f>
-        <v/>
-      </c>
-      <c r="E242" s="85"/>
-      <c r="F242" s="85"/>
-      <c r="G242" s="97"/>
+        <v>45985</v>
+      </c>
+      <c r="E242" s="85">
+        <v>21</v>
+      </c>
+      <c r="F242" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G242" s="97" t="s">
+        <v>182</v>
+      </c>
       <c r="H242" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>ERRO</v>
-      </c>
-      <c r="I242" s="39" t="e">
-        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="243" spans="1:9" ht="15" thickBot="1">
-      <c r="A243" s="85"/>
+        <v>P82</v>
+      </c>
+      <c r="I242" s="39" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
+        <v>Experiente</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" ht="29.1">
+      <c r="A243" s="85" t="s">
+        <v>31</v>
+      </c>
       <c r="B243" s="104">
         <f>_xlfn.XLOOKUP(A243,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
-      </c>
-      <c r="C243" s="89"/>
-      <c r="D243" s="105" t="str">
+        <v>1385894</v>
+      </c>
+      <c r="C243" s="89">
+        <v>45929</v>
+      </c>
+      <c r="D243" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C243+E243-1,"")</f>
-        <v/>
-      </c>
-      <c r="E243" s="85"/>
-      <c r="F243" s="85"/>
-      <c r="G243" s="97"/>
+        <v>45930</v>
+      </c>
+      <c r="E243" s="85">
+        <v>2</v>
+      </c>
+      <c r="F243" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G243" s="97" t="s">
+        <v>186</v>
+      </c>
       <c r="H243" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>ERRO</v>
-      </c>
-      <c r="I243" s="39" t="e">
-        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="244" spans="1:9" ht="15" thickBot="1">
-      <c r="A244" s="85"/>
+        <v>P80</v>
+      </c>
+      <c r="I243" s="39" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
+        <v>Experiente</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" ht="14.45">
+      <c r="A244" s="85" t="s">
+        <v>31</v>
+      </c>
       <c r="B244" s="104">
         <f>_xlfn.XLOOKUP(A244,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
-      </c>
-      <c r="C244" s="89"/>
-      <c r="D244" s="105" t="str">
+        <v>1385894</v>
+      </c>
+      <c r="C244" s="89">
+        <v>45951</v>
+      </c>
+      <c r="D244" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C244+E244-1,"")</f>
-        <v/>
-      </c>
-      <c r="E244" s="85"/>
-      <c r="F244" s="85"/>
-      <c r="G244" s="97"/>
+        <v>45957</v>
+      </c>
+      <c r="E244" s="85">
+        <v>7</v>
+      </c>
+      <c r="F244" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="G244" s="97" t="s">
+        <v>187</v>
+      </c>
       <c r="H244" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>ERRO</v>
-      </c>
-      <c r="I244" s="39" t="e">
-        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="245" spans="1:9" ht="15" thickBot="1">
-      <c r="A245" s="85"/>
+        <v>P80</v>
+      </c>
+      <c r="I244" s="39" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
+        <v>Experiente</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" ht="14.45">
+      <c r="A245" s="85" t="s">
+        <v>31</v>
+      </c>
       <c r="B245" s="104">
         <f>_xlfn.XLOOKUP(A245,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
-      </c>
-      <c r="C245" s="89"/>
-      <c r="D245" s="105" t="str">
+        <v>1385894</v>
+      </c>
+      <c r="C245" s="89">
+        <v>45958</v>
+      </c>
+      <c r="D245" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C245+E245-1,"")</f>
-        <v/>
-      </c>
-      <c r="E245" s="85"/>
-      <c r="F245" s="85"/>
-      <c r="G245" s="97"/>
+        <v>45966</v>
+      </c>
+      <c r="E245" s="85">
+        <v>9</v>
+      </c>
+      <c r="F245" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G245" s="97" t="s">
+        <v>188</v>
+      </c>
       <c r="H245" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>ERRO</v>
-      </c>
-      <c r="I245" s="39" t="e">
-        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="246" spans="1:9" ht="15" thickBot="1">
-      <c r="A246" s="85"/>
+        <v>P80</v>
+      </c>
+      <c r="I245" s="39" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
+        <v>Experiente</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="29.1">
+      <c r="A246" s="85" t="s">
+        <v>31</v>
+      </c>
       <c r="B246" s="104">
         <f>_xlfn.XLOOKUP(A246,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
-      </c>
-      <c r="C246" s="89"/>
-      <c r="D246" s="105" t="str">
+        <v>1385894</v>
+      </c>
+      <c r="C246" s="89">
+        <v>45978</v>
+      </c>
+      <c r="D246" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C246+E246-1,"")</f>
-        <v/>
-      </c>
-      <c r="E246" s="85"/>
-      <c r="F246" s="85"/>
-      <c r="G246" s="97"/>
+        <v>45979</v>
+      </c>
+      <c r="E246" s="85">
+        <v>2</v>
+      </c>
+      <c r="F246" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G246" s="97" t="s">
+        <v>186</v>
+      </c>
       <c r="H246" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>ERRO</v>
-      </c>
-      <c r="I246" s="39" t="e">
-        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="247" spans="1:9" ht="15" thickBot="1">
-      <c r="A247" s="85"/>
+        <v>P80</v>
+      </c>
+      <c r="I246" s="39" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
+        <v>Experiente</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="29.1">
+      <c r="A247" s="85" t="s">
+        <v>31</v>
+      </c>
       <c r="B247" s="104">
         <f>_xlfn.XLOOKUP(A247,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
-      </c>
-      <c r="C247" s="89"/>
-      <c r="D247" s="105" t="str">
+        <v>1385894</v>
+      </c>
+      <c r="C247" s="89">
+        <v>45999</v>
+      </c>
+      <c r="D247" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C247+E247-1,"")</f>
-        <v/>
-      </c>
-      <c r="E247" s="85"/>
-      <c r="F247" s="85"/>
-      <c r="G247" s="97"/>
+        <v>45999</v>
+      </c>
+      <c r="E247" s="85">
+        <v>1</v>
+      </c>
+      <c r="F247" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="G247" s="97" t="s">
+        <v>186</v>
+      </c>
       <c r="H247" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>ERRO</v>
-      </c>
-      <c r="I247" s="39" t="e">
-        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="248" spans="1:9" ht="15" thickBot="1">
-      <c r="A248" s="85"/>
+        <v>P80</v>
+      </c>
+      <c r="I247" s="39" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
+        <v>Experiente</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" ht="29.45" thickBot="1">
+      <c r="A248" s="85" t="s">
+        <v>106</v>
+      </c>
       <c r="B248" s="104">
         <f>_xlfn.XLOOKUP(A248,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
-      </c>
-      <c r="C248" s="89"/>
-      <c r="D248" s="105" t="str">
+        <v>4612140</v>
+      </c>
+      <c r="C248" s="89">
+        <v>45950</v>
+      </c>
+      <c r="D248" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C248+E248-1,"")</f>
-        <v/>
-      </c>
-      <c r="E248" s="85"/>
-      <c r="F248" s="85"/>
-      <c r="G248" s="97"/>
+        <v>45952</v>
+      </c>
+      <c r="E248" s="85">
+        <v>3</v>
+      </c>
+      <c r="F248" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G248" s="97" t="s">
+        <v>189</v>
+      </c>
       <c r="H248" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>ERRO</v>
-      </c>
-      <c r="I248" s="39" t="e">
-        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="249" spans="1:9" ht="15" thickBot="1">
-      <c r="A249" s="85"/>
+        <v>P83</v>
+      </c>
+      <c r="I248" s="39" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
+        <v>Novo</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" ht="15">
+      <c r="A249" s="85" t="s">
+        <v>53</v>
+      </c>
       <c r="B249" s="104">
         <f>_xlfn.XLOOKUP(A249,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
-      </c>
-      <c r="C249" s="89"/>
-      <c r="D249" s="105" t="str">
+        <v>9886449</v>
+      </c>
+      <c r="C249" s="89">
+        <v>45958</v>
+      </c>
+      <c r="D249" s="105">
         <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C249+E249-1,"")</f>
-        <v/>
-      </c>
-      <c r="E249" s="85"/>
-      <c r="F249" s="85"/>
-      <c r="G249" s="97"/>
+        <v>45958</v>
+      </c>
+      <c r="E249" s="85">
+        <v>1</v>
+      </c>
+      <c r="F249" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="G249" s="97" t="s">
+        <v>190</v>
+      </c>
       <c r="H249" s="39" t="str">
         <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>ERRO</v>
-      </c>
-      <c r="I249" s="39" t="e">
-        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>#N/A</v>
+        <v>P80</v>
+      </c>
+      <c r="I249" s="39" t="str">
+        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
+        <v>Experiente</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="15" thickBot="1">
@@ -17786,9 +17904,9 @@
     </row>
     <row r="252" spans="1:9" ht="15" thickBot="1">
       <c r="A252" s="85"/>
-      <c r="B252" s="104">
+      <c r="B252" s="104" t="str">
         <f>_xlfn.XLOOKUP(A252,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C252" s="89"/>
       <c r="D252" s="105" t="str">
@@ -17855,9 +17973,9 @@
     </row>
     <row r="255" spans="1:9" ht="15" thickBot="1">
       <c r="A255" s="85"/>
-      <c r="B255" s="104">
+      <c r="B255" s="104" t="str">
         <f>_xlfn.XLOOKUP(A255,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C255" s="89"/>
       <c r="D255" s="105" t="str">
@@ -17924,9 +18042,9 @@
     </row>
     <row r="258" spans="1:9" ht="15" thickBot="1">
       <c r="A258" s="85"/>
-      <c r="B258" s="104">
+      <c r="B258" s="104" t="str">
         <f>_xlfn.XLOOKUP(A258,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C258" s="89"/>
       <c r="D258" s="105" t="str">
@@ -17993,9 +18111,9 @@
     </row>
     <row r="261" spans="1:9" ht="15" thickBot="1">
       <c r="A261" s="85"/>
-      <c r="B261" s="104">
+      <c r="B261" s="104" t="str">
         <f>_xlfn.XLOOKUP(A261,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C261" s="89"/>
       <c r="D261" s="105" t="str">
@@ -18062,9 +18180,9 @@
     </row>
     <row r="264" spans="1:9" ht="15" thickBot="1">
       <c r="A264" s="85"/>
-      <c r="B264" s="104">
+      <c r="B264" s="104" t="str">
         <f>_xlfn.XLOOKUP(A264,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C264" s="89"/>
       <c r="D264" s="105" t="str">
@@ -18131,9 +18249,9 @@
     </row>
     <row r="267" spans="1:9" ht="15" thickBot="1">
       <c r="A267" s="85"/>
-      <c r="B267" s="104">
+      <c r="B267" s="104" t="str">
         <f>_xlfn.XLOOKUP(A267,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C267" s="89"/>
       <c r="D267" s="105" t="str">
@@ -18200,9 +18318,9 @@
     </row>
     <row r="270" spans="1:9" ht="15" thickBot="1">
       <c r="A270" s="85"/>
-      <c r="B270" s="104">
+      <c r="B270" s="104" t="str">
         <f>_xlfn.XLOOKUP(A270,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C270" s="89"/>
       <c r="D270" s="105" t="str">
@@ -18269,9 +18387,9 @@
     </row>
     <row r="273" spans="1:9" ht="15" thickBot="1">
       <c r="A273" s="85"/>
-      <c r="B273" s="104">
+      <c r="B273" s="104" t="str">
         <f>_xlfn.XLOOKUP(A273,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C273" s="89"/>
       <c r="D273" s="105" t="str">
@@ -18338,9 +18456,9 @@
     </row>
     <row r="276" spans="1:9" ht="15" thickBot="1">
       <c r="A276" s="85"/>
-      <c r="B276" s="104">
+      <c r="B276" s="104" t="str">
         <f>_xlfn.XLOOKUP(A276,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C276" s="89"/>
       <c r="D276" s="105" t="str">
@@ -18407,9 +18525,9 @@
     </row>
     <row r="279" spans="1:9" ht="15" thickBot="1">
       <c r="A279" s="85"/>
-      <c r="B279" s="104">
+      <c r="B279" s="104" t="str">
         <f>_xlfn.XLOOKUP(A279,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C279" s="89"/>
       <c r="D279" s="105" t="str">
@@ -18476,9 +18594,9 @@
     </row>
     <row r="282" spans="1:9" ht="15" thickBot="1">
       <c r="A282" s="85"/>
-      <c r="B282" s="104">
+      <c r="B282" s="104" t="str">
         <f>_xlfn.XLOOKUP(A282,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C282" s="89"/>
       <c r="D282" s="105" t="str">
@@ -18545,9 +18663,9 @@
     </row>
     <row r="285" spans="1:9" ht="15" thickBot="1">
       <c r="A285" s="85"/>
-      <c r="B285" s="104">
+      <c r="B285" s="104" t="str">
         <f>_xlfn.XLOOKUP(A285,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C285" s="89"/>
       <c r="D285" s="105" t="str">
@@ -18589,7 +18707,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="287" spans="1:9" ht="30" customHeight="1" thickBot="1">
+    <row r="287" spans="1:9" ht="15" thickBot="1">
       <c r="A287" s="85"/>
       <c r="B287" s="104">
         <f>_xlfn.XLOOKUP(A287,Equipe!H:H,Equipe!B:B,"",0)</f>
@@ -18614,9 +18732,9 @@
     </row>
     <row r="288" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A288" s="85"/>
-      <c r="B288" s="104">
+      <c r="B288" s="104" t="str">
         <f>_xlfn.XLOOKUP(A288,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C288" s="89"/>
       <c r="D288" s="105" t="str">
@@ -18683,9 +18801,9 @@
     </row>
     <row r="291" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A291" s="85"/>
-      <c r="B291" s="104">
+      <c r="B291" s="104" t="str">
         <f>_xlfn.XLOOKUP(A291,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C291" s="89"/>
       <c r="D291" s="105" t="str">
@@ -18752,9 +18870,9 @@
     </row>
     <row r="294" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A294" s="85"/>
-      <c r="B294" s="104">
+      <c r="B294" s="104" t="str">
         <f>_xlfn.XLOOKUP(A294,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C294" s="89"/>
       <c r="D294" s="105" t="str">
@@ -18821,9 +18939,9 @@
     </row>
     <row r="297" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A297" s="85"/>
-      <c r="B297" s="104">
+      <c r="B297" s="104" t="str">
         <f>_xlfn.XLOOKUP(A297,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C297" s="89"/>
       <c r="D297" s="105" t="str">
@@ -18890,9 +19008,9 @@
     </row>
     <row r="300" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A300" s="85"/>
-      <c r="B300" s="104">
+      <c r="B300" s="104" t="str">
         <f>_xlfn.XLOOKUP(A300,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C300" s="89"/>
       <c r="D300" s="105" t="str">
@@ -18959,9 +19077,9 @@
     </row>
     <row r="303" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A303" s="85"/>
-      <c r="B303" s="104">
+      <c r="B303" s="104" t="str">
         <f>_xlfn.XLOOKUP(A303,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C303" s="89"/>
       <c r="D303" s="105" t="str">
@@ -19028,9 +19146,9 @@
     </row>
     <row r="306" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A306" s="85"/>
-      <c r="B306" s="104">
+      <c r="B306" s="104" t="str">
         <f>_xlfn.XLOOKUP(A306,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C306" s="89"/>
       <c r="D306" s="105" t="str">
@@ -19097,9 +19215,9 @@
     </row>
     <row r="309" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A309" s="85"/>
-      <c r="B309" s="104">
+      <c r="B309" s="104" t="str">
         <f>_xlfn.XLOOKUP(A309,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C309" s="89"/>
       <c r="D309" s="105" t="str">
@@ -19166,9 +19284,9 @@
     </row>
     <row r="312" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A312" s="85"/>
-      <c r="B312" s="104">
+      <c r="B312" s="104" t="str">
         <f>_xlfn.XLOOKUP(A312,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C312" s="89"/>
       <c r="D312" s="105" t="str">
@@ -19235,9 +19353,9 @@
     </row>
     <row r="315" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A315" s="85"/>
-      <c r="B315" s="104">
+      <c r="B315" s="104" t="str">
         <f>_xlfn.XLOOKUP(A315,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C315" s="89"/>
       <c r="D315" s="105" t="str">
@@ -19304,9 +19422,9 @@
     </row>
     <row r="318" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A318" s="85"/>
-      <c r="B318" s="104">
+      <c r="B318" s="104" t="str">
         <f>_xlfn.XLOOKUP(A318,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C318" s="89"/>
       <c r="D318" s="105" t="str">
@@ -19373,9 +19491,9 @@
     </row>
     <row r="321" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A321" s="85"/>
-      <c r="B321" s="104">
+      <c r="B321" s="104" t="str">
         <f>_xlfn.XLOOKUP(A321,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C321" s="89"/>
       <c r="D321" s="105" t="str">
@@ -19442,9 +19560,9 @@
     </row>
     <row r="324" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A324" s="85"/>
-      <c r="B324" s="104">
+      <c r="B324" s="104" t="str">
         <f>_xlfn.XLOOKUP(A324,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C324" s="89"/>
       <c r="D324" s="105" t="str">
@@ -19511,9 +19629,9 @@
     </row>
     <row r="327" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A327" s="85"/>
-      <c r="B327" s="104">
+      <c r="B327" s="104" t="str">
         <f>_xlfn.XLOOKUP(A327,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C327" s="89"/>
       <c r="D327" s="105" t="str">
@@ -19580,9 +19698,9 @@
     </row>
     <row r="330" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A330" s="85"/>
-      <c r="B330" s="104">
+      <c r="B330" s="104" t="str">
         <f>_xlfn.XLOOKUP(A330,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C330" s="89"/>
       <c r="D330" s="105" t="str">
@@ -19649,9 +19767,9 @@
     </row>
     <row r="333" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A333" s="85"/>
-      <c r="B333" s="104">
+      <c r="B333" s="104" t="str">
         <f>_xlfn.XLOOKUP(A333,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C333" s="89"/>
       <c r="D333" s="105" t="str">
@@ -19718,9 +19836,9 @@
     </row>
     <row r="336" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A336" s="85"/>
-      <c r="B336" s="104">
+      <c r="B336" s="104" t="str">
         <f>_xlfn.XLOOKUP(A336,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C336" s="89"/>
       <c r="D336" s="105" t="str">
@@ -19787,9 +19905,9 @@
     </row>
     <row r="339" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A339" s="85"/>
-      <c r="B339" s="104">
+      <c r="B339" s="104" t="str">
         <f>_xlfn.XLOOKUP(A339,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C339" s="89"/>
       <c r="D339" s="105" t="str">
@@ -19856,9 +19974,9 @@
     </row>
     <row r="342" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A342" s="85"/>
-      <c r="B342" s="104">
+      <c r="B342" s="104" t="str">
         <f>_xlfn.XLOOKUP(A342,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C342" s="89"/>
       <c r="D342" s="105" t="str">
@@ -19925,9 +20043,9 @@
     </row>
     <row r="345" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A345" s="85"/>
-      <c r="B345" s="104">
+      <c r="B345" s="104" t="str">
         <f>_xlfn.XLOOKUP(A345,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C345" s="89"/>
       <c r="D345" s="105" t="str">
@@ -19994,9 +20112,9 @@
     </row>
     <row r="348" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A348" s="85"/>
-      <c r="B348" s="104">
+      <c r="B348" s="104" t="str">
         <f>_xlfn.XLOOKUP(A348,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C348" s="89"/>
       <c r="D348" s="105" t="str">
@@ -20063,9 +20181,9 @@
     </row>
     <row r="351" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A351" s="85"/>
-      <c r="B351" s="104">
+      <c r="B351" s="104" t="str">
         <f>_xlfn.XLOOKUP(A351,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C351" s="89"/>
       <c r="D351" s="105" t="str">
@@ -20132,9 +20250,9 @@
     </row>
     <row r="354" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A354" s="85"/>
-      <c r="B354" s="104">
+      <c r="B354" s="104" t="str">
         <f>_xlfn.XLOOKUP(A354,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C354" s="89"/>
       <c r="D354" s="105" t="str">
@@ -20201,9 +20319,9 @@
     </row>
     <row r="357" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A357" s="85"/>
-      <c r="B357" s="104">
+      <c r="B357" s="104" t="str">
         <f>_xlfn.XLOOKUP(A357,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C357" s="89"/>
       <c r="D357" s="105" t="str">
@@ -20270,9 +20388,9 @@
     </row>
     <row r="360" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A360" s="85"/>
-      <c r="B360" s="104">
+      <c r="B360" s="104" t="str">
         <f>_xlfn.XLOOKUP(A360,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C360" s="89"/>
       <c r="D360" s="105" t="str">
@@ -20339,9 +20457,9 @@
     </row>
     <row r="363" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A363" s="85"/>
-      <c r="B363" s="104">
+      <c r="B363" s="104" t="str">
         <f>_xlfn.XLOOKUP(A363,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C363" s="89"/>
       <c r="D363" s="105" t="str">
@@ -20408,9 +20526,9 @@
     </row>
     <row r="366" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A366" s="85"/>
-      <c r="B366" s="104">
+      <c r="B366" s="104" t="str">
         <f>_xlfn.XLOOKUP(A366,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C366" s="89"/>
       <c r="D366" s="105" t="str">
@@ -20477,9 +20595,9 @@
     </row>
     <row r="369" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A369" s="85"/>
-      <c r="B369" s="104">
+      <c r="B369" s="104" t="str">
         <f>_xlfn.XLOOKUP(A369,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C369" s="89"/>
       <c r="D369" s="105" t="str">
@@ -20546,9 +20664,9 @@
     </row>
     <row r="372" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A372" s="85"/>
-      <c r="B372" s="104">
+      <c r="B372" s="104" t="str">
         <f>_xlfn.XLOOKUP(A372,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C372" s="89"/>
       <c r="D372" s="105" t="str">
@@ -20615,9 +20733,9 @@
     </row>
     <row r="375" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A375" s="85"/>
-      <c r="B375" s="104">
+      <c r="B375" s="104" t="str">
         <f>_xlfn.XLOOKUP(A375,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C375" s="89"/>
       <c r="D375" s="105" t="str">
@@ -20684,9 +20802,9 @@
     </row>
     <row r="378" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A378" s="85"/>
-      <c r="B378" s="104">
+      <c r="B378" s="104" t="str">
         <f>_xlfn.XLOOKUP(A378,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C378" s="89"/>
       <c r="D378" s="105" t="str">
@@ -20753,9 +20871,9 @@
     </row>
     <row r="381" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A381" s="85"/>
-      <c r="B381" s="104">
+      <c r="B381" s="104" t="str">
         <f>_xlfn.XLOOKUP(A381,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C381" s="89"/>
       <c r="D381" s="105" t="str">
@@ -20822,9 +20940,9 @@
     </row>
     <row r="384" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A384" s="85"/>
-      <c r="B384" s="104">
+      <c r="B384" s="104" t="str">
         <f>_xlfn.XLOOKUP(A384,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C384" s="89"/>
       <c r="D384" s="105" t="str">
@@ -20891,9 +21009,9 @@
     </row>
     <row r="387" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A387" s="85"/>
-      <c r="B387" s="104">
+      <c r="B387" s="104" t="str">
         <f>_xlfn.XLOOKUP(A387,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C387" s="89"/>
       <c r="D387" s="105" t="str">
@@ -20960,9 +21078,9 @@
     </row>
     <row r="390" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A390" s="85"/>
-      <c r="B390" s="104">
+      <c r="B390" s="104" t="str">
         <f>_xlfn.XLOOKUP(A390,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C390" s="89"/>
       <c r="D390" s="105" t="str">
@@ -21029,9 +21147,9 @@
     </row>
     <row r="393" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A393" s="85"/>
-      <c r="B393" s="104">
+      <c r="B393" s="104" t="str">
         <f>_xlfn.XLOOKUP(A393,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C393" s="89"/>
       <c r="D393" s="105" t="str">
@@ -21098,9 +21216,9 @@
     </row>
     <row r="396" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A396" s="85"/>
-      <c r="B396" s="104">
+      <c r="B396" s="104" t="str">
         <f>_xlfn.XLOOKUP(A396,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C396" s="89"/>
       <c r="D396" s="105" t="str">
@@ -21167,9 +21285,9 @@
     </row>
     <row r="399" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A399" s="85"/>
-      <c r="B399" s="104">
+      <c r="B399" s="104" t="str">
         <f>_xlfn.XLOOKUP(A399,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C399" s="89"/>
       <c r="D399" s="105" t="str">
@@ -21236,9 +21354,9 @@
     </row>
     <row r="402" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A402" s="85"/>
-      <c r="B402" s="104">
+      <c r="B402" s="104" t="str">
         <f>_xlfn.XLOOKUP(A402,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C402" s="89"/>
       <c r="D402" s="105" t="str">
@@ -21305,9 +21423,9 @@
     </row>
     <row r="405" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A405" s="85"/>
-      <c r="B405" s="104">
+      <c r="B405" s="104" t="str">
         <f>_xlfn.XLOOKUP(A405,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C405" s="89"/>
       <c r="D405" s="105" t="str">
@@ -21374,9 +21492,9 @@
     </row>
     <row r="408" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A408" s="85"/>
-      <c r="B408" s="104">
+      <c r="B408" s="104" t="str">
         <f>_xlfn.XLOOKUP(A408,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C408" s="89"/>
       <c r="D408" s="105" t="str">
@@ -21443,9 +21561,9 @@
     </row>
     <row r="411" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A411" s="85"/>
-      <c r="B411" s="104">
+      <c r="B411" s="104" t="str">
         <f>_xlfn.XLOOKUP(A411,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C411" s="89"/>
       <c r="D411" s="105" t="str">
@@ -21512,9 +21630,9 @@
     </row>
     <row r="414" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A414" s="85"/>
-      <c r="B414" s="104">
+      <c r="B414" s="104" t="str">
         <f>_xlfn.XLOOKUP(A414,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C414" s="89"/>
       <c r="D414" s="105" t="str">
@@ -21581,9 +21699,9 @@
     </row>
     <row r="417" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A417" s="85"/>
-      <c r="B417" s="104">
+      <c r="B417" s="104" t="str">
         <f>_xlfn.XLOOKUP(A417,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C417" s="89"/>
       <c r="D417" s="105" t="str">
@@ -21650,9 +21768,9 @@
     </row>
     <row r="420" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A420" s="85"/>
-      <c r="B420" s="104">
+      <c r="B420" s="104" t="str">
         <f>_xlfn.XLOOKUP(A420,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C420" s="89"/>
       <c r="D420" s="105" t="str">
@@ -21719,9 +21837,9 @@
     </row>
     <row r="423" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A423" s="85"/>
-      <c r="B423" s="104">
+      <c r="B423" s="104" t="str">
         <f>_xlfn.XLOOKUP(A423,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C423" s="89"/>
       <c r="D423" s="105" t="str">
@@ -21788,9 +21906,9 @@
     </row>
     <row r="426" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A426" s="85"/>
-      <c r="B426" s="104">
+      <c r="B426" s="104" t="str">
         <f>_xlfn.XLOOKUP(A426,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C426" s="89"/>
       <c r="D426" s="105" t="str">
@@ -21857,9 +21975,9 @@
     </row>
     <row r="429" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A429" s="85"/>
-      <c r="B429" s="104">
+      <c r="B429" s="104" t="str">
         <f>_xlfn.XLOOKUP(A429,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C429" s="89"/>
       <c r="D429" s="105" t="str">
@@ -21926,9 +22044,9 @@
     </row>
     <row r="432" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A432" s="85"/>
-      <c r="B432" s="104">
+      <c r="B432" s="104" t="str">
         <f>_xlfn.XLOOKUP(A432,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C432" s="89"/>
       <c r="D432" s="105" t="str">
@@ -21995,9 +22113,9 @@
     </row>
     <row r="435" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A435" s="85"/>
-      <c r="B435" s="104">
+      <c r="B435" s="104" t="str">
         <f>_xlfn.XLOOKUP(A435,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C435" s="89"/>
       <c r="D435" s="105" t="str">
@@ -22064,9 +22182,9 @@
     </row>
     <row r="438" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A438" s="85"/>
-      <c r="B438" s="104">
+      <c r="B438" s="104" t="str">
         <f>_xlfn.XLOOKUP(A438,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C438" s="89"/>
       <c r="D438" s="105" t="str">
@@ -22133,9 +22251,9 @@
     </row>
     <row r="441" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A441" s="85"/>
-      <c r="B441" s="104">
+      <c r="B441" s="104" t="str">
         <f>_xlfn.XLOOKUP(A441,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C441" s="89"/>
       <c r="D441" s="105" t="str">
@@ -22202,9 +22320,9 @@
     </row>
     <row r="444" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A444" s="85"/>
-      <c r="B444" s="104">
+      <c r="B444" s="104" t="str">
         <f>_xlfn.XLOOKUP(A444,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C444" s="89"/>
       <c r="D444" s="105" t="str">
@@ -22271,9 +22389,9 @@
     </row>
     <row r="447" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A447" s="85"/>
-      <c r="B447" s="104">
+      <c r="B447" s="104" t="str">
         <f>_xlfn.XLOOKUP(A447,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C447" s="89"/>
       <c r="D447" s="105" t="str">
@@ -22340,9 +22458,9 @@
     </row>
     <row r="450" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A450" s="85"/>
-      <c r="B450" s="104">
+      <c r="B450" s="104" t="str">
         <f>_xlfn.XLOOKUP(A450,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C450" s="89"/>
       <c r="D450" s="105" t="str">
@@ -22409,9 +22527,9 @@
     </row>
     <row r="453" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A453" s="85"/>
-      <c r="B453" s="104">
+      <c r="B453" s="104" t="str">
         <f>_xlfn.XLOOKUP(A453,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C453" s="89"/>
       <c r="D453" s="105" t="str">
@@ -22478,9 +22596,9 @@
     </row>
     <row r="456" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A456" s="85"/>
-      <c r="B456" s="104">
+      <c r="B456" s="104" t="str">
         <f>_xlfn.XLOOKUP(A456,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C456" s="89"/>
       <c r="D456" s="105" t="str">
@@ -22547,9 +22665,9 @@
     </row>
     <row r="459" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A459" s="85"/>
-      <c r="B459" s="104">
+      <c r="B459" s="104" t="str">
         <f>_xlfn.XLOOKUP(A459,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C459" s="89"/>
       <c r="D459" s="105" t="str">
@@ -22616,9 +22734,9 @@
     </row>
     <row r="462" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A462" s="85"/>
-      <c r="B462" s="104">
+      <c r="B462" s="104" t="str">
         <f>_xlfn.XLOOKUP(A462,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C462" s="89"/>
       <c r="D462" s="105" t="str">
@@ -22685,9 +22803,9 @@
     </row>
     <row r="465" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A465" s="85"/>
-      <c r="B465" s="104">
+      <c r="B465" s="104" t="str">
         <f>_xlfn.XLOOKUP(A465,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C465" s="89"/>
       <c r="D465" s="105" t="str">
@@ -22754,9 +22872,9 @@
     </row>
     <row r="468" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A468" s="85"/>
-      <c r="B468" s="104">
+      <c r="B468" s="104" t="str">
         <f>_xlfn.XLOOKUP(A468,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C468" s="89"/>
       <c r="D468" s="105" t="str">
@@ -22823,9 +22941,9 @@
     </row>
     <row r="471" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A471" s="85"/>
-      <c r="B471" s="104">
+      <c r="B471" s="104" t="str">
         <f>_xlfn.XLOOKUP(A471,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C471" s="89"/>
       <c r="D471" s="105" t="str">
@@ -22892,9 +23010,9 @@
     </row>
     <row r="474" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A474" s="85"/>
-      <c r="B474" s="104">
+      <c r="B474" s="104" t="str">
         <f>_xlfn.XLOOKUP(A474,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C474" s="89"/>
       <c r="D474" s="105" t="str">
@@ -22961,9 +23079,9 @@
     </row>
     <row r="477" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A477" s="85"/>
-      <c r="B477" s="104">
+      <c r="B477" s="104" t="str">
         <f>_xlfn.XLOOKUP(A477,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C477" s="89"/>
       <c r="D477" s="105" t="str">
@@ -23030,9 +23148,9 @@
     </row>
     <row r="480" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A480" s="85"/>
-      <c r="B480" s="104">
+      <c r="B480" s="104" t="str">
         <f>_xlfn.XLOOKUP(A480,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C480" s="89"/>
       <c r="D480" s="105" t="str">
@@ -23099,9 +23217,9 @@
     </row>
     <row r="483" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A483" s="85"/>
-      <c r="B483" s="104">
+      <c r="B483" s="104" t="str">
         <f>_xlfn.XLOOKUP(A483,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C483" s="89"/>
       <c r="D483" s="105" t="str">
@@ -23168,9 +23286,9 @@
     </row>
     <row r="486" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A486" s="85"/>
-      <c r="B486" s="104">
+      <c r="B486" s="104" t="str">
         <f>_xlfn.XLOOKUP(A486,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C486" s="89"/>
       <c r="D486" s="105" t="str">
@@ -23237,9 +23355,9 @@
     </row>
     <row r="489" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A489" s="85"/>
-      <c r="B489" s="104">
+      <c r="B489" s="104" t="str">
         <f>_xlfn.XLOOKUP(A489,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C489" s="89"/>
       <c r="D489" s="105" t="str">
@@ -23306,9 +23424,9 @@
     </row>
     <row r="492" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A492" s="85"/>
-      <c r="B492" s="104">
+      <c r="B492" s="104" t="str">
         <f>_xlfn.XLOOKUP(A492,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C492" s="89"/>
       <c r="D492" s="105" t="str">
@@ -23375,9 +23493,9 @@
     </row>
     <row r="495" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A495" s="85"/>
-      <c r="B495" s="104">
+      <c r="B495" s="104" t="str">
         <f>_xlfn.XLOOKUP(A495,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C495" s="89"/>
       <c r="D495" s="105" t="str">
@@ -23444,9 +23562,9 @@
     </row>
     <row r="498" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A498" s="85"/>
-      <c r="B498" s="104">
+      <c r="B498" s="104" t="str">
         <f>_xlfn.XLOOKUP(A498,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C498" s="89"/>
       <c r="D498" s="105" t="str">
@@ -23513,9 +23631,9 @@
     </row>
     <row r="501" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A501" s="85"/>
-      <c r="B501" s="104">
+      <c r="B501" s="104" t="str">
         <f>_xlfn.XLOOKUP(A501,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C501" s="89"/>
       <c r="D501" s="105" t="str">
@@ -23582,9 +23700,9 @@
     </row>
     <row r="504" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A504" s="85"/>
-      <c r="B504" s="104">
+      <c r="B504" s="104" t="str">
         <f>_xlfn.XLOOKUP(A504,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C504" s="89"/>
       <c r="D504" s="105" t="str">
@@ -23651,9 +23769,9 @@
     </row>
     <row r="507" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A507" s="85"/>
-      <c r="B507" s="104">
+      <c r="B507" s="104" t="str">
         <f>_xlfn.XLOOKUP(A507,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C507" s="89"/>
       <c r="D507" s="105" t="str">
@@ -23720,9 +23838,9 @@
     </row>
     <row r="510" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A510" s="85"/>
-      <c r="B510" s="104">
+      <c r="B510" s="104" t="str">
         <f>_xlfn.XLOOKUP(A510,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C510" s="89"/>
       <c r="D510" s="105" t="str">
@@ -23789,9 +23907,9 @@
     </row>
     <row r="513" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A513" s="85"/>
-      <c r="B513" s="104">
+      <c r="B513" s="104" t="str">
         <f>_xlfn.XLOOKUP(A513,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C513" s="89"/>
       <c r="D513" s="105" t="str">
@@ -23858,9 +23976,9 @@
     </row>
     <row r="516" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A516" s="85"/>
-      <c r="B516" s="104">
+      <c r="B516" s="104" t="str">
         <f>_xlfn.XLOOKUP(A516,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C516" s="89"/>
       <c r="D516" s="105" t="str">
@@ -23927,9 +24045,9 @@
     </row>
     <row r="519" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A519" s="85"/>
-      <c r="B519" s="104">
+      <c r="B519" s="104" t="str">
         <f>_xlfn.XLOOKUP(A519,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C519" s="89"/>
       <c r="D519" s="105" t="str">
@@ -23996,9 +24114,9 @@
     </row>
     <row r="522" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A522" s="85"/>
-      <c r="B522" s="104">
+      <c r="B522" s="104" t="str">
         <f>_xlfn.XLOOKUP(A522,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C522" s="89"/>
       <c r="D522" s="105" t="str">
@@ -24065,9 +24183,9 @@
     </row>
     <row r="525" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A525" s="85"/>
-      <c r="B525" s="104">
+      <c r="B525" s="104" t="str">
         <f>_xlfn.XLOOKUP(A525,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C525" s="89"/>
       <c r="D525" s="105" t="str">
@@ -24134,9 +24252,9 @@
     </row>
     <row r="528" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A528" s="85"/>
-      <c r="B528" s="104">
+      <c r="B528" s="104" t="str">
         <f>_xlfn.XLOOKUP(A528,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C528" s="89"/>
       <c r="D528" s="105" t="str">
@@ -24203,9 +24321,9 @@
     </row>
     <row r="531" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A531" s="85"/>
-      <c r="B531" s="104">
+      <c r="B531" s="104" t="str">
         <f>_xlfn.XLOOKUP(A531,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C531" s="89"/>
       <c r="D531" s="105" t="str">
@@ -24272,9 +24390,9 @@
     </row>
     <row r="534" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A534" s="85"/>
-      <c r="B534" s="104">
+      <c r="B534" s="104" t="str">
         <f>_xlfn.XLOOKUP(A534,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C534" s="89"/>
       <c r="D534" s="105" t="str">
@@ -24341,9 +24459,9 @@
     </row>
     <row r="537" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A537" s="85"/>
-      <c r="B537" s="104">
+      <c r="B537" s="104" t="str">
         <f>_xlfn.XLOOKUP(A537,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C537" s="89"/>
       <c r="D537" s="105" t="str">
@@ -24410,9 +24528,9 @@
     </row>
     <row r="540" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A540" s="85"/>
-      <c r="B540" s="104">
+      <c r="B540" s="104" t="str">
         <f>_xlfn.XLOOKUP(A540,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C540" s="89"/>
       <c r="D540" s="105" t="str">
@@ -24479,9 +24597,9 @@
     </row>
     <row r="543" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A543" s="85"/>
-      <c r="B543" s="104">
+      <c r="B543" s="104" t="str">
         <f>_xlfn.XLOOKUP(A543,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C543" s="89"/>
       <c r="D543" s="105" t="str">
@@ -24548,9 +24666,9 @@
     </row>
     <row r="546" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A546" s="85"/>
-      <c r="B546" s="104">
+      <c r="B546" s="104" t="str">
         <f>_xlfn.XLOOKUP(A546,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C546" s="89"/>
       <c r="D546" s="105" t="str">
@@ -24617,9 +24735,9 @@
     </row>
     <row r="549" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A549" s="85"/>
-      <c r="B549" s="104">
+      <c r="B549" s="104" t="str">
         <f>_xlfn.XLOOKUP(A549,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C549" s="89"/>
       <c r="D549" s="105" t="str">
@@ -24686,9 +24804,9 @@
     </row>
     <row r="552" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A552" s="85"/>
-      <c r="B552" s="104">
+      <c r="B552" s="104" t="str">
         <f>_xlfn.XLOOKUP(A552,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C552" s="89"/>
       <c r="D552" s="105" t="str">
@@ -24755,9 +24873,9 @@
     </row>
     <row r="555" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A555" s="85"/>
-      <c r="B555" s="104">
+      <c r="B555" s="104" t="str">
         <f>_xlfn.XLOOKUP(A555,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C555" s="89"/>
       <c r="D555" s="105" t="str">
@@ -24824,9 +24942,9 @@
     </row>
     <row r="558" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A558" s="85"/>
-      <c r="B558" s="104">
+      <c r="B558" s="104" t="str">
         <f>_xlfn.XLOOKUP(A558,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C558" s="89"/>
       <c r="D558" s="105" t="str">
@@ -24893,9 +25011,9 @@
     </row>
     <row r="561" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A561" s="85"/>
-      <c r="B561" s="104">
+      <c r="B561" s="104" t="str">
         <f>_xlfn.XLOOKUP(A561,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C561" s="89"/>
       <c r="D561" s="105" t="str">
@@ -24962,9 +25080,9 @@
     </row>
     <row r="564" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A564" s="85"/>
-      <c r="B564" s="104">
+      <c r="B564" s="104" t="str">
         <f>_xlfn.XLOOKUP(A564,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C564" s="89"/>
       <c r="D564" s="105" t="str">
@@ -25031,9 +25149,9 @@
     </row>
     <row r="567" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A567" s="85"/>
-      <c r="B567" s="104">
+      <c r="B567" s="104" t="str">
         <f>_xlfn.XLOOKUP(A567,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C567" s="89"/>
       <c r="D567" s="105" t="str">
@@ -25100,9 +25218,9 @@
     </row>
     <row r="570" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A570" s="85"/>
-      <c r="B570" s="104">
+      <c r="B570" s="104" t="str">
         <f>_xlfn.XLOOKUP(A570,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C570" s="89"/>
       <c r="D570" s="105" t="str">
@@ -25169,9 +25287,9 @@
     </row>
     <row r="573" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A573" s="85"/>
-      <c r="B573" s="104">
+      <c r="B573" s="104" t="str">
         <f>_xlfn.XLOOKUP(A573,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C573" s="89"/>
       <c r="D573" s="105" t="str">
@@ -25238,9 +25356,9 @@
     </row>
     <row r="576" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A576" s="85"/>
-      <c r="B576" s="104">
+      <c r="B576" s="104" t="str">
         <f>_xlfn.XLOOKUP(A576,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C576" s="89"/>
       <c r="D576" s="105" t="str">
@@ -25307,9 +25425,9 @@
     </row>
     <row r="579" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A579" s="85"/>
-      <c r="B579" s="104">
+      <c r="B579" s="104" t="str">
         <f>_xlfn.XLOOKUP(A579,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C579" s="89"/>
       <c r="D579" s="105" t="str">
@@ -25376,9 +25494,9 @@
     </row>
     <row r="582" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A582" s="85"/>
-      <c r="B582" s="104">
+      <c r="B582" s="104" t="str">
         <f>_xlfn.XLOOKUP(A582,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C582" s="89"/>
       <c r="D582" s="105" t="str">
@@ -25445,9 +25563,9 @@
     </row>
     <row r="585" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A585" s="85"/>
-      <c r="B585" s="104">
+      <c r="B585" s="104" t="str">
         <f>_xlfn.XLOOKUP(A585,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C585" s="89"/>
       <c r="D585" s="105" t="str">
@@ -25514,9 +25632,9 @@
     </row>
     <row r="588" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A588" s="85"/>
-      <c r="B588" s="104">
+      <c r="B588" s="104" t="str">
         <f>_xlfn.XLOOKUP(A588,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C588" s="89"/>
       <c r="D588" s="105" t="str">
@@ -25583,9 +25701,9 @@
     </row>
     <row r="591" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A591" s="85"/>
-      <c r="B591" s="104">
+      <c r="B591" s="104" t="str">
         <f>_xlfn.XLOOKUP(A591,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C591" s="89"/>
       <c r="D591" s="105" t="str">
@@ -25652,9 +25770,9 @@
     </row>
     <row r="594" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A594" s="85"/>
-      <c r="B594" s="104">
+      <c r="B594" s="104" t="str">
         <f>_xlfn.XLOOKUP(A594,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C594" s="89"/>
       <c r="D594" s="105" t="str">
@@ -25721,9 +25839,9 @@
     </row>
     <row r="597" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A597" s="85"/>
-      <c r="B597" s="104">
+      <c r="B597" s="104" t="str">
         <f>_xlfn.XLOOKUP(A597,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C597" s="89"/>
       <c r="D597" s="105" t="str">
@@ -25744,9 +25862,9 @@
     </row>
     <row r="598" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A598" s="85"/>
-      <c r="B598" s="104">
+      <c r="B598" s="104" t="str">
         <f>_xlfn.XLOOKUP(A598,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C598" s="89"/>
       <c r="D598" s="105" t="str">
@@ -25790,9 +25908,9 @@
     </row>
     <row r="600" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A600" s="85"/>
-      <c r="B600" s="104">
+      <c r="B600" s="104" t="str">
         <f>_xlfn.XLOOKUP(A600,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C600" s="89"/>
       <c r="D600" s="105" t="str">
@@ -25859,9 +25977,9 @@
     </row>
     <row r="603" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A603" s="85"/>
-      <c r="B603" s="104">
+      <c r="B603" s="104" t="str">
         <f>_xlfn.XLOOKUP(A603,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C603" s="89"/>
       <c r="D603" s="105" t="str">
@@ -25882,9 +26000,9 @@
     </row>
     <row r="604" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A604" s="85"/>
-      <c r="B604" s="104">
+      <c r="B604" s="104" t="str">
         <f>_xlfn.XLOOKUP(A604,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C604" s="89"/>
       <c r="D604" s="105" t="str">
@@ -25928,9 +26046,9 @@
     </row>
     <row r="606" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A606" s="85"/>
-      <c r="B606" s="104">
+      <c r="B606" s="104" t="str">
         <f>_xlfn.XLOOKUP(A606,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C606" s="89"/>
       <c r="D606" s="105" t="str">
@@ -25997,9 +26115,9 @@
     </row>
     <row r="609" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A609" s="85"/>
-      <c r="B609" s="104">
+      <c r="B609" s="104" t="str">
         <f>_xlfn.XLOOKUP(A609,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C609" s="89"/>
       <c r="D609" s="105" t="str">
@@ -26020,9 +26138,9 @@
     </row>
     <row r="610" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A610" s="85"/>
-      <c r="B610" s="104">
+      <c r="B610" s="104" t="str">
         <f>_xlfn.XLOOKUP(A610,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C610" s="89"/>
       <c r="D610" s="105" t="str">
@@ -26066,9 +26184,9 @@
     </row>
     <row r="612" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A612" s="85"/>
-      <c r="B612" s="104">
+      <c r="B612" s="104" t="str">
         <f>_xlfn.XLOOKUP(A612,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C612" s="89"/>
       <c r="D612" s="105" t="str">
@@ -26089,9 +26207,9 @@
     </row>
     <row r="613" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A613" s="85"/>
-      <c r="B613" s="104">
+      <c r="B613" s="104" t="str">
         <f>_xlfn.XLOOKUP(A613,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C613" s="89"/>
       <c r="D613" s="105" t="str">
@@ -26135,9 +26253,9 @@
     </row>
     <row r="615" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A615" s="85"/>
-      <c r="B615" s="104">
+      <c r="B615" s="104" t="str">
         <f>_xlfn.XLOOKUP(A615,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C615" s="89"/>
       <c r="D615" s="105" t="str">
@@ -26158,9 +26276,9 @@
     </row>
     <row r="616" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A616" s="85"/>
-      <c r="B616" s="104">
+      <c r="B616" s="104" t="str">
         <f>_xlfn.XLOOKUP(A616,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C616" s="89"/>
       <c r="D616" s="105" t="str">
@@ -26204,9 +26322,9 @@
     </row>
     <row r="618" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A618" s="85"/>
-      <c r="B618" s="104">
+      <c r="B618" s="104" t="str">
         <f>_xlfn.XLOOKUP(A618,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C618" s="89"/>
       <c r="D618" s="105" t="str">
@@ -26273,9 +26391,9 @@
     </row>
     <row r="621" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A621" s="85"/>
-      <c r="B621" s="104">
+      <c r="B621" s="104" t="str">
         <f>_xlfn.XLOOKUP(A621,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C621" s="89"/>
       <c r="D621" s="105" t="str">
@@ -26296,9 +26414,9 @@
     </row>
     <row r="622" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A622" s="85"/>
-      <c r="B622" s="104">
+      <c r="B622" s="104" t="str">
         <f>_xlfn.XLOOKUP(A622,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C622" s="89"/>
       <c r="D622" s="105" t="str">
@@ -26342,9 +26460,9 @@
     </row>
     <row r="624" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A624" s="85"/>
-      <c r="B624" s="104">
+      <c r="B624" s="104" t="str">
         <f>_xlfn.XLOOKUP(A624,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C624" s="89"/>
       <c r="D624" s="105" t="str">
@@ -26365,9 +26483,9 @@
     </row>
     <row r="625" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A625" s="85"/>
-      <c r="B625" s="104">
+      <c r="B625" s="104" t="str">
         <f>_xlfn.XLOOKUP(A625,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C625" s="89"/>
       <c r="D625" s="105" t="str">
@@ -26411,9 +26529,9 @@
     </row>
     <row r="627" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A627" s="85"/>
-      <c r="B627" s="104">
+      <c r="B627" s="104" t="str">
         <f>_xlfn.XLOOKUP(A627,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C627" s="89"/>
       <c r="D627" s="105" t="str">
@@ -26434,9 +26552,9 @@
     </row>
     <row r="628" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A628" s="85"/>
-      <c r="B628" s="104">
+      <c r="B628" s="104" t="str">
         <f>_xlfn.XLOOKUP(A628,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C628" s="89"/>
       <c r="D628" s="105" t="str">
@@ -26480,9 +26598,9 @@
     </row>
     <row r="630" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A630" s="85"/>
-      <c r="B630" s="104">
+      <c r="B630" s="104" t="str">
         <f>_xlfn.XLOOKUP(A630,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C630" s="89"/>
       <c r="D630" s="105" t="str">
@@ -26549,9 +26667,9 @@
     </row>
     <row r="633" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A633" s="85"/>
-      <c r="B633" s="104">
+      <c r="B633" s="104" t="str">
         <f>_xlfn.XLOOKUP(A633,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C633" s="89"/>
       <c r="D633" s="105" t="str">
@@ -26572,9 +26690,9 @@
     </row>
     <row r="634" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A634" s="85"/>
-      <c r="B634" s="104">
+      <c r="B634" s="104" t="str">
         <f>_xlfn.XLOOKUP(A634,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C634" s="89"/>
       <c r="D634" s="105" t="str">
@@ -26618,9 +26736,9 @@
     </row>
     <row r="636" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A636" s="85"/>
-      <c r="B636" s="104">
+      <c r="B636" s="104" t="str">
         <f>_xlfn.XLOOKUP(A636,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C636" s="89"/>
       <c r="D636" s="105" t="str">
@@ -26641,9 +26759,9 @@
     </row>
     <row r="637" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A637" s="85"/>
-      <c r="B637" s="104">
+      <c r="B637" s="104" t="str">
         <f>_xlfn.XLOOKUP(A637,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C637" s="89"/>
       <c r="D637" s="105" t="str">
@@ -26687,9 +26805,9 @@
     </row>
     <row r="639" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A639" s="85"/>
-      <c r="B639" s="104">
+      <c r="B639" s="104" t="str">
         <f>_xlfn.XLOOKUP(A639,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C639" s="89"/>
       <c r="D639" s="105" t="str">
@@ -26756,9 +26874,9 @@
     </row>
     <row r="642" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A642" s="85"/>
-      <c r="B642" s="104">
+      <c r="B642" s="104" t="str">
         <f>_xlfn.XLOOKUP(A642,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C642" s="89"/>
       <c r="D642" s="105" t="str">
@@ -26779,9 +26897,9 @@
     </row>
     <row r="643" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A643" s="85"/>
-      <c r="B643" s="104">
+      <c r="B643" s="104" t="str">
         <f>_xlfn.XLOOKUP(A643,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C643" s="89"/>
       <c r="D643" s="105" t="str">
@@ -26825,9 +26943,9 @@
     </row>
     <row r="645" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A645" s="85"/>
-      <c r="B645" s="104">
+      <c r="B645" s="104" t="str">
         <f>_xlfn.XLOOKUP(A645,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C645" s="89"/>
       <c r="D645" s="105" t="str">
@@ -26848,9 +26966,9 @@
     </row>
     <row r="646" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A646" s="85"/>
-      <c r="B646" s="104">
+      <c r="B646" s="104" t="str">
         <f>_xlfn.XLOOKUP(A646,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C646" s="89"/>
       <c r="D646" s="105" t="str">
@@ -26894,9 +27012,9 @@
     </row>
     <row r="648" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A648" s="85"/>
-      <c r="B648" s="104">
+      <c r="B648" s="104" t="str">
         <f>_xlfn.XLOOKUP(A648,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C648" s="89"/>
       <c r="D648" s="105" t="str">
@@ -26963,9 +27081,9 @@
     </row>
     <row r="651" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A651" s="85"/>
-      <c r="B651" s="104">
+      <c r="B651" s="104" t="str">
         <f>_xlfn.XLOOKUP(A651,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C651" s="89"/>
       <c r="D651" s="105" t="str">
@@ -26986,9 +27104,9 @@
     </row>
     <row r="652" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A652" s="85"/>
-      <c r="B652" s="104">
+      <c r="B652" s="104" t="str">
         <f>_xlfn.XLOOKUP(A652,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C652" s="89"/>
       <c r="D652" s="105" t="str">
@@ -27032,9 +27150,9 @@
     </row>
     <row r="654" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A654" s="85"/>
-      <c r="B654" s="104">
+      <c r="B654" s="104" t="str">
         <f>_xlfn.XLOOKUP(A654,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C654" s="89"/>
       <c r="D654" s="105" t="str">
@@ -27055,9 +27173,9 @@
     </row>
     <row r="655" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A655" s="85"/>
-      <c r="B655" s="104">
+      <c r="B655" s="104" t="str">
         <f>_xlfn.XLOOKUP(A655,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C655" s="89"/>
       <c r="D655" s="105" t="str">
@@ -27101,9 +27219,9 @@
     </row>
     <row r="657" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A657" s="85"/>
-      <c r="B657" s="104">
+      <c r="B657" s="104" t="str">
         <f>_xlfn.XLOOKUP(A657,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C657" s="89"/>
       <c r="D657" s="105" t="str">
@@ -27124,9 +27242,9 @@
     </row>
     <row r="658" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A658" s="85"/>
-      <c r="B658" s="104">
+      <c r="B658" s="104" t="str">
         <f>_xlfn.XLOOKUP(A658,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C658" s="89"/>
       <c r="D658" s="105" t="str">
@@ -27170,9 +27288,9 @@
     </row>
     <row r="660" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A660" s="85"/>
-      <c r="B660" s="104">
+      <c r="B660" s="104" t="str">
         <f>_xlfn.XLOOKUP(A660,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C660" s="89"/>
       <c r="D660" s="105" t="str">
@@ -27239,9 +27357,9 @@
     </row>
     <row r="663" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A663" s="85"/>
-      <c r="B663" s="104">
+      <c r="B663" s="104" t="str">
         <f>_xlfn.XLOOKUP(A663,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C663" s="89"/>
       <c r="D663" s="105" t="str">
@@ -27262,9 +27380,9 @@
     </row>
     <row r="664" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A664" s="85"/>
-      <c r="B664" s="104">
+      <c r="B664" s="104" t="str">
         <f>_xlfn.XLOOKUP(A664,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C664" s="89"/>
       <c r="D664" s="105" t="str">
@@ -27308,9 +27426,9 @@
     </row>
     <row r="666" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A666" s="85"/>
-      <c r="B666" s="104">
+      <c r="B666" s="104" t="str">
         <f>_xlfn.XLOOKUP(A666,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C666" s="89"/>
       <c r="D666" s="105" t="str">
@@ -27331,9 +27449,9 @@
     </row>
     <row r="667" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A667" s="85"/>
-      <c r="B667" s="104">
+      <c r="B667" s="104" t="str">
         <f>_xlfn.XLOOKUP(A667,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C667" s="89"/>
       <c r="D667" s="105" t="str">
@@ -27377,9 +27495,9 @@
     </row>
     <row r="669" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A669" s="85"/>
-      <c r="B669" s="104">
+      <c r="B669" s="104" t="str">
         <f>_xlfn.XLOOKUP(A669,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C669" s="89"/>
       <c r="D669" s="105" t="str">
@@ -27400,9 +27518,9 @@
     </row>
     <row r="670" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A670" s="85"/>
-      <c r="B670" s="104">
+      <c r="B670" s="104" t="str">
         <f>_xlfn.XLOOKUP(A670,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C670" s="89"/>
       <c r="D670" s="105" t="str">
@@ -27446,9 +27564,9 @@
     </row>
     <row r="672" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A672" s="85"/>
-      <c r="B672" s="104">
+      <c r="B672" s="104" t="str">
         <f>_xlfn.XLOOKUP(A672,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C672" s="89"/>
       <c r="D672" s="105" t="str">
@@ -27515,9 +27633,9 @@
     </row>
     <row r="675" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A675" s="85"/>
-      <c r="B675" s="104">
+      <c r="B675" s="104" t="str">
         <f>_xlfn.XLOOKUP(A675,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C675" s="89"/>
       <c r="D675" s="105" t="str">
@@ -27538,9 +27656,9 @@
     </row>
     <row r="676" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A676" s="85"/>
-      <c r="B676" s="104">
+      <c r="B676" s="104" t="str">
         <f>_xlfn.XLOOKUP(A676,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C676" s="89"/>
       <c r="D676" s="105" t="str">
@@ -27584,9 +27702,9 @@
     </row>
     <row r="678" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A678" s="85"/>
-      <c r="B678" s="104">
+      <c r="B678" s="104" t="str">
         <f>_xlfn.XLOOKUP(A678,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C678" s="89"/>
       <c r="D678" s="105" t="str">
@@ -27607,9 +27725,9 @@
     </row>
     <row r="679" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A679" s="85"/>
-      <c r="B679" s="104">
+      <c r="B679" s="104" t="str">
         <f>_xlfn.XLOOKUP(A679,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C679" s="89"/>
       <c r="D679" s="105" t="str">
@@ -27653,9 +27771,9 @@
     </row>
     <row r="681" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A681" s="85"/>
-      <c r="B681" s="104">
+      <c r="B681" s="104" t="str">
         <f>_xlfn.XLOOKUP(A681,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C681" s="89"/>
       <c r="D681" s="105" t="str">
@@ -27722,9 +27840,9 @@
     </row>
     <row r="684" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A684" s="85"/>
-      <c r="B684" s="104">
+      <c r="B684" s="104" t="str">
         <f>_xlfn.XLOOKUP(A684,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C684" s="89"/>
       <c r="D684" s="105" t="str">
@@ -27745,9 +27863,9 @@
     </row>
     <row r="685" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A685" s="85"/>
-      <c r="B685" s="104">
+      <c r="B685" s="104" t="str">
         <f>_xlfn.XLOOKUP(A685,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C685" s="89"/>
       <c r="D685" s="105" t="str">
@@ -27791,9 +27909,9 @@
     </row>
     <row r="687" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A687" s="85"/>
-      <c r="B687" s="104">
+      <c r="B687" s="104" t="str">
         <f>_xlfn.XLOOKUP(A687,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C687" s="89"/>
       <c r="D687" s="105" t="str">
@@ -27814,9 +27932,9 @@
     </row>
     <row r="688" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A688" s="85"/>
-      <c r="B688" s="104">
+      <c r="B688" s="104" t="str">
         <f>_xlfn.XLOOKUP(A688,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C688" s="89"/>
       <c r="D688" s="105" t="str">
@@ -27860,9 +27978,9 @@
     </row>
     <row r="690" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A690" s="85"/>
-      <c r="B690" s="104">
+      <c r="B690" s="104" t="str">
         <f>_xlfn.XLOOKUP(A690,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C690" s="89"/>
       <c r="D690" s="105" t="str">
@@ -27883,9 +28001,9 @@
     </row>
     <row r="691" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A691" s="85"/>
-      <c r="B691" s="104">
+      <c r="B691" s="104" t="str">
         <f>_xlfn.XLOOKUP(A691,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C691" s="89"/>
       <c r="D691" s="105" t="str">
@@ -27929,9 +28047,9 @@
     </row>
     <row r="693" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A693" s="85"/>
-      <c r="B693" s="104">
+      <c r="B693" s="104" t="str">
         <f>_xlfn.XLOOKUP(A693,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C693" s="89"/>
       <c r="D693" s="105" t="str">
@@ -27998,9 +28116,9 @@
     </row>
     <row r="696" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A696" s="85"/>
-      <c r="B696" s="104">
+      <c r="B696" s="104" t="str">
         <f>_xlfn.XLOOKUP(A696,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C696" s="89"/>
       <c r="D696" s="105" t="str">
@@ -28021,9 +28139,9 @@
     </row>
     <row r="697" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A697" s="85"/>
-      <c r="B697" s="104">
+      <c r="B697" s="104" t="str">
         <f>_xlfn.XLOOKUP(A697,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C697" s="89"/>
       <c r="D697" s="105" t="str">
@@ -28067,9 +28185,9 @@
     </row>
     <row r="699" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A699" s="85"/>
-      <c r="B699" s="104">
+      <c r="B699" s="104" t="str">
         <f>_xlfn.XLOOKUP(A699,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C699" s="89"/>
       <c r="D699" s="105" t="str">
@@ -28090,9 +28208,9 @@
     </row>
     <row r="700" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A700" s="85"/>
-      <c r="B700" s="104">
+      <c r="B700" s="104" t="str">
         <f>_xlfn.XLOOKUP(A700,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C700" s="89"/>
       <c r="D700" s="105" t="str">
@@ -28136,9 +28254,9 @@
     </row>
     <row r="702" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A702" s="85"/>
-      <c r="B702" s="104">
+      <c r="B702" s="104" t="str">
         <f>_xlfn.XLOOKUP(A702,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C702" s="89"/>
       <c r="D702" s="105" t="str">
@@ -28159,9 +28277,9 @@
     </row>
     <row r="703" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A703" s="85"/>
-      <c r="B703" s="104">
+      <c r="B703" s="104" t="str">
         <f>_xlfn.XLOOKUP(A703,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C703" s="89"/>
       <c r="D703" s="105" t="str">
@@ -28205,9 +28323,9 @@
     </row>
     <row r="705" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A705" s="85"/>
-      <c r="B705" s="104">
+      <c r="B705" s="104" t="str">
         <f>_xlfn.XLOOKUP(A705,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C705" s="89"/>
       <c r="D705" s="105" t="str">
@@ -28274,9 +28392,9 @@
     </row>
     <row r="708" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A708" s="85"/>
-      <c r="B708" s="104">
+      <c r="B708" s="104" t="str">
         <f>_xlfn.XLOOKUP(A708,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C708" s="89"/>
       <c r="D708" s="105" t="str">
@@ -28297,9 +28415,9 @@
     </row>
     <row r="709" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A709" s="85"/>
-      <c r="B709" s="104">
+      <c r="B709" s="104" t="str">
         <f>_xlfn.XLOOKUP(A709,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C709" s="89"/>
       <c r="D709" s="105" t="str">
@@ -28343,9 +28461,9 @@
     </row>
     <row r="711" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A711" s="85"/>
-      <c r="B711" s="104">
+      <c r="B711" s="104" t="str">
         <f>_xlfn.XLOOKUP(A711,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C711" s="89"/>
       <c r="D711" s="105" t="str">
@@ -28366,9 +28484,9 @@
     </row>
     <row r="712" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A712" s="85"/>
-      <c r="B712" s="104">
+      <c r="B712" s="104" t="str">
         <f>_xlfn.XLOOKUP(A712,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C712" s="89"/>
       <c r="D712" s="105" t="str">
@@ -28412,9 +28530,9 @@
     </row>
     <row r="714" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A714" s="85"/>
-      <c r="B714" s="104">
+      <c r="B714" s="104" t="str">
         <f>_xlfn.XLOOKUP(A714,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C714" s="89"/>
       <c r="D714" s="105" t="str">
@@ -28481,9 +28599,9 @@
     </row>
     <row r="717" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A717" s="85"/>
-      <c r="B717" s="104">
+      <c r="B717" s="104" t="str">
         <f>_xlfn.XLOOKUP(A717,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C717" s="89"/>
       <c r="D717" s="105" t="str">
@@ -28504,9 +28622,9 @@
     </row>
     <row r="718" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A718" s="85"/>
-      <c r="B718" s="104">
+      <c r="B718" s="104" t="str">
         <f>_xlfn.XLOOKUP(A718,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C718" s="89"/>
       <c r="D718" s="105" t="str">
@@ -28550,9 +28668,9 @@
     </row>
     <row r="720" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A720" s="85"/>
-      <c r="B720" s="104">
+      <c r="B720" s="104" t="str">
         <f>_xlfn.XLOOKUP(A720,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C720" s="89"/>
       <c r="D720" s="105" t="str">
@@ -28573,9 +28691,9 @@
     </row>
     <row r="721" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A721" s="85"/>
-      <c r="B721" s="104">
+      <c r="B721" s="104" t="str">
         <f>_xlfn.XLOOKUP(A721,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C721" s="89"/>
       <c r="D721" s="105" t="str">
@@ -28619,9 +28737,9 @@
     </row>
     <row r="723" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A723" s="85"/>
-      <c r="B723" s="104">
+      <c r="B723" s="104" t="str">
         <f>_xlfn.XLOOKUP(A723,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C723" s="89"/>
       <c r="D723" s="105" t="str">
@@ -28642,9 +28760,9 @@
     </row>
     <row r="724" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A724" s="85"/>
-      <c r="B724" s="104">
+      <c r="B724" s="104" t="str">
         <f>_xlfn.XLOOKUP(A724,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C724" s="89"/>
       <c r="D724" s="105" t="str">
@@ -28688,9 +28806,9 @@
     </row>
     <row r="726" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A726" s="85"/>
-      <c r="B726" s="104">
+      <c r="B726" s="104" t="str">
         <f>_xlfn.XLOOKUP(A726,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C726" s="89"/>
       <c r="D726" s="105" t="str">
@@ -28757,9 +28875,9 @@
     </row>
     <row r="729" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A729" s="85"/>
-      <c r="B729" s="104">
+      <c r="B729" s="104" t="str">
         <f>_xlfn.XLOOKUP(A729,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C729" s="89"/>
       <c r="D729" s="105" t="str">
@@ -28780,9 +28898,9 @@
     </row>
     <row r="730" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A730" s="85"/>
-      <c r="B730" s="104">
+      <c r="B730" s="104" t="str">
         <f>_xlfn.XLOOKUP(A730,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C730" s="89"/>
       <c r="D730" s="105" t="str">
@@ -28826,9 +28944,9 @@
     </row>
     <row r="732" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A732" s="85"/>
-      <c r="B732" s="104">
+      <c r="B732" s="104" t="str">
         <f>_xlfn.XLOOKUP(A732,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C732" s="89"/>
       <c r="D732" s="105" t="str">
@@ -28849,9 +28967,9 @@
     </row>
     <row r="733" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A733" s="85"/>
-      <c r="B733" s="104">
+      <c r="B733" s="104" t="str">
         <f>_xlfn.XLOOKUP(A733,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C733" s="89"/>
       <c r="D733" s="105" t="str">
@@ -28895,9 +29013,9 @@
     </row>
     <row r="735" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A735" s="85"/>
-      <c r="B735" s="104">
+      <c r="B735" s="104" t="str">
         <f>_xlfn.XLOOKUP(A735,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C735" s="89"/>
       <c r="D735" s="105" t="str">
@@ -28964,9 +29082,9 @@
     </row>
     <row r="738" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A738" s="85"/>
-      <c r="B738" s="104">
+      <c r="B738" s="104" t="str">
         <f>_xlfn.XLOOKUP(A738,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C738" s="89"/>
       <c r="D738" s="105" t="str">
@@ -28987,9 +29105,9 @@
     </row>
     <row r="739" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A739" s="85"/>
-      <c r="B739" s="104">
+      <c r="B739" s="104" t="str">
         <f>_xlfn.XLOOKUP(A739,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C739" s="89"/>
       <c r="D739" s="105" t="str">
@@ -29033,9 +29151,9 @@
     </row>
     <row r="741" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A741" s="85"/>
-      <c r="B741" s="104">
+      <c r="B741" s="104" t="str">
         <f>_xlfn.XLOOKUP(A741,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C741" s="89"/>
       <c r="D741" s="105" t="str">
@@ -29056,9 +29174,9 @@
     </row>
     <row r="742" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A742" s="85"/>
-      <c r="B742" s="104">
+      <c r="B742" s="104" t="str">
         <f>_xlfn.XLOOKUP(A742,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C742" s="89"/>
       <c r="D742" s="105" t="str">
@@ -29102,9 +29220,9 @@
     </row>
     <row r="744" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A744" s="85"/>
-      <c r="B744" s="104">
+      <c r="B744" s="104" t="str">
         <f>_xlfn.XLOOKUP(A744,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C744" s="89"/>
       <c r="D744" s="105" t="str">
@@ -29125,9 +29243,9 @@
     </row>
     <row r="745" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A745" s="85"/>
-      <c r="B745" s="104">
+      <c r="B745" s="104" t="str">
         <f>_xlfn.XLOOKUP(A745,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C745" s="89"/>
       <c r="D745" s="105" t="str">
@@ -29171,9 +29289,9 @@
     </row>
     <row r="747" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A747" s="85"/>
-      <c r="B747" s="104">
+      <c r="B747" s="104" t="str">
         <f>_xlfn.XLOOKUP(A747,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C747" s="89"/>
       <c r="D747" s="105" t="str">
@@ -29240,9 +29358,9 @@
     </row>
     <row r="750" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A750" s="85"/>
-      <c r="B750" s="104">
+      <c r="B750" s="104" t="str">
         <f>_xlfn.XLOOKUP(A750,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C750" s="89"/>
       <c r="D750" s="105" t="str">
@@ -29263,9 +29381,9 @@
     </row>
     <row r="751" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A751" s="85"/>
-      <c r="B751" s="104">
+      <c r="B751" s="104" t="str">
         <f>_xlfn.XLOOKUP(A751,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C751" s="89"/>
       <c r="D751" s="105" t="str">
@@ -29309,9 +29427,9 @@
     </row>
     <row r="753" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A753" s="85"/>
-      <c r="B753" s="104">
+      <c r="B753" s="104" t="str">
         <f>_xlfn.XLOOKUP(A753,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C753" s="89"/>
       <c r="D753" s="105" t="str">
@@ -29332,9 +29450,9 @@
     </row>
     <row r="754" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A754" s="85"/>
-      <c r="B754" s="104">
+      <c r="B754" s="104" t="str">
         <f>_xlfn.XLOOKUP(A754,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C754" s="89"/>
       <c r="D754" s="105" t="str">
@@ -29378,9 +29496,9 @@
     </row>
     <row r="756" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A756" s="85"/>
-      <c r="B756" s="104">
+      <c r="B756" s="104" t="str">
         <f>_xlfn.XLOOKUP(A756,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C756" s="89"/>
       <c r="D756" s="105" t="str">
@@ -29447,9 +29565,9 @@
     </row>
     <row r="759" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A759" s="85"/>
-      <c r="B759" s="104">
+      <c r="B759" s="104" t="str">
         <f>_xlfn.XLOOKUP(A759,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C759" s="89"/>
       <c r="D759" s="105" t="str">
@@ -29470,9 +29588,9 @@
     </row>
     <row r="760" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A760" s="85"/>
-      <c r="B760" s="104">
+      <c r="B760" s="104" t="str">
         <f>_xlfn.XLOOKUP(A760,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C760" s="89"/>
       <c r="D760" s="105" t="str">
@@ -29516,9 +29634,9 @@
     </row>
     <row r="762" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A762" s="85"/>
-      <c r="B762" s="104">
+      <c r="B762" s="104" t="str">
         <f>_xlfn.XLOOKUP(A762,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C762" s="89"/>
       <c r="D762" s="105" t="str">
@@ -29539,9 +29657,9 @@
     </row>
     <row r="763" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A763" s="85"/>
-      <c r="B763" s="104">
+      <c r="B763" s="104" t="str">
         <f>_xlfn.XLOOKUP(A763,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C763" s="89"/>
       <c r="D763" s="105" t="str">
@@ -29585,9 +29703,9 @@
     </row>
     <row r="765" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A765" s="85"/>
-      <c r="B765" s="104">
+      <c r="B765" s="104" t="str">
         <f>_xlfn.XLOOKUP(A765,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C765" s="89"/>
       <c r="D765" s="105" t="str">
@@ -29608,9 +29726,9 @@
     </row>
     <row r="766" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A766" s="85"/>
-      <c r="B766" s="104">
+      <c r="B766" s="104" t="str">
         <f>_xlfn.XLOOKUP(A766,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C766" s="89"/>
       <c r="D766" s="105" t="str">
@@ -29654,9 +29772,9 @@
     </row>
     <row r="768" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A768" s="85"/>
-      <c r="B768" s="104">
+      <c r="B768" s="104" t="str">
         <f>_xlfn.XLOOKUP(A768,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C768" s="89"/>
       <c r="D768" s="105" t="str">
@@ -29723,9 +29841,9 @@
     </row>
     <row r="771" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A771" s="85"/>
-      <c r="B771" s="104">
+      <c r="B771" s="104" t="str">
         <f>_xlfn.XLOOKUP(A771,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C771" s="89"/>
       <c r="D771" s="105" t="str">
@@ -29746,9 +29864,9 @@
     </row>
     <row r="772" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A772" s="85"/>
-      <c r="B772" s="104">
+      <c r="B772" s="104" t="str">
         <f>_xlfn.XLOOKUP(A772,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C772" s="89"/>
       <c r="D772" s="105" t="str">
@@ -29792,9 +29910,9 @@
     </row>
     <row r="774" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A774" s="85"/>
-      <c r="B774" s="104">
+      <c r="B774" s="104" t="str">
         <f>_xlfn.XLOOKUP(A774,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C774" s="89"/>
       <c r="D774" s="105" t="str">
@@ -29815,9 +29933,9 @@
     </row>
     <row r="775" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A775" s="85"/>
-      <c r="B775" s="104">
+      <c r="B775" s="104" t="str">
         <f>_xlfn.XLOOKUP(A775,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C775" s="89"/>
       <c r="D775" s="105" t="str">
@@ -29861,9 +29979,9 @@
     </row>
     <row r="777" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A777" s="85"/>
-      <c r="B777" s="104">
+      <c r="B777" s="104" t="str">
         <f>_xlfn.XLOOKUP(A777,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C777" s="89"/>
       <c r="D777" s="105" t="str">
@@ -29930,9 +30048,9 @@
     </row>
     <row r="780" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A780" s="85"/>
-      <c r="B780" s="104">
+      <c r="B780" s="104" t="str">
         <f>_xlfn.XLOOKUP(A780,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C780" s="89"/>
       <c r="D780" s="105" t="str">
@@ -29953,9 +30071,9 @@
     </row>
     <row r="781" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A781" s="85"/>
-      <c r="B781" s="104">
+      <c r="B781" s="104" t="str">
         <f>_xlfn.XLOOKUP(A781,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C781" s="89"/>
       <c r="D781" s="105" t="str">
@@ -29999,9 +30117,9 @@
     </row>
     <row r="783" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A783" s="85"/>
-      <c r="B783" s="104">
+      <c r="B783" s="104" t="str">
         <f>_xlfn.XLOOKUP(A783,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C783" s="89"/>
       <c r="D783" s="105" t="str">
@@ -30022,9 +30140,9 @@
     </row>
     <row r="784" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A784" s="85"/>
-      <c r="B784" s="104">
+      <c r="B784" s="104" t="str">
         <f>_xlfn.XLOOKUP(A784,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C784" s="89"/>
       <c r="D784" s="105" t="str">
@@ -30068,9 +30186,9 @@
     </row>
     <row r="786" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A786" s="85"/>
-      <c r="B786" s="104">
+      <c r="B786" s="104" t="str">
         <f>_xlfn.XLOOKUP(A786,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C786" s="89"/>
       <c r="D786" s="105" t="str">
@@ -30091,9 +30209,9 @@
     </row>
     <row r="787" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A787" s="85"/>
-      <c r="B787" s="104">
+      <c r="B787" s="104" t="str">
         <f>_xlfn.XLOOKUP(A787,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C787" s="89"/>
       <c r="D787" s="105" t="str">
@@ -30137,9 +30255,9 @@
     </row>
     <row r="789" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A789" s="85"/>
-      <c r="B789" s="104">
+      <c r="B789" s="104" t="str">
         <f>_xlfn.XLOOKUP(A789,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C789" s="89"/>
       <c r="D789" s="105" t="str">
@@ -30206,9 +30324,9 @@
     </row>
     <row r="792" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A792" s="85"/>
-      <c r="B792" s="104">
+      <c r="B792" s="104" t="str">
         <f>_xlfn.XLOOKUP(A792,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C792" s="89"/>
       <c r="D792" s="105" t="str">
@@ -30229,9 +30347,9 @@
     </row>
     <row r="793" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A793" s="85"/>
-      <c r="B793" s="104">
+      <c r="B793" s="104" t="str">
         <f>_xlfn.XLOOKUP(A793,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C793" s="89"/>
       <c r="D793" s="105" t="str">
@@ -30275,9 +30393,9 @@
     </row>
     <row r="795" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A795" s="85"/>
-      <c r="B795" s="104">
+      <c r="B795" s="104" t="str">
         <f>_xlfn.XLOOKUP(A795,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C795" s="89"/>
       <c r="D795" s="105" t="str">
@@ -30298,9 +30416,9 @@
     </row>
     <row r="796" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A796" s="85"/>
-      <c r="B796" s="104">
+      <c r="B796" s="104" t="str">
         <f>_xlfn.XLOOKUP(A796,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C796" s="89"/>
       <c r="D796" s="105" t="str">
@@ -30344,9 +30462,9 @@
     </row>
     <row r="798" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A798" s="85"/>
-      <c r="B798" s="104">
+      <c r="B798" s="104" t="str">
         <f>_xlfn.XLOOKUP(A798,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C798" s="89"/>
       <c r="D798" s="105" t="str">
@@ -30413,9 +30531,9 @@
     </row>
     <row r="801" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A801" s="85"/>
-      <c r="B801" s="104">
+      <c r="B801" s="104" t="str">
         <f>_xlfn.XLOOKUP(A801,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C801" s="89"/>
       <c r="D801" s="105" t="str">
@@ -30436,9 +30554,9 @@
     </row>
     <row r="802" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A802" s="85"/>
-      <c r="B802" s="104">
+      <c r="B802" s="104" t="str">
         <f>_xlfn.XLOOKUP(A802,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C802" s="89"/>
       <c r="D802" s="105" t="str">
@@ -30482,9 +30600,9 @@
     </row>
     <row r="804" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A804" s="85"/>
-      <c r="B804" s="104">
+      <c r="B804" s="104" t="str">
         <f>_xlfn.XLOOKUP(A804,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C804" s="89"/>
       <c r="D804" s="105" t="str">
@@ -30505,9 +30623,9 @@
     </row>
     <row r="805" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A805" s="85"/>
-      <c r="B805" s="104">
+      <c r="B805" s="104" t="str">
         <f>_xlfn.XLOOKUP(A805,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C805" s="89"/>
       <c r="D805" s="105" t="str">
@@ -30551,9 +30669,9 @@
     </row>
     <row r="807" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A807" s="85"/>
-      <c r="B807" s="104">
+      <c r="B807" s="104" t="str">
         <f>_xlfn.XLOOKUP(A807,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C807" s="89"/>
       <c r="D807" s="105" t="str">
@@ -30597,9 +30715,9 @@
     </row>
     <row r="809" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A809" s="85"/>
-      <c r="B809" s="104">
+      <c r="B809" s="104" t="str">
         <f>_xlfn.XLOOKUP(A809,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C809" s="89"/>
       <c r="D809" s="105" t="str">
@@ -30620,9 +30738,9 @@
     </row>
     <row r="810" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A810" s="85"/>
-      <c r="B810" s="104">
+      <c r="B810" s="104" t="str">
         <f>_xlfn.XLOOKUP(A810,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C810" s="89"/>
       <c r="D810" s="105" t="str">
@@ -30643,9 +30761,9 @@
     </row>
     <row r="811" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A811" s="85"/>
-      <c r="B811" s="104">
+      <c r="B811" s="104" t="str">
         <f>_xlfn.XLOOKUP(A811,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C811" s="89"/>
       <c r="D811" s="105" t="str">
@@ -30689,9 +30807,9 @@
     </row>
     <row r="813" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A813" s="85"/>
-      <c r="B813" s="104">
+      <c r="B813" s="104" t="str">
         <f>_xlfn.XLOOKUP(A813,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C813" s="89"/>
       <c r="D813" s="105" t="str">
@@ -30712,9 +30830,9 @@
     </row>
     <row r="814" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A814" s="85"/>
-      <c r="B814" s="104">
+      <c r="B814" s="104" t="str">
         <f>_xlfn.XLOOKUP(A814,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C814" s="89"/>
       <c r="D814" s="105" t="str">
@@ -30735,9 +30853,9 @@
     </row>
     <row r="815" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A815" s="85"/>
-      <c r="B815" s="104">
+      <c r="B815" s="104" t="str">
         <f>_xlfn.XLOOKUP(A815,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C815" s="89"/>
       <c r="D815" s="105" t="str">
@@ -30758,9 +30876,9 @@
     </row>
     <row r="816" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A816" s="85"/>
-      <c r="B816" s="104">
+      <c r="B816" s="104" t="str">
         <f>_xlfn.XLOOKUP(A816,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C816" s="89"/>
       <c r="D816" s="105" t="str">
@@ -30781,9 +30899,9 @@
     </row>
     <row r="817" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A817" s="85"/>
-      <c r="B817" s="104">
+      <c r="B817" s="104" t="str">
         <f>_xlfn.XLOOKUP(A817,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C817" s="89"/>
       <c r="D817" s="105" t="str">
@@ -30827,9 +30945,9 @@
     </row>
     <row r="819" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A819" s="85"/>
-      <c r="B819" s="104">
+      <c r="B819" s="104" t="str">
         <f>_xlfn.XLOOKUP(A819,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C819" s="89"/>
       <c r="D819" s="105" t="str">
@@ -30896,9 +31014,9 @@
     </row>
     <row r="822" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A822" s="85"/>
-      <c r="B822" s="104">
+      <c r="B822" s="104" t="str">
         <f>_xlfn.XLOOKUP(A822,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C822" s="89"/>
       <c r="D822" s="105" t="str">
@@ -30919,9 +31037,9 @@
     </row>
     <row r="823" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A823" s="85"/>
-      <c r="B823" s="104">
+      <c r="B823" s="104" t="str">
         <f>_xlfn.XLOOKUP(A823,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C823" s="89"/>
       <c r="D823" s="105" t="str">
@@ -30942,9 +31060,9 @@
     </row>
     <row r="824" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A824" s="85"/>
-      <c r="B824" s="104">
+      <c r="B824" s="104" t="str">
         <f>_xlfn.XLOOKUP(A824,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C824" s="89"/>
       <c r="D824" s="105" t="str">
@@ -30965,9 +31083,9 @@
     </row>
     <row r="825" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A825" s="85"/>
-      <c r="B825" s="104">
+      <c r="B825" s="104" t="str">
         <f>_xlfn.XLOOKUP(A825,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C825" s="89"/>
       <c r="D825" s="105" t="str">
@@ -30988,9 +31106,9 @@
     </row>
     <row r="826" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A826" s="85"/>
-      <c r="B826" s="104">
+      <c r="B826" s="104" t="str">
         <f>_xlfn.XLOOKUP(A826,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C826" s="89"/>
       <c r="D826" s="105" t="str">
@@ -31011,9 +31129,9 @@
     </row>
     <row r="827" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A827" s="85"/>
-      <c r="B827" s="104">
+      <c r="B827" s="104" t="str">
         <f>_xlfn.XLOOKUP(A827,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C827" s="89"/>
       <c r="D827" s="105" t="str">
@@ -31034,9 +31152,9 @@
     </row>
     <row r="828" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A828" s="85"/>
-      <c r="B828" s="104">
+      <c r="B828" s="104" t="str">
         <f>_xlfn.XLOOKUP(A828,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C828" s="89"/>
       <c r="D828" s="105" t="str">
@@ -31103,9 +31221,9 @@
     </row>
     <row r="831" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A831" s="85"/>
-      <c r="B831" s="104">
+      <c r="B831" s="104" t="str">
         <f>_xlfn.XLOOKUP(A831,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C831" s="89"/>
       <c r="D831" s="105" t="str">
@@ -31126,9 +31244,9 @@
     </row>
     <row r="832" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A832" s="85"/>
-      <c r="B832" s="104">
+      <c r="B832" s="104" t="str">
         <f>_xlfn.XLOOKUP(A832,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C832" s="89"/>
       <c r="D832" s="105" t="str">
@@ -31149,9 +31267,9 @@
     </row>
     <row r="833" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A833" s="85"/>
-      <c r="B833" s="104">
+      <c r="B833" s="104" t="str">
         <f>_xlfn.XLOOKUP(A833,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C833" s="89"/>
       <c r="D833" s="105" t="str">
@@ -31172,9 +31290,9 @@
     </row>
     <row r="834" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A834" s="85"/>
-      <c r="B834" s="104">
+      <c r="B834" s="104" t="str">
         <f>_xlfn.XLOOKUP(A834,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C834" s="89"/>
       <c r="D834" s="105" t="str">
@@ -31195,9 +31313,9 @@
     </row>
     <row r="835" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A835" s="85"/>
-      <c r="B835" s="104">
+      <c r="B835" s="104" t="str">
         <f>_xlfn.XLOOKUP(A835,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C835" s="89"/>
       <c r="D835" s="105" t="str">
@@ -31218,9 +31336,9 @@
     </row>
     <row r="836" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A836" s="85"/>
-      <c r="B836" s="104">
+      <c r="B836" s="104" t="str">
         <f>_xlfn.XLOOKUP(A836,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C836" s="89"/>
       <c r="D836" s="105" t="str">
@@ -31241,9 +31359,9 @@
     </row>
     <row r="837" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A837" s="85"/>
-      <c r="B837" s="104">
+      <c r="B837" s="104" t="str">
         <f>_xlfn.XLOOKUP(A837,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C837" s="89"/>
       <c r="D837" s="105" t="str">
@@ -31264,9 +31382,9 @@
     </row>
     <row r="838" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A838" s="85"/>
-      <c r="B838" s="104">
+      <c r="B838" s="104" t="str">
         <f>_xlfn.XLOOKUP(A838,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C838" s="89"/>
       <c r="D838" s="105" t="str">
@@ -31287,9 +31405,9 @@
     </row>
     <row r="839" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A839" s="85"/>
-      <c r="B839" s="104">
+      <c r="B839" s="104" t="str">
         <f>_xlfn.XLOOKUP(A839,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C839" s="89"/>
       <c r="D839" s="105" t="str">
@@ -31310,9 +31428,9 @@
     </row>
     <row r="840" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A840" s="85"/>
-      <c r="B840" s="104">
+      <c r="B840" s="104" t="str">
         <f>_xlfn.XLOOKUP(A840,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C840" s="89"/>
       <c r="D840" s="105" t="str">
@@ -31379,9 +31497,9 @@
     </row>
     <row r="843" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A843" s="85"/>
-      <c r="B843" s="104">
+      <c r="B843" s="104" t="str">
         <f>_xlfn.XLOOKUP(A843,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C843" s="89"/>
       <c r="D843" s="105" t="str">
@@ -31402,9 +31520,9 @@
     </row>
     <row r="844" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A844" s="85"/>
-      <c r="B844" s="104">
+      <c r="B844" s="104" t="str">
         <f>_xlfn.XLOOKUP(A844,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C844" s="89"/>
       <c r="D844" s="105" t="str">
@@ -31448,9 +31566,9 @@
     </row>
     <row r="846" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A846" s="85"/>
-      <c r="B846" s="104">
+      <c r="B846" s="104" t="str">
         <f>_xlfn.XLOOKUP(A846,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C846" s="89"/>
       <c r="D846" s="105" t="str">
@@ -31471,9 +31589,9 @@
     </row>
     <row r="847" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A847" s="85"/>
-      <c r="B847" s="104">
+      <c r="B847" s="104" t="str">
         <f>_xlfn.XLOOKUP(A847,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C847" s="89"/>
       <c r="D847" s="105" t="str">
@@ -31494,9 +31612,9 @@
     </row>
     <row r="848" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A848" s="85"/>
-      <c r="B848" s="104">
+      <c r="B848" s="104" t="str">
         <f>_xlfn.XLOOKUP(A848,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C848" s="89"/>
       <c r="D848" s="105" t="str">
@@ -31517,9 +31635,9 @@
     </row>
     <row r="849" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A849" s="85"/>
-      <c r="B849" s="104">
+      <c r="B849" s="104" t="str">
         <f>_xlfn.XLOOKUP(A849,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C849" s="89"/>
       <c r="D849" s="105" t="str">
@@ -31540,9 +31658,9 @@
     </row>
     <row r="850" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A850" s="85"/>
-      <c r="B850" s="104">
+      <c r="B850" s="104" t="str">
         <f>_xlfn.XLOOKUP(A850,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C850" s="89"/>
       <c r="D850" s="105" t="str">
@@ -31563,9 +31681,9 @@
     </row>
     <row r="851" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A851" s="85"/>
-      <c r="B851" s="104">
+      <c r="B851" s="104" t="str">
         <f>_xlfn.XLOOKUP(A851,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C851" s="89"/>
       <c r="D851" s="105" t="str">
@@ -31586,9 +31704,9 @@
     </row>
     <row r="852" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A852" s="85"/>
-      <c r="B852" s="104">
+      <c r="B852" s="104" t="str">
         <f>_xlfn.XLOOKUP(A852,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C852" s="89"/>
       <c r="D852" s="105" t="str">
@@ -31655,9 +31773,9 @@
     </row>
     <row r="855" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A855" s="85"/>
-      <c r="B855" s="104">
+      <c r="B855" s="104" t="str">
         <f>_xlfn.XLOOKUP(A855,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C855" s="89"/>
       <c r="D855" s="105" t="str">
@@ -31678,9 +31796,9 @@
     </row>
     <row r="856" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A856" s="85"/>
-      <c r="B856" s="104">
+      <c r="B856" s="104" t="str">
         <f>_xlfn.XLOOKUP(A856,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C856" s="89"/>
       <c r="D856" s="105" t="str">
@@ -31701,9 +31819,9 @@
     </row>
     <row r="857" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A857" s="85"/>
-      <c r="B857" s="104">
+      <c r="B857" s="104" t="str">
         <f>_xlfn.XLOOKUP(A857,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C857" s="89"/>
       <c r="D857" s="105" t="str">
@@ -31724,9 +31842,9 @@
     </row>
     <row r="858" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A858" s="85"/>
-      <c r="B858" s="104">
+      <c r="B858" s="104" t="str">
         <f>_xlfn.XLOOKUP(A858,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C858" s="89"/>
       <c r="D858" s="105" t="str">
@@ -31747,9 +31865,9 @@
     </row>
     <row r="859" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A859" s="85"/>
-      <c r="B859" s="104">
+      <c r="B859" s="104" t="str">
         <f>_xlfn.XLOOKUP(A859,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C859" s="89"/>
       <c r="D859" s="105" t="str">
@@ -31793,9 +31911,9 @@
     </row>
     <row r="861" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A861" s="85"/>
-      <c r="B861" s="104">
+      <c r="B861" s="104" t="str">
         <f>_xlfn.XLOOKUP(A861,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C861" s="89"/>
       <c r="D861" s="105" t="str">
@@ -31839,9 +31957,9 @@
     </row>
     <row r="863" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A863" s="85"/>
-      <c r="B863" s="104">
+      <c r="B863" s="104" t="str">
         <f>_xlfn.XLOOKUP(A863,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C863" s="89"/>
       <c r="D863" s="105" t="str">
@@ -31862,9 +31980,9 @@
     </row>
     <row r="864" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A864" s="85"/>
-      <c r="B864" s="104">
+      <c r="B864" s="104" t="str">
         <f>_xlfn.XLOOKUP(A864,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C864" s="89"/>
       <c r="D864" s="105" t="str">
@@ -31885,9 +32003,9 @@
     </row>
     <row r="865" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A865" s="85"/>
-      <c r="B865" s="104">
+      <c r="B865" s="104" t="str">
         <f>_xlfn.XLOOKUP(A865,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C865" s="89"/>
       <c r="D865" s="105" t="str">
@@ -31908,9 +32026,9 @@
     </row>
     <row r="866" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A866" s="85"/>
-      <c r="B866" s="104">
+      <c r="B866" s="104" t="str">
         <f>_xlfn.XLOOKUP(A866,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C866" s="89"/>
       <c r="D866" s="105" t="str">
@@ -31931,9 +32049,9 @@
     </row>
     <row r="867" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A867" s="85"/>
-      <c r="B867" s="104">
+      <c r="B867" s="104" t="str">
         <f>_xlfn.XLOOKUP(A867,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C867" s="89"/>
       <c r="D867" s="105" t="str">
@@ -31954,9 +32072,9 @@
     </row>
     <row r="868" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A868" s="85"/>
-      <c r="B868" s="104">
+      <c r="B868" s="104" t="str">
         <f>_xlfn.XLOOKUP(A868,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C868" s="89"/>
       <c r="D868" s="105" t="str">
@@ -32000,9 +32118,9 @@
     </row>
     <row r="870" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A870" s="85"/>
-      <c r="B870" s="104">
+      <c r="B870" s="104" t="str">
         <f>_xlfn.XLOOKUP(A870,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C870" s="89"/>
       <c r="D870" s="105" t="str">
@@ -32023,9 +32141,9 @@
     </row>
     <row r="871" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A871" s="85"/>
-      <c r="B871" s="104">
+      <c r="B871" s="104" t="str">
         <f>_xlfn.XLOOKUP(A871,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C871" s="89"/>
       <c r="D871" s="105" t="str">
@@ -32069,9 +32187,9 @@
     </row>
     <row r="873" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A873" s="85"/>
-      <c r="B873" s="104">
+      <c r="B873" s="104" t="str">
         <f>_xlfn.XLOOKUP(A873,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C873" s="89"/>
       <c r="D873" s="105" t="str">
@@ -32115,9 +32233,9 @@
     </row>
     <row r="875" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A875" s="85"/>
-      <c r="B875" s="104">
+      <c r="B875" s="104" t="str">
         <f>_xlfn.XLOOKUP(A875,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C875" s="89"/>
       <c r="D875" s="105" t="str">
@@ -32138,9 +32256,9 @@
     </row>
     <row r="876" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A876" s="85"/>
-      <c r="B876" s="104">
+      <c r="B876" s="104" t="str">
         <f>_xlfn.XLOOKUP(A876,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C876" s="89"/>
       <c r="D876" s="105" t="str">
@@ -32161,9 +32279,9 @@
     </row>
     <row r="877" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A877" s="85"/>
-      <c r="B877" s="104">
+      <c r="B877" s="104" t="str">
         <f>_xlfn.XLOOKUP(A877,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C877" s="89"/>
       <c r="D877" s="105" t="str">
@@ -32184,9 +32302,9 @@
     </row>
     <row r="878" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A878" s="85"/>
-      <c r="B878" s="104">
+      <c r="B878" s="104" t="str">
         <f>_xlfn.XLOOKUP(A878,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C878" s="89"/>
       <c r="D878" s="105" t="str">
@@ -32207,9 +32325,9 @@
     </row>
     <row r="879" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A879" s="85"/>
-      <c r="B879" s="104">
+      <c r="B879" s="104" t="str">
         <f>_xlfn.XLOOKUP(A879,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C879" s="89"/>
       <c r="D879" s="105" t="str">
@@ -32230,9 +32348,9 @@
     </row>
     <row r="880" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A880" s="85"/>
-      <c r="B880" s="104">
+      <c r="B880" s="104" t="str">
         <f>_xlfn.XLOOKUP(A880,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C880" s="89"/>
       <c r="D880" s="105" t="str">
@@ -32276,9 +32394,9 @@
     </row>
     <row r="882" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A882" s="85"/>
-      <c r="B882" s="104">
+      <c r="B882" s="104" t="str">
         <f>_xlfn.XLOOKUP(A882,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C882" s="89"/>
       <c r="D882" s="105" t="str">
@@ -32322,9 +32440,9 @@
     </row>
     <row r="884" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A884" s="85"/>
-      <c r="B884" s="104">
+      <c r="B884" s="104" t="str">
         <f>_xlfn.XLOOKUP(A884,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C884" s="89"/>
       <c r="D884" s="105" t="str">
@@ -32345,9 +32463,9 @@
     </row>
     <row r="885" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A885" s="85"/>
-      <c r="B885" s="104">
+      <c r="B885" s="104" t="str">
         <f>_xlfn.XLOOKUP(A885,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C885" s="89"/>
       <c r="D885" s="105" t="str">
@@ -32368,9 +32486,9 @@
     </row>
     <row r="886" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A886" s="85"/>
-      <c r="B886" s="104">
+      <c r="B886" s="104" t="str">
         <f>_xlfn.XLOOKUP(A886,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C886" s="89"/>
       <c r="D886" s="105" t="str">
@@ -32414,9 +32532,9 @@
     </row>
     <row r="888" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A888" s="85"/>
-      <c r="B888" s="104">
+      <c r="B888" s="104" t="str">
         <f>_xlfn.XLOOKUP(A888,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C888" s="89"/>
       <c r="D888" s="105" t="str">
@@ -32437,9 +32555,9 @@
     </row>
     <row r="889" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A889" s="85"/>
-      <c r="B889" s="104">
+      <c r="B889" s="104" t="str">
         <f>_xlfn.XLOOKUP(A889,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C889" s="89"/>
       <c r="D889" s="105" t="str">
@@ -32460,9 +32578,9 @@
     </row>
     <row r="890" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A890" s="85"/>
-      <c r="B890" s="104">
+      <c r="B890" s="104" t="str">
         <f>_xlfn.XLOOKUP(A890,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C890" s="89"/>
       <c r="D890" s="105" t="str">
@@ -32483,9 +32601,9 @@
     </row>
     <row r="891" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A891" s="85"/>
-      <c r="B891" s="104">
+      <c r="B891" s="104" t="str">
         <f>_xlfn.XLOOKUP(A891,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C891" s="89"/>
       <c r="D891" s="105" t="str">
@@ -32506,9 +32624,9 @@
     </row>
     <row r="892" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A892" s="85"/>
-      <c r="B892" s="104">
+      <c r="B892" s="104" t="str">
         <f>_xlfn.XLOOKUP(A892,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C892" s="89"/>
       <c r="D892" s="105" t="str">
@@ -32552,9 +32670,9 @@
     </row>
     <row r="894" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A894" s="85"/>
-      <c r="B894" s="104">
+      <c r="B894" s="104" t="str">
         <f>_xlfn.XLOOKUP(A894,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C894" s="89"/>
       <c r="D894" s="105" t="str">
@@ -32598,9 +32716,9 @@
     </row>
     <row r="896" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A896" s="85"/>
-      <c r="B896" s="104">
+      <c r="B896" s="104" t="str">
         <f>_xlfn.XLOOKUP(A896,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C896" s="89"/>
       <c r="D896" s="105" t="str">
@@ -32621,9 +32739,9 @@
     </row>
     <row r="897" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A897" s="85"/>
-      <c r="B897" s="104">
+      <c r="B897" s="104" t="str">
         <f>_xlfn.XLOOKUP(A897,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C897" s="89"/>
       <c r="D897" s="105" t="str">
@@ -32644,9 +32762,9 @@
     </row>
     <row r="898" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A898" s="85"/>
-      <c r="B898" s="104">
+      <c r="B898" s="104" t="str">
         <f>_xlfn.XLOOKUP(A898,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C898" s="89"/>
       <c r="D898" s="105" t="str">
@@ -32690,9 +32808,9 @@
     </row>
     <row r="900" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A900" s="85"/>
-      <c r="B900" s="104">
+      <c r="B900" s="104" t="str">
         <f>_xlfn.XLOOKUP(A900,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C900" s="89"/>
       <c r="D900" s="105" t="str">
@@ -32713,9 +32831,9 @@
     </row>
     <row r="901" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A901" s="85"/>
-      <c r="B901" s="104">
+      <c r="B901" s="104" t="str">
         <f>_xlfn.XLOOKUP(A901,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C901" s="89"/>
       <c r="D901" s="105" t="str">
@@ -32736,9 +32854,9 @@
     </row>
     <row r="902" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A902" s="85"/>
-      <c r="B902" s="104">
+      <c r="B902" s="104" t="str">
         <f>_xlfn.XLOOKUP(A902,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C902" s="89"/>
       <c r="D902" s="105" t="str">
@@ -32759,9 +32877,9 @@
     </row>
     <row r="903" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A903" s="85"/>
-      <c r="B903" s="104">
+      <c r="B903" s="104" t="str">
         <f>_xlfn.XLOOKUP(A903,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C903" s="89"/>
       <c r="D903" s="105" t="str">
@@ -32782,9 +32900,9 @@
     </row>
     <row r="904" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A904" s="85"/>
-      <c r="B904" s="104">
+      <c r="B904" s="104" t="str">
         <f>_xlfn.XLOOKUP(A904,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C904" s="89"/>
       <c r="D904" s="105" t="str">
@@ -32828,9 +32946,9 @@
     </row>
     <row r="906" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A906" s="85"/>
-      <c r="B906" s="104">
+      <c r="B906" s="104" t="str">
         <f>_xlfn.XLOOKUP(A906,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C906" s="89"/>
       <c r="D906" s="105" t="str">
@@ -32874,9 +32992,9 @@
     </row>
     <row r="908" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A908" s="85"/>
-      <c r="B908" s="104">
+      <c r="B908" s="104" t="str">
         <f>_xlfn.XLOOKUP(A908,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C908" s="89"/>
       <c r="D908" s="105" t="str">
@@ -32897,9 +33015,9 @@
     </row>
     <row r="909" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A909" s="85"/>
-      <c r="B909" s="104">
+      <c r="B909" s="104" t="str">
         <f>_xlfn.XLOOKUP(A909,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C909" s="89"/>
       <c r="D909" s="105" t="str">
@@ -32920,9 +33038,9 @@
     </row>
     <row r="910" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A910" s="85"/>
-      <c r="B910" s="104">
+      <c r="B910" s="104" t="str">
         <f>_xlfn.XLOOKUP(A910,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C910" s="89"/>
       <c r="D910" s="105" t="str">
@@ -32966,9 +33084,9 @@
     </row>
     <row r="912" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A912" s="85"/>
-      <c r="B912" s="104">
+      <c r="B912" s="104" t="str">
         <f>_xlfn.XLOOKUP(A912,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C912" s="89"/>
       <c r="D912" s="105" t="str">
@@ -32989,9 +33107,9 @@
     </row>
     <row r="913" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A913" s="85"/>
-      <c r="B913" s="104">
+      <c r="B913" s="104" t="str">
         <f>_xlfn.XLOOKUP(A913,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C913" s="89"/>
       <c r="D913" s="105" t="str">
@@ -33012,9 +33130,9 @@
     </row>
     <row r="914" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A914" s="85"/>
-      <c r="B914" s="104">
+      <c r="B914" s="104" t="str">
         <f>_xlfn.XLOOKUP(A914,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C914" s="89"/>
       <c r="D914" s="105" t="str">
@@ -33035,9 +33153,9 @@
     </row>
     <row r="915" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A915" s="85"/>
-      <c r="B915" s="104">
+      <c r="B915" s="104" t="str">
         <f>_xlfn.XLOOKUP(A915,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C915" s="89"/>
       <c r="D915" s="105" t="str">
@@ -33104,9 +33222,9 @@
     </row>
     <row r="918" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A918" s="85"/>
-      <c r="B918" s="104">
+      <c r="B918" s="104" t="str">
         <f>_xlfn.XLOOKUP(A918,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C918" s="89"/>
       <c r="D918" s="105" t="str">
@@ -33127,9 +33245,9 @@
     </row>
     <row r="919" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A919" s="85"/>
-      <c r="B919" s="104">
+      <c r="B919" s="104" t="str">
         <f>_xlfn.XLOOKUP(A919,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C919" s="89"/>
       <c r="D919" s="105" t="str">
@@ -33150,9 +33268,9 @@
     </row>
     <row r="920" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A920" s="85"/>
-      <c r="B920" s="104">
+      <c r="B920" s="104" t="str">
         <f>_xlfn.XLOOKUP(A920,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C920" s="89"/>
       <c r="D920" s="105" t="str">
@@ -33173,9 +33291,9 @@
     </row>
     <row r="921" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A921" s="85"/>
-      <c r="B921" s="104">
+      <c r="B921" s="104" t="str">
         <f>_xlfn.XLOOKUP(A921,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C921" s="89"/>
       <c r="D921" s="105" t="str">
@@ -33196,9 +33314,9 @@
     </row>
     <row r="922" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A922" s="85"/>
-      <c r="B922" s="104">
+      <c r="B922" s="104" t="str">
         <f>_xlfn.XLOOKUP(A922,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C922" s="89"/>
       <c r="D922" s="105" t="str">
@@ -33242,9 +33360,9 @@
     </row>
     <row r="924" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A924" s="85"/>
-      <c r="B924" s="104">
+      <c r="B924" s="104" t="str">
         <f>_xlfn.XLOOKUP(A924,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C924" s="89"/>
       <c r="D924" s="105" t="str">
@@ -33265,9 +33383,9 @@
     </row>
     <row r="925" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A925" s="85"/>
-      <c r="B925" s="104">
+      <c r="B925" s="104" t="str">
         <f>_xlfn.XLOOKUP(A925,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C925" s="89"/>
       <c r="D925" s="105" t="str">
@@ -33288,9 +33406,9 @@
     </row>
     <row r="926" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A926" s="85"/>
-      <c r="B926" s="104">
+      <c r="B926" s="104" t="str">
         <f>_xlfn.XLOOKUP(A926,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C926" s="89"/>
       <c r="D926" s="105" t="str">
@@ -33311,9 +33429,9 @@
     </row>
     <row r="927" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A927" s="85"/>
-      <c r="B927" s="104">
+      <c r="B927" s="104" t="str">
         <f>_xlfn.XLOOKUP(A927,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C927" s="89"/>
       <c r="D927" s="105" t="str">
@@ -33380,9 +33498,9 @@
     </row>
     <row r="930" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A930" s="85"/>
-      <c r="B930" s="104">
+      <c r="B930" s="104" t="str">
         <f>_xlfn.XLOOKUP(A930,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C930" s="89"/>
       <c r="D930" s="105" t="str">
@@ -33403,9 +33521,9 @@
     </row>
     <row r="931" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A931" s="85"/>
-      <c r="B931" s="104">
+      <c r="B931" s="104" t="str">
         <f>_xlfn.XLOOKUP(A931,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C931" s="89"/>
       <c r="D931" s="105" t="str">
@@ -33426,9 +33544,9 @@
     </row>
     <row r="932" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A932" s="85"/>
-      <c r="B932" s="104">
+      <c r="B932" s="104" t="str">
         <f>_xlfn.XLOOKUP(A932,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C932" s="89"/>
       <c r="D932" s="105" t="str">
@@ -33449,9 +33567,9 @@
     </row>
     <row r="933" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A933" s="85"/>
-      <c r="B933" s="104">
+      <c r="B933" s="104" t="str">
         <f>_xlfn.XLOOKUP(A933,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C933" s="89"/>
       <c r="D933" s="105" t="str">
@@ -33472,9 +33590,9 @@
     </row>
     <row r="934" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A934" s="85"/>
-      <c r="B934" s="104">
+      <c r="B934" s="104" t="str">
         <f>_xlfn.XLOOKUP(A934,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C934" s="89"/>
       <c r="D934" s="105" t="str">
@@ -33495,9 +33613,9 @@
     </row>
     <row r="935" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A935" s="85"/>
-      <c r="B935" s="104">
+      <c r="B935" s="104" t="str">
         <f>_xlfn.XLOOKUP(A935,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C935" s="89"/>
       <c r="D935" s="105" t="str">
@@ -33518,9 +33636,9 @@
     </row>
     <row r="936" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A936" s="85"/>
-      <c r="B936" s="104">
+      <c r="B936" s="104" t="str">
         <f>_xlfn.XLOOKUP(A936,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C936" s="89"/>
       <c r="D936" s="105" t="str">
@@ -33587,9 +33705,9 @@
     </row>
     <row r="939" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A939" s="85"/>
-      <c r="B939" s="104">
+      <c r="B939" s="104" t="str">
         <f>_xlfn.XLOOKUP(A939,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C939" s="89"/>
       <c r="D939" s="105" t="str">
@@ -33610,9 +33728,9 @@
     </row>
     <row r="940" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A940" s="85"/>
-      <c r="B940" s="104">
+      <c r="B940" s="104" t="str">
         <f>_xlfn.XLOOKUP(A940,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C940" s="89"/>
       <c r="D940" s="105" t="str">
@@ -33633,9 +33751,9 @@
     </row>
     <row r="941" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A941" s="85"/>
-      <c r="B941" s="104">
+      <c r="B941" s="104" t="str">
         <f>_xlfn.XLOOKUP(A941,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C941" s="89"/>
       <c r="D941" s="105" t="str">
@@ -33656,9 +33774,9 @@
     </row>
     <row r="942" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A942" s="85"/>
-      <c r="B942" s="104">
+      <c r="B942" s="104" t="str">
         <f>_xlfn.XLOOKUP(A942,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C942" s="89"/>
       <c r="D942" s="105" t="str">
@@ -33679,9 +33797,9 @@
     </row>
     <row r="943" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A943" s="85"/>
-      <c r="B943" s="104">
+      <c r="B943" s="104" t="str">
         <f>_xlfn.XLOOKUP(A943,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C943" s="89"/>
       <c r="D943" s="105" t="str">
@@ -33725,9 +33843,9 @@
     </row>
     <row r="945" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A945" s="85"/>
-      <c r="B945" s="104">
+      <c r="B945" s="104" t="str">
         <f>_xlfn.XLOOKUP(A945,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C945" s="89"/>
       <c r="D945" s="105" t="str">
@@ -33771,9 +33889,9 @@
     </row>
     <row r="947" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A947" s="85"/>
-      <c r="B947" s="104">
+      <c r="B947" s="104" t="str">
         <f>_xlfn.XLOOKUP(A947,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C947" s="89"/>
       <c r="D947" s="105" t="str">
@@ -33794,9 +33912,9 @@
     </row>
     <row r="948" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A948" s="85"/>
-      <c r="B948" s="104">
+      <c r="B948" s="104" t="str">
         <f>_xlfn.XLOOKUP(A948,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C948" s="89"/>
       <c r="D948" s="105" t="str">
@@ -33817,9 +33935,9 @@
     </row>
     <row r="949" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A949" s="85"/>
-      <c r="B949" s="104">
+      <c r="B949" s="104" t="str">
         <f>_xlfn.XLOOKUP(A949,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C949" s="89"/>
       <c r="D949" s="105" t="str">
@@ -33863,9 +33981,9 @@
     </row>
     <row r="951" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A951" s="85"/>
-      <c r="B951" s="104">
+      <c r="B951" s="104" t="str">
         <f>_xlfn.XLOOKUP(A951,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C951" s="89"/>
       <c r="D951" s="105" t="str">
@@ -33886,9 +34004,9 @@
     </row>
     <row r="952" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A952" s="85"/>
-      <c r="B952" s="104">
+      <c r="B952" s="104" t="str">
         <f>_xlfn.XLOOKUP(A952,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C952" s="89"/>
       <c r="D952" s="105" t="str">
@@ -33909,9 +34027,9 @@
     </row>
     <row r="953" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A953" s="85"/>
-      <c r="B953" s="104">
+      <c r="B953" s="104" t="str">
         <f>_xlfn.XLOOKUP(A953,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C953" s="89"/>
       <c r="D953" s="105" t="str">
@@ -33932,9 +34050,9 @@
     </row>
     <row r="954" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A954" s="85"/>
-      <c r="B954" s="104">
+      <c r="B954" s="104" t="str">
         <f>_xlfn.XLOOKUP(A954,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C954" s="89"/>
       <c r="D954" s="105" t="str">
@@ -34001,9 +34119,9 @@
     </row>
     <row r="957" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A957" s="85"/>
-      <c r="B957" s="104">
+      <c r="B957" s="104" t="str">
         <f>_xlfn.XLOOKUP(A957,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C957" s="89"/>
       <c r="D957" s="105" t="str">
@@ -34024,9 +34142,9 @@
     </row>
     <row r="958" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A958" s="85"/>
-      <c r="B958" s="104">
+      <c r="B958" s="104" t="str">
         <f>_xlfn.XLOOKUP(A958,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C958" s="89"/>
       <c r="D958" s="105" t="str">
@@ -34047,9 +34165,9 @@
     </row>
     <row r="959" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A959" s="85"/>
-      <c r="B959" s="104">
+      <c r="B959" s="104" t="str">
         <f>_xlfn.XLOOKUP(A959,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C959" s="89"/>
       <c r="D959" s="105" t="str">
@@ -34070,9 +34188,9 @@
     </row>
     <row r="960" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A960" s="85"/>
-      <c r="B960" s="104">
+      <c r="B960" s="104" t="str">
         <f>_xlfn.XLOOKUP(A960,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C960" s="89"/>
       <c r="D960" s="105" t="str">
@@ -34093,9 +34211,9 @@
     </row>
     <row r="961" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A961" s="85"/>
-      <c r="B961" s="104">
+      <c r="B961" s="104" t="str">
         <f>_xlfn.XLOOKUP(A961,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C961" s="89"/>
       <c r="D961" s="105" t="str">
@@ -34116,9 +34234,9 @@
     </row>
     <row r="962" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A962" s="85"/>
-      <c r="B962" s="104">
+      <c r="B962" s="104" t="str">
         <f>_xlfn.XLOOKUP(A962,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C962" s="89"/>
       <c r="D962" s="105" t="str">
@@ -34139,9 +34257,9 @@
     </row>
     <row r="963" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A963" s="85"/>
-      <c r="B963" s="104">
+      <c r="B963" s="104" t="str">
         <f>_xlfn.XLOOKUP(A963,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C963" s="89"/>
       <c r="D963" s="105" t="str">
@@ -34162,9 +34280,9 @@
     </row>
     <row r="964" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A964" s="85"/>
-      <c r="B964" s="104">
+      <c r="B964" s="104" t="str">
         <f>_xlfn.XLOOKUP(A964,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C964" s="89"/>
       <c r="D964" s="105" t="str">
@@ -34208,9 +34326,9 @@
     </row>
     <row r="966" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A966" s="85"/>
-      <c r="B966" s="104">
+      <c r="B966" s="104" t="str">
         <f>_xlfn.XLOOKUP(A966,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C966" s="89"/>
       <c r="D966" s="105" t="str">
@@ -34277,9 +34395,9 @@
     </row>
     <row r="969" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A969" s="85"/>
-      <c r="B969" s="104">
+      <c r="B969" s="104" t="str">
         <f>_xlfn.XLOOKUP(A969,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C969" s="89"/>
       <c r="D969" s="105" t="str">
@@ -34300,9 +34418,9 @@
     </row>
     <row r="970" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A970" s="85"/>
-      <c r="B970" s="104">
+      <c r="B970" s="104" t="str">
         <f>_xlfn.XLOOKUP(A970,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C970" s="89"/>
       <c r="D970" s="105" t="str">
@@ -34323,9 +34441,9 @@
     </row>
     <row r="971" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A971" s="85"/>
-      <c r="B971" s="104">
+      <c r="B971" s="104" t="str">
         <f>_xlfn.XLOOKUP(A971,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C971" s="89"/>
       <c r="D971" s="105" t="str">
@@ -34346,9 +34464,9 @@
     </row>
     <row r="972" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A972" s="85"/>
-      <c r="B972" s="104">
+      <c r="B972" s="104" t="str">
         <f>_xlfn.XLOOKUP(A972,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C972" s="89"/>
       <c r="D972" s="105" t="str">
@@ -34369,9 +34487,9 @@
     </row>
     <row r="973" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A973" s="85"/>
-      <c r="B973" s="104">
+      <c r="B973" s="104" t="str">
         <f>_xlfn.XLOOKUP(A973,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C973" s="89"/>
       <c r="D973" s="105" t="str">
@@ -34392,9 +34510,9 @@
     </row>
     <row r="974" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A974" s="85"/>
-      <c r="B974" s="104">
+      <c r="B974" s="104" t="str">
         <f>_xlfn.XLOOKUP(A974,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C974" s="89"/>
       <c r="D974" s="105" t="str">
@@ -34415,9 +34533,9 @@
     </row>
     <row r="975" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A975" s="85"/>
-      <c r="B975" s="104">
+      <c r="B975" s="104" t="str">
         <f>_xlfn.XLOOKUP(A975,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C975" s="89"/>
       <c r="D975" s="105" t="str">
@@ -34484,9 +34602,9 @@
     </row>
     <row r="978" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A978" s="85"/>
-      <c r="B978" s="104">
+      <c r="B978" s="104" t="str">
         <f>_xlfn.XLOOKUP(A978,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C978" s="89"/>
       <c r="D978" s="105" t="str">
@@ -34507,9 +34625,9 @@
     </row>
     <row r="979" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A979" s="85"/>
-      <c r="B979" s="104">
+      <c r="B979" s="104" t="str">
         <f>_xlfn.XLOOKUP(A979,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C979" s="89"/>
       <c r="D979" s="105" t="str">
@@ -34553,9 +34671,9 @@
     </row>
     <row r="981" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A981" s="85"/>
-      <c r="B981" s="104">
+      <c r="B981" s="104" t="str">
         <f>_xlfn.XLOOKUP(A981,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C981" s="89"/>
       <c r="D981" s="105" t="str">
@@ -34576,9 +34694,9 @@
     </row>
     <row r="982" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A982" s="85"/>
-      <c r="B982" s="104">
+      <c r="B982" s="104" t="str">
         <f>_xlfn.XLOOKUP(A982,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C982" s="89"/>
       <c r="D982" s="105" t="str">
@@ -34599,9 +34717,9 @@
     </row>
     <row r="983" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A983" s="85"/>
-      <c r="B983" s="104">
+      <c r="B983" s="104" t="str">
         <f>_xlfn.XLOOKUP(A983,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C983" s="89"/>
       <c r="D983" s="105" t="str">
@@ -34622,9 +34740,9 @@
     </row>
     <row r="984" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A984" s="85"/>
-      <c r="B984" s="104">
+      <c r="B984" s="104" t="str">
         <f>_xlfn.XLOOKUP(A984,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C984" s="89"/>
       <c r="D984" s="105" t="str">
@@ -34668,9 +34786,9 @@
     </row>
     <row r="986" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A986" s="85"/>
-      <c r="B986" s="104">
+      <c r="B986" s="104" t="str">
         <f>_xlfn.XLOOKUP(A986,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C986" s="89"/>
       <c r="D986" s="105" t="str">
@@ -34691,9 +34809,9 @@
     </row>
     <row r="987" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A987" s="85"/>
-      <c r="B987" s="104">
+      <c r="B987" s="104" t="str">
         <f>_xlfn.XLOOKUP(A987,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C987" s="89"/>
       <c r="D987" s="105" t="str">
@@ -34714,9 +34832,9 @@
     </row>
     <row r="988" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A988" s="85"/>
-      <c r="B988" s="104">
+      <c r="B988" s="104" t="str">
         <f>_xlfn.XLOOKUP(A988,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C988" s="89"/>
       <c r="D988" s="105" t="str">
@@ -34737,9 +34855,9 @@
     </row>
     <row r="989" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A989" s="85"/>
-      <c r="B989" s="104">
+      <c r="B989" s="104" t="str">
         <f>_xlfn.XLOOKUP(A989,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C989" s="89"/>
       <c r="D989" s="105" t="str">
@@ -34760,9 +34878,9 @@
     </row>
     <row r="990" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A990" s="85"/>
-      <c r="B990" s="104">
+      <c r="B990" s="104" t="str">
         <f>_xlfn.XLOOKUP(A990,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C990" s="89"/>
       <c r="D990" s="105" t="str">
@@ -34783,9 +34901,9 @@
     </row>
     <row r="991" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A991" s="85"/>
-      <c r="B991" s="104">
+      <c r="B991" s="104" t="str">
         <f>_xlfn.XLOOKUP(A991,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C991" s="89"/>
       <c r="D991" s="105" t="str">
@@ -34829,9 +34947,9 @@
     </row>
     <row r="993" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A993" s="85"/>
-      <c r="B993" s="104">
+      <c r="B993" s="104" t="str">
         <f>_xlfn.XLOOKUP(A993,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C993" s="89"/>
       <c r="D993" s="105" t="str">
@@ -34852,9 +34970,9 @@
     </row>
     <row r="994" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A994" s="85"/>
-      <c r="B994" s="104">
+      <c r="B994" s="104" t="str">
         <f>_xlfn.XLOOKUP(A994,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C994" s="89"/>
       <c r="D994" s="105" t="str">
@@ -34898,9 +35016,9 @@
     </row>
     <row r="996" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A996" s="85"/>
-      <c r="B996" s="104">
+      <c r="B996" s="104" t="str">
         <f>_xlfn.XLOOKUP(A996,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C996" s="89"/>
       <c r="D996" s="105" t="str">
@@ -34944,9 +35062,9 @@
     </row>
     <row r="998" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A998" s="85"/>
-      <c r="B998" s="104">
+      <c r="B998" s="104" t="str">
         <f>_xlfn.XLOOKUP(A998,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C998" s="89"/>
       <c r="D998" s="105" t="str">
@@ -34967,9 +35085,9 @@
     </row>
     <row r="999" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A999" s="85"/>
-      <c r="B999" s="104">
+      <c r="B999" s="104" t="str">
         <f>_xlfn.XLOOKUP(A999,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C999" s="89"/>
       <c r="D999" s="105" t="str">
@@ -34990,9 +35108,9 @@
     </row>
     <row r="1000" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A1000" s="85"/>
-      <c r="B1000" s="104">
+      <c r="B1000" s="104" t="str">
         <f>_xlfn.XLOOKUP(A1000,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C1000" s="89"/>
       <c r="D1000" s="105" t="str">
@@ -35013,9 +35131,9 @@
     </row>
     <row r="1001" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A1001" s="85"/>
-      <c r="B1001" s="104">
+      <c r="B1001" s="104" t="str">
         <f>_xlfn.XLOOKUP(A1001,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C1001" s="89"/>
       <c r="D1001" s="105" t="str">
@@ -35036,9 +35154,9 @@
     </row>
     <row r="1002" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A1002" s="85"/>
-      <c r="B1002" s="104">
+      <c r="B1002" s="104" t="str">
         <f>_xlfn.XLOOKUP(A1002,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C1002" s="89"/>
       <c r="D1002" s="105" t="str">
@@ -35059,9 +35177,9 @@
     </row>
     <row r="1003" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A1003" s="85"/>
-      <c r="B1003" s="104">
+      <c r="B1003" s="104" t="str">
         <f>_xlfn.XLOOKUP(A1003,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C1003" s="89"/>
       <c r="D1003" s="105" t="str">
@@ -35082,9 +35200,9 @@
     </row>
     <row r="1004" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A1004" s="85"/>
-      <c r="B1004" s="104">
+      <c r="B1004" s="104" t="str">
         <f>_xlfn.XLOOKUP(A1004,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C1004" s="89"/>
       <c r="D1004" s="105" t="str">
@@ -35105,9 +35223,9 @@
     </row>
     <row r="1005" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A1005" s="85"/>
-      <c r="B1005" s="104">
+      <c r="B1005" s="104" t="str">
         <f>_xlfn.XLOOKUP(A1005,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C1005" s="89"/>
       <c r="D1005" s="105" t="str">
@@ -35174,9 +35292,9 @@
     </row>
     <row r="1008" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A1008" s="85"/>
-      <c r="B1008" s="104">
+      <c r="B1008" s="104" t="str">
         <f>_xlfn.XLOOKUP(A1008,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C1008" s="89"/>
       <c r="D1008" s="105" t="str">
@@ -35197,9 +35315,9 @@
     </row>
     <row r="1009" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A1009" s="85"/>
-      <c r="B1009" s="104">
+      <c r="B1009" s="104" t="str">
         <f>_xlfn.XLOOKUP(A1009,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C1009" s="89"/>
       <c r="D1009" s="105" t="str">
@@ -35243,9 +35361,9 @@
     </row>
     <row r="1011" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A1011" s="85"/>
-      <c r="B1011" s="104">
+      <c r="B1011" s="104" t="str">
         <f>_xlfn.XLOOKUP(A1011,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C1011" s="89"/>
       <c r="D1011" s="105" t="str">
@@ -35266,9 +35384,9 @@
     </row>
     <row r="1012" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A1012" s="85"/>
-      <c r="B1012" s="104">
+      <c r="B1012" s="104" t="str">
         <f>_xlfn.XLOOKUP(A1012,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C1012" s="89"/>
       <c r="D1012" s="105" t="str">
@@ -35289,9 +35407,9 @@
     </row>
     <row r="1013" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A1013" s="85"/>
-      <c r="B1013" s="104">
+      <c r="B1013" s="104" t="str">
         <f>_xlfn.XLOOKUP(A1013,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C1013" s="89"/>
       <c r="D1013" s="105" t="str">
@@ -35312,9 +35430,9 @@
     </row>
     <row r="1014" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A1014" s="85"/>
-      <c r="B1014" s="104">
+      <c r="B1014" s="104" t="str">
         <f>_xlfn.XLOOKUP(A1014,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C1014" s="89"/>
       <c r="D1014" s="105" t="str">
@@ -35358,9 +35476,9 @@
     </row>
     <row r="1016" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A1016" s="85"/>
-      <c r="B1016" s="104">
+      <c r="B1016" s="104" t="str">
         <f>_xlfn.XLOOKUP(A1016,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C1016" s="89"/>
       <c r="D1016" s="105" t="str">
@@ -35379,11 +35497,11 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1017" spans="1:9" ht="1.35" customHeight="1" thickBot="1">
+    <row r="1017" spans="1:9" ht="30" customHeight="1" thickBot="1">
       <c r="A1017" s="85"/>
-      <c r="B1017" s="104">
+      <c r="B1017" s="104" t="str">
         <f>_xlfn.XLOOKUP(A1017,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C1017" s="89"/>
       <c r="D1017" s="105" t="str">
@@ -35402,11 +35520,11 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="1018" spans="1:9" ht="30" customHeight="1" thickBot="1">
+    <row r="1018" spans="1:9" ht="1.35" customHeight="1" thickBot="1">
       <c r="A1018" s="85"/>
-      <c r="B1018" s="104">
+      <c r="B1018" s="104" t="str">
         <f>_xlfn.XLOOKUP(A1018,Equipe!H:H,Equipe!B:B,"",0)</f>
-        <v>0</v>
+        <v/>
       </c>
       <c r="C1018" s="89"/>
       <c r="D1018" s="105" t="str">
@@ -35426,37 +35544,60 @@
       </c>
     </row>
     <row r="1019" spans="1:9" ht="30" customHeight="1" thickBot="1">
-      <c r="A1019" s="88"/>
-      <c r="B1019" s="88">
+      <c r="A1019" s="85"/>
+      <c r="B1019" s="104">
+        <f>_xlfn.XLOOKUP(A1019,Equipe!H:H,Equipe!B:B,"",0)</f>
+        <v>0</v>
+      </c>
+      <c r="C1019" s="89"/>
+      <c r="D1019" s="105" t="str">
+        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C1019+E1019-1,"")</f>
+        <v/>
+      </c>
+      <c r="E1019" s="85"/>
+      <c r="F1019" s="85"/>
+      <c r="G1019" s="97"/>
+      <c r="H1019" s="39" t="str">
+        <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
+        <v>ERRO</v>
+      </c>
+      <c r="I1019" s="39" t="e">
+        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:9" ht="30" customHeight="1" thickBot="1">
+      <c r="A1020" s="88"/>
+      <c r="B1020" s="88">
         <v>4608</v>
       </c>
-      <c r="C1019" s="90"/>
-      <c r="D1019" s="107" t="str">
-        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C1019+E1019-1,"")</f>
-        <v/>
-      </c>
-      <c r="E1019" s="88"/>
-      <c r="F1019" s="88"/>
-      <c r="G1019" s="100"/>
-      <c r="H1019" s="39" t="str">
-        <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
-        <v>ERRO</v>
-      </c>
-      <c r="I1019" s="39" t="e">
-        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="1020" spans="1:9" ht="30" customHeight="1">
-      <c r="A1020" s="88"/>
-      <c r="B1020" s="88"/>
       <c r="C1020" s="90"/>
-      <c r="D1020" s="107"/>
+      <c r="D1020" s="107" t="str">
+        <f>IF(Tabela1[[#This Row],[Início]]&lt;&gt;"",C1020+E1020-1,"")</f>
+        <v/>
+      </c>
       <c r="E1020" s="88"/>
       <c r="F1020" s="88"/>
       <c r="G1020" s="100"/>
-      <c r="H1020" s="143"/>
-      <c r="I1020" s="143"/>
+      <c r="H1020" s="39" t="str">
+        <f>_xlfn.XLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:B,Equipe!E:E,"ERRO",0)</f>
+        <v>ERRO</v>
+      </c>
+      <c r="I1020" s="39" t="e">
+        <f>VLOOKUP(Tabela1[[#This Row],[Matrícula]],Equipe!B:F,5,0)</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:9" ht="30" customHeight="1">
+      <c r="A1021" s="88"/>
+      <c r="B1021" s="88"/>
+      <c r="C1021" s="90"/>
+      <c r="D1021" s="107"/>
+      <c r="E1021" s="88"/>
+      <c r="F1021" s="88"/>
+      <c r="G1021" s="100"/>
+      <c r="H1021" s="143"/>
+      <c r="I1021" s="143"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -35489,13 +35630,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1019:F1119" xr:uid="{FE92769D-A30C-45A3-B10C-426BB3355AD8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1020:F1120" xr:uid="{FE92769D-A30C-45A3-B10C-426BB3355AD8}">
       <formula1>#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1018" xr:uid="{156E15E9-23E7-431B-9B12-A26E3B0A7469}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1019" xr:uid="{156E15E9-23E7-431B-9B12-A26E3B0A7469}">
       <formula1>$K$2:$K$11</formula1>
     </dataValidation>
-    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1020" xr:uid="{5C1113F0-7A8D-468B-8799-E8BF7EFDC262}">
+    <dataValidation type="date" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1021" xr:uid="{5C1113F0-7A8D-468B-8799-E8BF7EFDC262}">
       <formula1>45658</formula1>
       <formula2>47484</formula2>
     </dataValidation>
@@ -35520,7 +35661,7 @@
           <x14:formula1>
             <xm:f>Equipe!$H$2:$H$131</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A1018</xm:sqref>
+          <xm:sqref>A2:A1019</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -35534,7 +35675,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="H39" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
@@ -35553,1151 +35694,1151 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="112" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B1" s="113" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="113" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D1" s="113" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E1" s="114" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F1" s="114" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="114" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="H1" s="114" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="131" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="J1" s="132" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="79" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B2" s="115">
         <v>4612171</v>
       </c>
       <c r="C2" s="115" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D2" s="116" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E2" s="117" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F2" s="117" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G2" s="118" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="H2" s="117" t="s">
         <v>114</v>
       </c>
       <c r="I2" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J2" s="134"/>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="79" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B3" s="109">
         <v>4612050</v>
       </c>
       <c r="C3" s="109" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D3" s="110" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E3" s="117" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F3" s="111" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G3" s="119" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="H3" s="111" t="s">
         <v>108</v>
       </c>
       <c r="I3" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J3" s="134"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="79" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B4" s="115">
         <v>4612140</v>
       </c>
       <c r="C4" s="115" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" s="116" t="s">
+        <v>200</v>
+      </c>
+      <c r="E4" s="122" t="s">
+        <v>209</v>
+      </c>
+      <c r="F4" s="117" t="s">
         <v>202</v>
       </c>
-      <c r="D4" s="116" t="s">
-        <v>194</v>
-      </c>
-      <c r="E4" s="122" t="s">
-        <v>203</v>
-      </c>
-      <c r="F4" s="117" t="s">
-        <v>196</v>
-      </c>
       <c r="G4" s="118" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="H4" s="117" t="s">
         <v>106</v>
       </c>
       <c r="I4" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J4" s="134"/>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="79" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B5" s="109">
         <v>9842940</v>
       </c>
       <c r="C5" s="109" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D5" s="110" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E5" s="111" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F5" s="111" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G5" s="119" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="H5" s="111" t="s">
         <v>29</v>
       </c>
       <c r="I5" s="133" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="J5" s="135"/>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="79" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B6" s="115">
         <v>9886449</v>
       </c>
       <c r="C6" s="115" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="D6" s="116" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E6" s="117" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F6" s="117" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G6" s="136" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="H6" s="117" t="s">
         <v>53</v>
       </c>
       <c r="I6" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J6" s="135" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="120" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B7" s="109">
         <v>4608721</v>
       </c>
       <c r="C7" s="109" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D7" s="121" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E7" s="122" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F7" s="122" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G7" s="123" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="H7" s="122" t="s">
         <v>28</v>
       </c>
       <c r="I7" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J7" s="135"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="120" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B8" s="115">
         <v>1385894</v>
       </c>
       <c r="C8" s="115" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="D8" s="124" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E8" s="125" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F8" s="125" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G8" s="137" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="H8" s="125" t="s">
         <v>31</v>
       </c>
       <c r="I8" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J8" s="135" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="120" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B9" s="109">
         <v>4608685</v>
       </c>
       <c r="C9" s="109" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D9" s="121" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E9" s="122" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F9" s="122" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G9" s="138" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="H9" s="122" t="s">
         <v>19</v>
       </c>
       <c r="I9" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J9" s="135"/>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="120" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B10" s="115">
         <v>9762281</v>
       </c>
       <c r="C10" s="115" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="D10" s="124" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E10" s="125" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F10" s="125" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G10" s="137" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="H10" s="125" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="I10" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J10" s="135" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="120" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B11" s="109">
         <v>9683150</v>
       </c>
       <c r="C11" s="109" t="s">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="D11" s="121" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E11" s="122" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F11" s="122" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G11" s="138" t="s">
-        <v>225</v>
+        <v>231</v>
       </c>
       <c r="H11" s="122" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="I11" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J11" s="135" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="79" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B12" s="115">
         <v>2440812</v>
       </c>
       <c r="C12" s="115" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D12" s="116" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E12" s="117" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F12" s="117" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G12" s="136" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="H12" s="117" t="s">
         <v>168</v>
       </c>
       <c r="I12" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J12" s="135"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="120" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B13" s="109">
         <v>1381625</v>
       </c>
       <c r="C13" s="109" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="D13" s="110" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E13" s="111" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F13" s="111" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G13" s="139" t="s">
-        <v>231</v>
+        <v>237</v>
       </c>
       <c r="H13" s="111" t="s">
         <v>37</v>
       </c>
       <c r="I13" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J13" s="135"/>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="79" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B14" s="115">
         <v>4608389</v>
       </c>
       <c r="C14" s="115" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D14" s="116" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E14" s="117" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F14" s="117" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G14" s="136" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="H14" s="117" t="s">
         <v>43</v>
       </c>
       <c r="I14" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J14" s="135"/>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="120" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B15" s="109">
         <v>4608544</v>
       </c>
       <c r="C15" s="109" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D15" s="110" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E15" s="111" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F15" s="111" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G15" s="139" t="s">
-        <v>235</v>
+        <v>241</v>
       </c>
       <c r="H15" s="111" t="s">
         <v>10</v>
       </c>
       <c r="I15" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J15" s="135"/>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="120" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B16" s="115">
         <v>4608474</v>
       </c>
       <c r="C16" s="115" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D16" s="116" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E16" s="117" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F16" s="125" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G16" s="126" t="s">
-        <v>237</v>
+        <v>243</v>
       </c>
       <c r="H16" s="125" t="s">
         <v>26</v>
       </c>
       <c r="I16" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J16" s="135"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="79" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B17" s="109">
         <v>1386344</v>
       </c>
       <c r="C17" s="109" t="s">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="D17" s="121" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E17" s="122" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F17" s="122" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G17" s="123" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="H17" s="122" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="I17" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J17" s="135" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="79" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B18" s="115">
         <v>4608684</v>
       </c>
       <c r="C18" s="115" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D18" s="124" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E18" s="125" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F18" s="125" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G18" s="126" t="s">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="H18" s="117" t="s">
         <v>51</v>
       </c>
       <c r="I18" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J18" s="135"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="79" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B19" s="109">
         <v>9612082</v>
       </c>
       <c r="C19" s="109" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D19" s="121" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E19" s="122" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F19" s="111" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G19" s="123" t="s">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="H19" s="122" t="s">
         <v>57</v>
       </c>
       <c r="I19" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J19" s="135"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="79" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B20" s="115">
         <v>9618720</v>
       </c>
       <c r="C20" s="115" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="D20" s="124" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E20" s="125" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F20" s="117" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G20" s="126" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="H20" s="125" t="s">
         <v>55</v>
       </c>
       <c r="I20" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J20" s="135" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="79" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B21" s="109">
         <v>9724817</v>
       </c>
       <c r="C21" s="109" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="D21" s="121" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E21" s="122" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F21" s="111" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G21" s="123" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="H21" s="122" t="s">
         <v>33</v>
       </c>
       <c r="I21" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J21" s="135"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="79" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B22" s="115">
         <v>2460800</v>
       </c>
       <c r="C22" s="115" t="s">
-        <v>249</v>
+        <v>255</v>
       </c>
       <c r="D22" s="124" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E22" s="125" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F22" s="117" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G22" s="118" t="s">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="H22" s="117" t="s">
-        <v>251</v>
+        <v>257</v>
       </c>
       <c r="I22" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J22" s="135"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="79" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B23" s="109">
         <v>4608559</v>
       </c>
       <c r="C23" s="109" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D23" s="121" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E23" s="122" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F23" s="122" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G23" s="123" t="s">
-        <v>253</v>
+        <v>259</v>
       </c>
       <c r="H23" s="122" t="s">
         <v>14</v>
       </c>
       <c r="I23" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J23" s="134"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="79" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B24" s="115">
         <v>4608411</v>
       </c>
       <c r="C24" s="115" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D24" s="124" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E24" s="125" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F24" s="117" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G24" s="126" t="s">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H24" s="125" t="s">
         <v>45</v>
       </c>
       <c r="I24" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J24" s="134"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="79" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B25" s="109">
         <v>9634180</v>
       </c>
       <c r="C25" s="109" t="s">
-        <v>256</v>
+        <v>262</v>
       </c>
       <c r="D25" s="110" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E25" s="111" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F25" s="111" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G25" s="119" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="H25" s="111" t="s">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="I25" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J25" s="134"/>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="79" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B26" s="115">
         <v>4608780</v>
       </c>
       <c r="C26" s="115" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D26" s="116" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E26" s="117" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F26" s="117" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G26" s="118" t="s">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="H26" s="117" t="s">
         <v>41</v>
       </c>
       <c r="I26" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J26" s="134"/>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="79" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B27" s="109">
         <v>2475130</v>
       </c>
       <c r="C27" s="109" t="s">
-        <v>261</v>
+        <v>267</v>
       </c>
       <c r="D27" s="110" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E27" s="111" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F27" s="111" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G27" s="138" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="H27" s="122" t="s">
         <v>88</v>
       </c>
       <c r="I27" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J27" s="134"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="79" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B28" s="115">
         <v>2477135</v>
       </c>
       <c r="C28" s="115" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="D28" s="116" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E28" s="117" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F28" s="117" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G28" s="137" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="H28" s="125" t="s">
         <v>50</v>
       </c>
       <c r="I28" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J28" s="134"/>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="79" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B29" s="109">
         <v>4606246</v>
       </c>
       <c r="C29" s="109" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="D29" s="110" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E29" s="122" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F29" s="111" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G29" s="138" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="H29" s="122" t="s">
         <v>69</v>
       </c>
       <c r="I29" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J29" s="135"/>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="79" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B30" s="115">
         <v>4606308</v>
       </c>
       <c r="C30" s="115" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="D30" s="116" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E30" s="125" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F30" s="117" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G30" s="137" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="H30" s="125" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="I30" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J30" s="135"/>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="79" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B31" s="109">
         <v>9634222</v>
       </c>
       <c r="C31" s="109" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D31" s="110" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E31" s="122" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F31" s="111" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G31" s="138" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="H31" s="122" t="s">
         <v>35</v>
       </c>
       <c r="I31" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J31" s="135" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="79" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B32" s="115">
         <v>229316</v>
       </c>
       <c r="C32" s="115" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="D32" s="115" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E32" s="81" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F32" s="81" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G32" s="140" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="H32" s="81" t="s">
         <v>120</v>
       </c>
       <c r="I32" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J32" s="135"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="79" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B33" s="109">
         <v>2493288</v>
       </c>
       <c r="C33" s="109" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="D33" s="109" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E33" s="80" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F33" s="111" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G33" s="141" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="H33" s="80" t="s">
         <v>30</v>
       </c>
       <c r="I33" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J33" s="135"/>
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="79" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B34" s="115">
         <v>214272</v>
       </c>
       <c r="C34" s="115" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="D34" s="115" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E34" s="81" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F34" s="117" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G34" s="140" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="H34" s="81" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="I34" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J34" s="135"/>
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="79" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B35" s="109">
         <v>4606694</v>
       </c>
       <c r="C35" s="109" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
       <c r="D35" s="110" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="E35" s="80" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F35" s="80" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G35" s="141" t="s">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="H35" s="80" t="s">
         <v>47</v>
       </c>
       <c r="I35" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J35" s="135"/>
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="79" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B36" s="115">
         <v>2430855</v>
       </c>
       <c r="C36" s="115" t="s">
-        <v>283</v>
+        <v>289</v>
       </c>
       <c r="D36" s="116" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E36" s="81" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F36" s="81" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G36" s="83" t="s">
-        <v>284</v>
+        <v>290</v>
       </c>
       <c r="H36" s="81" t="s">
         <v>21</v>
       </c>
       <c r="I36" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J36" s="135"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="79" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B37" s="109">
         <v>4604625</v>
       </c>
       <c r="C37" s="109" t="s">
-        <v>285</v>
+        <v>291</v>
       </c>
       <c r="D37" s="110" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="E37" s="80" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="F37" s="80" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G37" s="82" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="H37" s="80" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="I37" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J37" s="135"/>
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="79" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B38" s="115">
         <v>4612098</v>
       </c>
       <c r="C38" s="115" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D38" s="116" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E38" s="117" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F38" s="81" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G38" s="83" t="s">
-        <v>290</v>
+        <v>296</v>
       </c>
       <c r="H38" s="81" t="s">
         <v>102</v>
@@ -36707,241 +36848,241 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="120" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B39" s="109">
         <v>4612126</v>
       </c>
       <c r="C39" s="109" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D39" s="110" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E39" s="117" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F39" s="80" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G39" s="82" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="H39" s="80" t="s">
         <v>126</v>
       </c>
       <c r="I39" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J39" s="134"/>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="79" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B40" s="115">
         <v>2550195</v>
       </c>
       <c r="C40" s="115" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="D40" s="115" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E40" s="81" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F40" s="81" t="s">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="G40" s="83" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="H40" s="81" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
       <c r="I40" s="133" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="J40" s="134"/>
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="79" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B41" s="109">
         <v>4612243</v>
       </c>
       <c r="C41" s="109" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D41" s="110" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E41" s="111" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F41" s="80" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G41" s="82" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="H41" s="80" t="s">
         <v>116</v>
       </c>
       <c r="I41" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J41" s="134"/>
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="79" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B42" s="115">
         <v>4612389</v>
       </c>
       <c r="C42" s="115" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D42" s="116" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E42" s="111" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F42" s="81" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G42" s="83" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="H42" s="81" t="s">
         <v>112</v>
       </c>
       <c r="I42" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J42" s="134"/>
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="79" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B43" s="109">
         <v>4612192</v>
       </c>
       <c r="C43" s="109" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D43" s="110" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E43" s="117" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F43" s="80" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G43" s="82" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="H43" s="80" t="s">
         <v>110</v>
       </c>
       <c r="I43" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J43" s="134"/>
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="79" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B44" s="115">
         <v>4612393</v>
       </c>
       <c r="C44" s="115" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D44" s="116" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E44" s="122" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F44" s="81" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G44" s="83" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="H44" s="81" t="s">
         <v>141</v>
       </c>
       <c r="I44" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J44" s="134"/>
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="79" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B45" s="109">
         <v>4612228</v>
       </c>
       <c r="C45" s="109" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D45" s="110" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E45" s="117" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F45" s="80" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G45" s="82" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="H45" s="80" t="s">
         <v>142</v>
       </c>
       <c r="I45" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J45" s="134"/>
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="79" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B46" s="115">
         <v>4612247</v>
       </c>
       <c r="C46" s="115" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D46" s="116" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E46" s="122" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F46" s="81" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="G46" s="83" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="H46" s="81" t="s">
         <v>140</v>
       </c>
       <c r="I46" s="133" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="J46" s="134"/>
     </row>
@@ -37113,7 +37254,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AI98"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A15" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="J18" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M82" sqref="M82"/>
     </sheetView>
   </sheetViews>
@@ -37141,25 +37282,25 @@
     <row r="1" spans="2:35" ht="14.45"/>
     <row r="2" spans="2:35" ht="14.85" customHeight="1">
       <c r="B2" s="150" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="C2" s="151"/>
       <c r="D2" s="151"/>
       <c r="E2" s="151"/>
       <c r="G2" s="146" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="H2" s="146"/>
       <c r="I2" s="146"/>
       <c r="J2" s="146"/>
       <c r="L2" s="147" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="M2" s="148"/>
       <c r="N2" s="148"/>
       <c r="O2" s="149"/>
       <c r="Q2" s="147" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="R2" s="148"/>
       <c r="S2" s="148"/>
@@ -37167,52 +37308,52 @@
     </row>
     <row r="3" spans="2:35" ht="14.45">
       <c r="B3" s="130" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="C3" s="130" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="D3" s="130" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="E3" s="130" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="G3" s="102" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="H3" s="102" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="I3" s="102" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="J3" s="84" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="L3" s="102" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="M3" s="102" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="N3" s="102" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="O3" s="84" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q3" s="102" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="R3" s="102" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="S3" s="102" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="T3" s="84" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4" spans="2:35" ht="14.45">
@@ -37835,7 +37976,7 @@
         <v>18</v>
       </c>
       <c r="AI13" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="14" spans="2:35" ht="14.45">
@@ -39080,52 +39221,52 @@
     </row>
     <row r="40" spans="2:20" ht="15" customHeight="1">
       <c r="O40" s="142" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="76" spans="1:20" ht="15" customHeight="1">
       <c r="A76" s="112" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B76" s="113" t="s">
         <v>1</v>
       </c>
       <c r="C76" s="113" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D76" s="113" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="E76" s="114" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="F76" s="114" t="s">
         <v>0</v>
       </c>
       <c r="G76" s="114" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="H76" s="114" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="S76"/>
       <c r="T76"/>
     </row>
     <row r="77" spans="1:20" ht="15" customHeight="1">
       <c r="A77" s="79" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B77" s="115">
         <v>4612171</v>
       </c>
       <c r="C77" s="115" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="D77" s="116" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E77" s="117" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F77" s="117" t="s">
         <v>114</v>
@@ -39143,19 +39284,19 @@
     </row>
     <row r="78" spans="1:20" ht="15" customHeight="1">
       <c r="A78" s="79" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B78" s="109">
         <v>4612050</v>
       </c>
       <c r="C78" s="109" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D78" s="110" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E78" s="111" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F78" s="111" t="s">
         <v>108</v>
@@ -39173,19 +39314,19 @@
     </row>
     <row r="79" spans="1:20" ht="15" customHeight="1">
       <c r="A79" s="79" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B79" s="115">
         <v>4612140</v>
       </c>
       <c r="C79" s="115" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D79" s="116" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E79" s="117" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F79" s="117" t="s">
         <v>106</v>
@@ -39203,19 +39344,19 @@
     </row>
     <row r="80" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A80" s="79" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B80" s="109">
         <v>4612243</v>
       </c>
       <c r="C80" s="109" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D80" s="110" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E80" s="111" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F80" s="111" t="s">
         <v>116</v>
@@ -39233,19 +39374,19 @@
     </row>
     <row r="81" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A81" s="79" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B81" s="115">
         <v>4612389</v>
       </c>
       <c r="C81" s="115" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="D81" s="116" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E81" s="117" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F81" s="117" t="s">
         <v>112</v>
@@ -39263,19 +39404,19 @@
     </row>
     <row r="82" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A82" s="120" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B82" s="109">
         <v>4612192</v>
       </c>
       <c r="C82" s="109" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="D82" s="121" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E82" s="122" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F82" s="122" t="s">
         <v>110</v>
@@ -39293,19 +39434,19 @@
     </row>
     <row r="83" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A83" s="120" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B83" s="115">
         <v>4612393</v>
       </c>
       <c r="C83" s="115" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="D83" s="124" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E83" s="125" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F83" s="125" t="s">
         <v>141</v>
@@ -39323,19 +39464,19 @@
     </row>
     <row r="84" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A84" s="79" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B84" s="109">
         <v>4612228</v>
       </c>
       <c r="C84" s="109" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="D84" s="110" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E84" s="111" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F84" s="111" t="s">
         <v>142</v>
@@ -39353,19 +39494,19 @@
     </row>
     <row r="85" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A85" s="120" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B85" s="115">
         <v>4612247</v>
       </c>
       <c r="C85" s="115" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D85" s="116" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E85" s="117" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F85" s="117" t="s">
         <v>140</v>
@@ -39383,19 +39524,19 @@
     </row>
     <row r="86" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A86" s="120" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B86" s="115">
         <v>4612098</v>
       </c>
       <c r="C86" s="115" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="D86" s="116" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E86" s="117" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F86" s="117" t="s">
         <v>102</v>
@@ -39413,19 +39554,19 @@
     </row>
     <row r="87" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A87" s="120" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B87" s="109">
         <v>4612126</v>
       </c>
       <c r="C87" s="109" t="s">
-        <v>291</v>
+        <v>297</v>
       </c>
       <c r="D87" s="110" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E87" s="111" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="F87" s="122" t="s">
         <v>126</v>
@@ -39443,19 +39584,19 @@
     </row>
     <row r="88" spans="1:20" ht="15" customHeight="1">
       <c r="A88" s="79" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B88" s="109">
         <v>9842940</v>
       </c>
       <c r="C88" s="109" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="D88" s="121" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E88" s="122" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F88" s="122" t="s">
         <v>29</v>
@@ -39473,19 +39614,19 @@
     </row>
     <row r="89" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A89" s="79" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B89" s="109">
         <v>4608721</v>
       </c>
       <c r="C89" s="109" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D89" s="121" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E89" s="122" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F89" s="111" t="s">
         <v>28</v>
@@ -39503,19 +39644,19 @@
     </row>
     <row r="90" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A90" s="79" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B90" s="109">
         <v>4608685</v>
       </c>
       <c r="C90" s="109" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="D90" s="121" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E90" s="122" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F90" s="122" t="s">
         <v>19</v>
@@ -39533,19 +39674,19 @@
     </row>
     <row r="91" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A91" s="79" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B91" s="115">
         <v>4608389</v>
       </c>
       <c r="C91" s="115" t="s">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="D91" s="124" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E91" s="125" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="F91" s="125" t="s">
         <v>43</v>
@@ -39563,19 +39704,19 @@
     </row>
     <row r="92" spans="1:20" ht="15" customHeight="1">
       <c r="A92" s="79" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B92" s="109">
         <v>4608544</v>
       </c>
       <c r="C92" s="109" t="s">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="D92" s="110" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E92" s="111" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F92" s="111" t="s">
         <v>10</v>
@@ -39593,19 +39734,19 @@
     </row>
     <row r="93" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A93" s="79" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B93" s="115">
         <v>4608474</v>
       </c>
       <c r="C93" s="115" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="D93" s="116" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E93" s="117" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F93" s="117" t="s">
         <v>26</v>
@@ -39623,19 +39764,19 @@
     </row>
     <row r="94" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A94" s="79" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B94" s="127">
         <v>4608684</v>
       </c>
       <c r="C94" s="115" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D94" s="116" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E94" s="125" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="F94" s="125" t="s">
         <v>51</v>
@@ -39653,19 +39794,19 @@
     </row>
     <row r="95" spans="1:20" ht="15" customHeight="1">
       <c r="A95" s="79" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B95" s="109">
         <v>4608559</v>
       </c>
       <c r="C95" s="109" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="D95" s="110" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E95" s="80" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F95" s="80" t="s">
         <v>14</v>
@@ -39683,19 +39824,19 @@
     </row>
     <row r="96" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A96" s="79" t="s">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B96" s="115">
         <v>4608411</v>
       </c>
       <c r="C96" s="115" t="s">
-        <v>254</v>
+        <v>260</v>
       </c>
       <c r="D96" s="116" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E96" s="81" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F96" s="81" t="s">
         <v>45</v>
@@ -39706,37 +39847,37 @@
       </c>
       <c r="H96" s="117">
         <f ca="1">SUMIFS('Planejamento IED'!E:E,'Planejamento IED'!A:A,F96,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!D:D,"&lt;="&amp;TODAY())</f>
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="S96"/>
       <c r="T96"/>
     </row>
     <row r="97" spans="1:20" ht="15" hidden="1" customHeight="1">
       <c r="A97" s="79" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="B97" s="115">
         <v>4608780</v>
       </c>
       <c r="C97" s="115" t="s">
-        <v>259</v>
+        <v>265</v>
       </c>
       <c r="D97" s="116" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="E97" s="81" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F97" s="81" t="s">
         <v>41</v>
       </c>
       <c r="G97" s="117">
         <f ca="1">COUNTIFS('Planejamento IED'!A:A,'Embarques Vivenciais'!F97,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!D:D,"&lt;="&amp;TODAY())</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H97" s="117">
         <f ca="1">SUMIFS('Planejamento IED'!E:E,'Planejamento IED'!A:A,F97,'Planejamento IED'!F:F,"Embarque",'Planejamento IED'!D:D,"&lt;="&amp;TODAY())</f>
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="S97"/>
       <c r="T97"/>
@@ -39862,10 +40003,10 @@
   <sheetData>
     <row r="1" spans="1:239" ht="30" customHeight="1">
       <c r="A1" s="33" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
@@ -39873,31 +40014,31 @@
       <c r="F1" s="31"/>
       <c r="H1" s="2"/>
       <c r="I1" s="50" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:239" ht="30" customHeight="1">
       <c r="A2" s="32" t="s">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="I2" s="51"/>
     </row>
     <row r="3" spans="1:239" ht="33" customHeight="1">
       <c r="A3" s="32" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B3" s="70" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="C3" s="69">
         <f>Início_do_projeto+120</f>
         <v>46051</v>
       </c>
       <c r="D3" s="68" t="s">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="E3" s="155">
         <v>45931</v>
@@ -39907,10 +40048,10 @@
     </row>
     <row r="4" spans="1:239" ht="30" customHeight="1">
       <c r="A4" s="33" t="s">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="C4" s="156" t="s">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="D4" s="157"/>
       <c r="E4" s="7">
@@ -40249,7 +40390,7 @@
     </row>
     <row r="5" spans="1:239" ht="15" customHeight="1">
       <c r="A5" s="33" t="s">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B5" s="49"/>
       <c r="C5" s="49"/>
@@ -41184,22 +41325,22 @@
     </row>
     <row r="6" spans="1:239" ht="30" customHeight="1" thickBot="1">
       <c r="A6" s="33" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
@@ -42132,7 +42273,7 @@
     </row>
     <row r="7" spans="1:239" ht="30" hidden="1" customHeight="1" thickBot="1">
       <c r="A7" s="32" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C7" s="35"/>
       <c r="E7"/>
@@ -42199,10 +42340,10 @@
     </row>
     <row r="8" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A8" s="33" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="C8" s="38"/>
       <c r="D8" s="16"/>
@@ -42447,10 +42588,10 @@
     </row>
     <row r="9" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A9" s="33" t="s">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="17">
@@ -42703,7 +42844,7 @@
     </row>
     <row r="10" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A10" s="33" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B10" s="45" t="s">
         <v>17</v>
@@ -42960,7 +43101,7 @@
     <row r="11" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A11" s="33"/>
       <c r="B11" s="45" t="s">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="C11" s="39"/>
       <c r="D11" s="17"/>
@@ -43209,7 +43350,7 @@
     <row r="12" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A12" s="32"/>
       <c r="B12" s="45" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="17">
@@ -43714,7 +43855,7 @@
     <row r="14" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A14" s="32"/>
       <c r="B14" s="45" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C14" s="39"/>
       <c r="D14" s="17">
@@ -44215,10 +44356,10 @@
     </row>
     <row r="16" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A16" s="33" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B16" s="18" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="C16" s="40"/>
       <c r="D16" s="19"/>
@@ -44464,7 +44605,7 @@
     <row r="17" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A17" s="33"/>
       <c r="B17" s="46" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C17" s="41"/>
       <c r="D17" s="20">
@@ -44972,7 +45113,7 @@
     <row r="19" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A19" s="32"/>
       <c r="B19" s="46" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C19" s="41"/>
       <c r="D19" s="20">
@@ -45477,7 +45618,7 @@
     <row r="21" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A21" s="32"/>
       <c r="B21" s="46" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C21" s="41"/>
       <c r="D21" s="20">
@@ -45978,10 +46119,10 @@
     </row>
     <row r="23" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A23" s="32" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="C23" s="42"/>
       <c r="D23" s="22"/>
@@ -46227,7 +46368,7 @@
     <row r="24" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A24" s="32"/>
       <c r="B24" s="47" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="C24" s="43"/>
       <c r="D24" s="23">
@@ -46735,7 +46876,7 @@
     <row r="26" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A26" s="32"/>
       <c r="B26" s="47" t="s">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="C26" s="43"/>
       <c r="D26" s="23">
@@ -47240,7 +47381,7 @@
     <row r="28" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A28" s="32"/>
       <c r="B28" s="47" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="C28" s="43"/>
       <c r="D28" s="23">
@@ -47741,7 +47882,7 @@
     </row>
     <row r="30" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A30" s="32" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B30" s="48"/>
       <c r="C30" s="44"/>
@@ -47987,10 +48128,10 @@
     </row>
     <row r="31" spans="1:239" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1">
       <c r="A31" s="33" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="C31" s="25"/>
       <c r="D31" s="26"/>
@@ -48348,18 +48489,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="0d1dea18-7b56-4ac7-aa1d-7834839a8030" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a9f3451a-73cb-4405-a932-26db050e40a8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <_Flow_SignoffStatus xmlns="a9f3451a-73cb-4405-a932-26db050e40a8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -48368,7 +48497,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100307D4A70B9C02140AA2101FC0916705B" ma:contentTypeVersion="20" ma:contentTypeDescription="Crie um novo documento." ma:contentTypeScope="" ma:versionID="326ba047948445d334197db979228542">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="a9f3451a-73cb-4405-a932-26db050e40a8" xmlns:ns3="0d1dea18-7b56-4ac7-aa1d-7834839a8030" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7029ae4435daa35a512843214cf6676d" ns2:_="" ns3:_="">
     <xsd:import namespace="a9f3451a-73cb-4405-a932-26db050e40a8"/>
@@ -48635,16 +48764,28 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="0d1dea18-7b56-4ac7-aa1d-7834839a8030" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="a9f3451a-73cb-4405-a932-26db050e40a8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <_Flow_SignoffStatus xmlns="a9f3451a-73cb-4405-a932-26db050e40a8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4A34E49-7289-4AEA-9593-4F55E04ADB10}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A7A0EE-DD21-4056-97DE-D746BDFD9B73}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77A7A0EE-DD21-4056-97DE-D746BDFD9B73}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AC3AD2E1-977A-4D4F-8EE8-D64B5FFADF75}"/>
 </file>
 
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
